--- a/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
+++ b/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5CB4AC2-BC8B-4BB2-AF82-12226CEC33D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A66554F-3B36-486B-B546-3874B61C89EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="69">
   <si>
     <t>branchname</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>Winchester Public Library</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2022-02-01 - 2022-02-28</t>
   </si>
 </sst>
 </file>
@@ -609,11 +615,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,9 +5218,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3351FCFD-2A2A-4342-87F8-3564DBC5D720}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:AF2"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -5227,38 +5233,4136 @@
     <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44593</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44594</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44595</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44596</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44597</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44598</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44599</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44600</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44601</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44602</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44603</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44604</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44605</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44606</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44607</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>44608</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44609</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44610</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44611</v>
+      </c>
+      <c r="U2" s="1">
+        <v>44612</v>
+      </c>
+      <c r="V2" s="1">
+        <v>44613</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44614</v>
+      </c>
+      <c r="X2" s="1">
+        <v>44615</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>44616</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>44617</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44618</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>44619</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>67</v>
+      </c>
+      <c r="I4">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>57</v>
+      </c>
+      <c r="K4">
+        <v>73</v>
+      </c>
+      <c r="L4">
+        <v>60</v>
+      </c>
+      <c r="M4">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>69</v>
+      </c>
+      <c r="P4">
+        <v>62</v>
+      </c>
+      <c r="Q4">
+        <v>82</v>
+      </c>
+      <c r="R4">
+        <v>37</v>
+      </c>
+      <c r="S4">
+        <v>44</v>
+      </c>
+      <c r="T4">
+        <v>30</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="W4">
+        <v>77</v>
+      </c>
+      <c r="X4">
+        <v>57</v>
+      </c>
+      <c r="Y4">
+        <v>39</v>
+      </c>
+      <c r="Z4">
+        <v>65</v>
+      </c>
+      <c r="AA4">
+        <v>46</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>62</v>
+      </c>
+      <c r="AG4">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>37</v>
+      </c>
+      <c r="I5">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>34</v>
+      </c>
+      <c r="P5">
+        <v>44</v>
+      </c>
+      <c r="Q5">
+        <v>44</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>29</v>
+      </c>
+      <c r="T5">
+        <v>15</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>35</v>
+      </c>
+      <c r="W5">
+        <v>34</v>
+      </c>
+      <c r="X5">
+        <v>40</v>
+      </c>
+      <c r="Y5">
+        <v>19</v>
+      </c>
+      <c r="Z5">
+        <v>29</v>
+      </c>
+      <c r="AA5">
+        <v>20</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>26</v>
+      </c>
+      <c r="AG5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>78</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="J6">
+        <v>93</v>
+      </c>
+      <c r="K6">
+        <v>72</v>
+      </c>
+      <c r="L6">
+        <v>71</v>
+      </c>
+      <c r="M6">
+        <v>53</v>
+      </c>
+      <c r="N6">
+        <v>46</v>
+      </c>
+      <c r="O6">
+        <v>79</v>
+      </c>
+      <c r="P6">
+        <v>94</v>
+      </c>
+      <c r="Q6">
+        <v>106</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>33</v>
+      </c>
+      <c r="T6">
+        <v>41</v>
+      </c>
+      <c r="U6">
+        <v>46</v>
+      </c>
+      <c r="V6">
+        <v>11</v>
+      </c>
+      <c r="W6">
+        <v>81</v>
+      </c>
+      <c r="X6">
+        <v>112</v>
+      </c>
+      <c r="Y6">
+        <v>63</v>
+      </c>
+      <c r="Z6">
+        <v>76</v>
+      </c>
+      <c r="AA6">
+        <v>69</v>
+      </c>
+      <c r="AB6">
+        <v>35</v>
+      </c>
+      <c r="AC6">
+        <v>85</v>
+      </c>
+      <c r="AG6">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>72</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>59</v>
+      </c>
+      <c r="I8">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>62</v>
+      </c>
+      <c r="K8">
+        <v>54</v>
+      </c>
+      <c r="L8">
+        <v>45</v>
+      </c>
+      <c r="M8">
+        <v>37</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>62</v>
+      </c>
+      <c r="P8">
+        <v>65</v>
+      </c>
+      <c r="Q8">
+        <v>65</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>28</v>
+      </c>
+      <c r="T8">
+        <v>48</v>
+      </c>
+      <c r="U8">
+        <v>21</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>65</v>
+      </c>
+      <c r="X8">
+        <v>56</v>
+      </c>
+      <c r="Y8">
+        <v>44</v>
+      </c>
+      <c r="Z8">
+        <v>57</v>
+      </c>
+      <c r="AA8">
+        <v>53</v>
+      </c>
+      <c r="AB8">
+        <v>26</v>
+      </c>
+      <c r="AC8">
+        <v>74</v>
+      </c>
+      <c r="AG8">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>8</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>16</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>9</v>
+      </c>
+      <c r="AG9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>19</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>13</v>
+      </c>
+      <c r="X10">
+        <v>16</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>11</v>
+      </c>
+      <c r="AA10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AG10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AC11">
+        <v>8</v>
+      </c>
+      <c r="AG11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>11</v>
+      </c>
+      <c r="R15">
+        <v>13</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>9</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AG15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>12</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>12</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>17</v>
+      </c>
+      <c r="Y16">
+        <v>7</v>
+      </c>
+      <c r="Z16">
+        <v>12</v>
+      </c>
+      <c r="AA16">
+        <v>4</v>
+      </c>
+      <c r="AC16">
+        <v>15</v>
+      </c>
+      <c r="AG16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>21</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>9</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>8</v>
+      </c>
+      <c r="AG17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>4</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AG18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>41</v>
+      </c>
+      <c r="I19">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>26</v>
+      </c>
+      <c r="L19">
+        <v>27</v>
+      </c>
+      <c r="M19">
+        <v>23</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>31</v>
+      </c>
+      <c r="P19">
+        <v>16</v>
+      </c>
+      <c r="Q19">
+        <v>30</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>12</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>38</v>
+      </c>
+      <c r="X19">
+        <v>24</v>
+      </c>
+      <c r="Y19">
+        <v>12</v>
+      </c>
+      <c r="Z19">
+        <v>26</v>
+      </c>
+      <c r="AA19">
+        <v>25</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>21</v>
+      </c>
+      <c r="AG19">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AG20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+      <c r="I21">
+        <v>33</v>
+      </c>
+      <c r="J21">
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <v>37</v>
+      </c>
+      <c r="L21">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>13</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>33</v>
+      </c>
+      <c r="P21">
+        <v>43</v>
+      </c>
+      <c r="Q21">
+        <v>22</v>
+      </c>
+      <c r="R21">
+        <v>25</v>
+      </c>
+      <c r="S21">
+        <v>24</v>
+      </c>
+      <c r="T21">
+        <v>12</v>
+      </c>
+      <c r="U21">
+        <v>8</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>34</v>
+      </c>
+      <c r="X21">
+        <v>30</v>
+      </c>
+      <c r="Y21">
+        <v>26</v>
+      </c>
+      <c r="Z21">
+        <v>30</v>
+      </c>
+      <c r="AA21">
+        <v>21</v>
+      </c>
+      <c r="AB21">
+        <v>9</v>
+      </c>
+      <c r="AC21">
+        <v>23</v>
+      </c>
+      <c r="AG21">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AG22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>31</v>
+      </c>
+      <c r="I23">
+        <v>29</v>
+      </c>
+      <c r="J23">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>55</v>
+      </c>
+      <c r="L23">
+        <v>34</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
+      </c>
+      <c r="O23">
+        <v>43</v>
+      </c>
+      <c r="P23">
+        <v>33</v>
+      </c>
+      <c r="Q23">
+        <v>55</v>
+      </c>
+      <c r="R23">
+        <v>25</v>
+      </c>
+      <c r="S23">
+        <v>28</v>
+      </c>
+      <c r="T23">
+        <v>16</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>38</v>
+      </c>
+      <c r="X23">
+        <v>42</v>
+      </c>
+      <c r="Y23">
+        <v>26</v>
+      </c>
+      <c r="Z23">
+        <v>42</v>
+      </c>
+      <c r="AA23">
+        <v>18</v>
+      </c>
+      <c r="AB23">
+        <v>5</v>
+      </c>
+      <c r="AC23">
+        <v>47</v>
+      </c>
+      <c r="AG23">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>7</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>42</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>28</v>
+      </c>
+      <c r="I25">
+        <v>46</v>
+      </c>
+      <c r="J25">
+        <v>28</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>16</v>
+      </c>
+      <c r="Y25">
+        <v>15</v>
+      </c>
+      <c r="Z25">
+        <v>30</v>
+      </c>
+      <c r="AA25">
+        <v>19</v>
+      </c>
+      <c r="AC25">
+        <v>39</v>
+      </c>
+      <c r="AG25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>147</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="E26">
+        <v>59</v>
+      </c>
+      <c r="F26">
+        <v>66</v>
+      </c>
+      <c r="G26">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <v>82</v>
+      </c>
+      <c r="I26">
+        <v>105</v>
+      </c>
+      <c r="J26">
+        <v>104</v>
+      </c>
+      <c r="K26">
+        <v>123</v>
+      </c>
+      <c r="L26">
+        <v>116</v>
+      </c>
+      <c r="M26">
+        <v>74</v>
+      </c>
+      <c r="N26">
+        <v>43</v>
+      </c>
+      <c r="O26">
+        <v>80</v>
+      </c>
+      <c r="P26">
+        <v>84</v>
+      </c>
+      <c r="Q26">
+        <v>104</v>
+      </c>
+      <c r="R26">
+        <v>14</v>
+      </c>
+      <c r="S26">
+        <v>62</v>
+      </c>
+      <c r="T26">
+        <v>79</v>
+      </c>
+      <c r="U26">
+        <v>46</v>
+      </c>
+      <c r="V26">
+        <v>16</v>
+      </c>
+      <c r="W26">
+        <v>118</v>
+      </c>
+      <c r="X26">
+        <v>99</v>
+      </c>
+      <c r="Y26">
+        <v>84</v>
+      </c>
+      <c r="Z26">
+        <v>75</v>
+      </c>
+      <c r="AA26">
+        <v>80</v>
+      </c>
+      <c r="AB26">
+        <v>56</v>
+      </c>
+      <c r="AC26">
+        <v>98</v>
+      </c>
+      <c r="AG26">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>13</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>14</v>
+      </c>
+      <c r="Z27">
+        <v>8</v>
+      </c>
+      <c r="AA27">
+        <v>4</v>
+      </c>
+      <c r="AC27">
+        <v>9</v>
+      </c>
+      <c r="AG27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <v>13</v>
+      </c>
+      <c r="Q29">
+        <v>11</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>7</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>13</v>
+      </c>
+      <c r="X29">
+        <v>12</v>
+      </c>
+      <c r="Y29">
+        <v>4</v>
+      </c>
+      <c r="AA29">
+        <v>9</v>
+      </c>
+      <c r="AC29">
+        <v>13</v>
+      </c>
+      <c r="AG29">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>5</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>18</v>
+      </c>
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>14</v>
+      </c>
+      <c r="O31">
+        <v>13</v>
+      </c>
+      <c r="P31">
+        <v>22</v>
+      </c>
+      <c r="Q31">
+        <v>27</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>20</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>20</v>
+      </c>
+      <c r="W31">
+        <v>16</v>
+      </c>
+      <c r="X31">
+        <v>18</v>
+      </c>
+      <c r="Y31">
+        <v>16</v>
+      </c>
+      <c r="Z31">
+        <v>12</v>
+      </c>
+      <c r="AA31">
+        <v>8</v>
+      </c>
+      <c r="AC31">
+        <v>22</v>
+      </c>
+      <c r="AG31">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Z32">
+        <v>4</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AG32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33">
+        <v>7</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>6</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>4</v>
+      </c>
+      <c r="Z33">
+        <v>3</v>
+      </c>
+      <c r="AA33">
+        <v>6</v>
+      </c>
+      <c r="AG33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>21</v>
+      </c>
+      <c r="H34">
+        <v>37</v>
+      </c>
+      <c r="I34">
+        <v>36</v>
+      </c>
+      <c r="J34">
+        <v>37</v>
+      </c>
+      <c r="K34">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>24</v>
+      </c>
+      <c r="M34">
+        <v>16</v>
+      </c>
+      <c r="O34">
+        <v>39</v>
+      </c>
+      <c r="P34">
+        <v>29</v>
+      </c>
+      <c r="Q34">
+        <v>40</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>21</v>
+      </c>
+      <c r="T34">
+        <v>16</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>48</v>
+      </c>
+      <c r="X34">
+        <v>32</v>
+      </c>
+      <c r="Y34">
+        <v>22</v>
+      </c>
+      <c r="Z34">
+        <v>25</v>
+      </c>
+      <c r="AA34">
+        <v>16</v>
+      </c>
+      <c r="AC34">
+        <v>40</v>
+      </c>
+      <c r="AG34">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>38</v>
+      </c>
+      <c r="I35">
+        <v>32</v>
+      </c>
+      <c r="J35">
+        <v>32</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>29</v>
+      </c>
+      <c r="P35">
+        <v>24</v>
+      </c>
+      <c r="Q35">
+        <v>18</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>9</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>47</v>
+      </c>
+      <c r="X35">
+        <v>42</v>
+      </c>
+      <c r="Y35">
+        <v>37</v>
+      </c>
+      <c r="Z35">
+        <v>28</v>
+      </c>
+      <c r="AA35">
+        <v>14</v>
+      </c>
+      <c r="AC35">
+        <v>41</v>
+      </c>
+      <c r="AG35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>18</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>19</v>
+      </c>
+      <c r="L36">
+        <v>17</v>
+      </c>
+      <c r="M36">
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>21</v>
+      </c>
+      <c r="P36">
+        <v>14</v>
+      </c>
+      <c r="Q36">
+        <v>22</v>
+      </c>
+      <c r="S36">
+        <v>11</v>
+      </c>
+      <c r="T36">
+        <v>10</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>13</v>
+      </c>
+      <c r="W36">
+        <v>19</v>
+      </c>
+      <c r="X36">
+        <v>7</v>
+      </c>
+      <c r="Y36">
+        <v>17</v>
+      </c>
+      <c r="Z36">
+        <v>16</v>
+      </c>
+      <c r="AA36">
+        <v>11</v>
+      </c>
+      <c r="AC36">
+        <v>19</v>
+      </c>
+      <c r="AG36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>76</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <v>56</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>57</v>
+      </c>
+      <c r="I37">
+        <v>67</v>
+      </c>
+      <c r="J37">
+        <v>71</v>
+      </c>
+      <c r="K37">
+        <v>66</v>
+      </c>
+      <c r="L37">
+        <v>72</v>
+      </c>
+      <c r="M37">
+        <v>40</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37">
+        <v>76</v>
+      </c>
+      <c r="P37">
+        <v>60</v>
+      </c>
+      <c r="Q37">
+        <v>64</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="S37">
+        <v>43</v>
+      </c>
+      <c r="T37">
+        <v>49</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+      <c r="V37">
+        <v>64</v>
+      </c>
+      <c r="W37">
+        <v>82</v>
+      </c>
+      <c r="X37">
+        <v>70</v>
+      </c>
+      <c r="Y37">
+        <v>51</v>
+      </c>
+      <c r="Z37">
+        <v>61</v>
+      </c>
+      <c r="AA37">
+        <v>31</v>
+      </c>
+      <c r="AB37">
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <v>65</v>
+      </c>
+      <c r="AG37">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>19</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <v>16</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>13</v>
+      </c>
+      <c r="O38">
+        <v>25</v>
+      </c>
+      <c r="P38">
+        <v>12</v>
+      </c>
+      <c r="Q38">
+        <v>17</v>
+      </c>
+      <c r="S38">
+        <v>15</v>
+      </c>
+      <c r="T38">
+        <v>8</v>
+      </c>
+      <c r="V38">
+        <v>17</v>
+      </c>
+      <c r="W38">
+        <v>14</v>
+      </c>
+      <c r="X38">
+        <v>14</v>
+      </c>
+      <c r="Y38">
+        <v>8</v>
+      </c>
+      <c r="Z38">
+        <v>12</v>
+      </c>
+      <c r="AA38">
+        <v>6</v>
+      </c>
+      <c r="AC38">
+        <v>22</v>
+      </c>
+      <c r="AG38">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>36</v>
+      </c>
+      <c r="F39">
+        <v>24</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>37</v>
+      </c>
+      <c r="I39">
+        <v>40</v>
+      </c>
+      <c r="J39">
+        <v>39</v>
+      </c>
+      <c r="K39">
+        <v>40</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>36</v>
+      </c>
+      <c r="P39">
+        <v>34</v>
+      </c>
+      <c r="Q39">
+        <v>45</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>29</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+      <c r="W39">
+        <v>58</v>
+      </c>
+      <c r="X39">
+        <v>48</v>
+      </c>
+      <c r="Y39">
+        <v>28</v>
+      </c>
+      <c r="Z39">
+        <v>53</v>
+      </c>
+      <c r="AA39">
+        <v>23</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>29</v>
+      </c>
+      <c r="AG39">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>9</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AG40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>22</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="O42">
+        <v>15</v>
+      </c>
+      <c r="R42">
+        <v>12</v>
+      </c>
+      <c r="S42">
+        <v>15</v>
+      </c>
+      <c r="W42">
+        <v>12</v>
+      </c>
+      <c r="X42">
+        <v>10</v>
+      </c>
+      <c r="Y42">
+        <v>16</v>
+      </c>
+      <c r="Z42">
+        <v>8</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AC42">
+        <v>12</v>
+      </c>
+      <c r="AG42">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>63</v>
+      </c>
+      <c r="D43">
+        <v>86</v>
+      </c>
+      <c r="E43">
+        <v>53</v>
+      </c>
+      <c r="H43">
+        <v>50</v>
+      </c>
+      <c r="I43">
+        <v>63</v>
+      </c>
+      <c r="J43">
+        <v>41</v>
+      </c>
+      <c r="K43">
+        <v>63</v>
+      </c>
+      <c r="L43">
+        <v>62</v>
+      </c>
+      <c r="O43">
+        <v>76</v>
+      </c>
+      <c r="P43">
+        <v>61</v>
+      </c>
+      <c r="Q43">
+        <v>58</v>
+      </c>
+      <c r="R43">
+        <v>62</v>
+      </c>
+      <c r="S43">
+        <v>39</v>
+      </c>
+      <c r="W43">
+        <v>65</v>
+      </c>
+      <c r="X43">
+        <v>82</v>
+      </c>
+      <c r="Y43">
+        <v>97</v>
+      </c>
+      <c r="Z43">
+        <v>49</v>
+      </c>
+      <c r="AC43">
+        <v>71</v>
+      </c>
+      <c r="AG43">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <v>11</v>
+      </c>
+      <c r="K44">
+        <v>16</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <v>5</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>4</v>
+      </c>
+      <c r="X44">
+        <v>4</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AG44">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
+      <c r="O45">
+        <v>11</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <v>8</v>
+      </c>
+      <c r="X45">
+        <v>6</v>
+      </c>
+      <c r="Y45">
+        <v>7</v>
+      </c>
+      <c r="Z45">
+        <v>3</v>
+      </c>
+      <c r="AC45">
+        <v>10</v>
+      </c>
+      <c r="AG45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>41</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>16</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>55</v>
+      </c>
+      <c r="R46">
+        <v>16</v>
+      </c>
+      <c r="W46">
+        <v>7</v>
+      </c>
+      <c r="X46">
+        <v>17</v>
+      </c>
+      <c r="Y46">
+        <v>20</v>
+      </c>
+      <c r="Z46">
+        <v>8</v>
+      </c>
+      <c r="AC46">
+        <v>2</v>
+      </c>
+      <c r="AG46">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="L47">
+        <v>8</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="Q47">
+        <v>15</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>7</v>
+      </c>
+      <c r="V47">
+        <v>2</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>7</v>
+      </c>
+      <c r="Z47">
+        <v>7</v>
+      </c>
+      <c r="AA47">
+        <v>3</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>7</v>
+      </c>
+      <c r="AG47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>19</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>15</v>
+      </c>
+      <c r="J48">
+        <v>19</v>
+      </c>
+      <c r="K48">
+        <v>17</v>
+      </c>
+      <c r="L48">
+        <v>23</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="O48">
+        <v>18</v>
+      </c>
+      <c r="P48">
+        <v>46</v>
+      </c>
+      <c r="Q48">
+        <v>17</v>
+      </c>
+      <c r="R48">
+        <v>7</v>
+      </c>
+      <c r="S48">
+        <v>35</v>
+      </c>
+      <c r="T48">
+        <v>7</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>30</v>
+      </c>
+      <c r="X48">
+        <v>16</v>
+      </c>
+      <c r="Y48">
+        <v>19</v>
+      </c>
+      <c r="Z48">
+        <v>17</v>
+      </c>
+      <c r="AA48">
+        <v>7</v>
+      </c>
+      <c r="AC48">
+        <v>20</v>
+      </c>
+      <c r="AG48">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>37</v>
+      </c>
+      <c r="F49">
+        <v>18</v>
+      </c>
+      <c r="H49">
+        <v>32</v>
+      </c>
+      <c r="I49">
+        <v>35</v>
+      </c>
+      <c r="J49">
+        <v>47</v>
+      </c>
+      <c r="K49">
+        <v>23</v>
+      </c>
+      <c r="L49">
+        <v>25</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>27</v>
+      </c>
+      <c r="P49">
+        <v>30</v>
+      </c>
+      <c r="Q49">
+        <v>31</v>
+      </c>
+      <c r="R49">
+        <v>22</v>
+      </c>
+      <c r="S49">
+        <v>29</v>
+      </c>
+      <c r="T49">
+        <v>13</v>
+      </c>
+      <c r="V49">
+        <v>40</v>
+      </c>
+      <c r="W49">
+        <v>26</v>
+      </c>
+      <c r="X49">
+        <v>34</v>
+      </c>
+      <c r="Y49">
+        <v>25</v>
+      </c>
+      <c r="Z49">
+        <v>25</v>
+      </c>
+      <c r="AA49">
+        <v>16</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>37</v>
+      </c>
+      <c r="AG49">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>23</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>27</v>
+      </c>
+      <c r="F50">
+        <v>13</v>
+      </c>
+      <c r="H50">
+        <v>37</v>
+      </c>
+      <c r="I50">
+        <v>28</v>
+      </c>
+      <c r="J50">
+        <v>21</v>
+      </c>
+      <c r="K50">
+        <v>24</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <v>10</v>
+      </c>
+      <c r="O50">
+        <v>33</v>
+      </c>
+      <c r="P50">
+        <v>29</v>
+      </c>
+      <c r="Q50">
+        <v>12</v>
+      </c>
+      <c r="R50">
+        <v>21</v>
+      </c>
+      <c r="S50">
+        <v>20</v>
+      </c>
+      <c r="T50">
+        <v>11</v>
+      </c>
+      <c r="V50">
+        <v>21</v>
+      </c>
+      <c r="W50">
+        <v>11</v>
+      </c>
+      <c r="X50">
+        <v>13</v>
+      </c>
+      <c r="Y50">
+        <v>14</v>
+      </c>
+      <c r="Z50">
+        <v>28</v>
+      </c>
+      <c r="AA50">
+        <v>12</v>
+      </c>
+      <c r="AB50">
+        <v>3</v>
+      </c>
+      <c r="AC50">
+        <v>28</v>
+      </c>
+      <c r="AG50">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>31</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>17</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>22</v>
+      </c>
+      <c r="I51">
+        <v>33</v>
+      </c>
+      <c r="J51">
+        <v>37</v>
+      </c>
+      <c r="K51">
+        <v>15</v>
+      </c>
+      <c r="L51">
+        <v>18</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="O51">
+        <v>18</v>
+      </c>
+      <c r="P51">
+        <v>40</v>
+      </c>
+      <c r="Q51">
+        <v>26</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>20</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+      <c r="V51">
+        <v>22</v>
+      </c>
+      <c r="W51">
+        <v>14</v>
+      </c>
+      <c r="X51">
+        <v>35</v>
+      </c>
+      <c r="Y51">
+        <v>12</v>
+      </c>
+      <c r="Z51">
+        <v>23</v>
+      </c>
+      <c r="AA51">
+        <v>5</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+      <c r="AC51">
+        <v>22</v>
+      </c>
+      <c r="AG51">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <v>46</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>39</v>
+      </c>
+      <c r="I52">
+        <v>28</v>
+      </c>
+      <c r="J52">
+        <v>49</v>
+      </c>
+      <c r="K52">
+        <v>33</v>
+      </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>19</v>
+      </c>
+      <c r="N52">
+        <v>18</v>
+      </c>
+      <c r="O52">
+        <v>38</v>
+      </c>
+      <c r="P52">
+        <v>39</v>
+      </c>
+      <c r="Q52">
+        <v>47</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>32</v>
+      </c>
+      <c r="T52">
+        <v>21</v>
+      </c>
+      <c r="U52">
+        <v>16</v>
+      </c>
+      <c r="V52">
+        <v>39</v>
+      </c>
+      <c r="W52">
+        <v>29</v>
+      </c>
+      <c r="X52">
+        <v>40</v>
+      </c>
+      <c r="Y52">
+        <v>35</v>
+      </c>
+      <c r="Z52">
+        <v>32</v>
+      </c>
+      <c r="AA52">
+        <v>30</v>
+      </c>
+      <c r="AB52">
+        <v>13</v>
+      </c>
+      <c r="AC52">
+        <v>36</v>
+      </c>
+      <c r="AG52">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>7</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="P53">
+        <v>8</v>
+      </c>
+      <c r="Q53">
+        <v>8</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <v>2</v>
+      </c>
+      <c r="X53">
+        <v>9</v>
+      </c>
+      <c r="Y53">
+        <v>3</v>
+      </c>
+      <c r="Z53">
+        <v>2</v>
+      </c>
+      <c r="AA53">
+        <v>3</v>
+      </c>
+      <c r="AC53">
+        <v>10</v>
+      </c>
+      <c r="AG53">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>14</v>
+      </c>
+      <c r="H54">
+        <v>11</v>
+      </c>
+      <c r="I54">
+        <v>21</v>
+      </c>
+      <c r="J54">
+        <v>28</v>
+      </c>
+      <c r="K54">
+        <v>11</v>
+      </c>
+      <c r="L54">
+        <v>17</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>16</v>
+      </c>
+      <c r="P54">
+        <v>18</v>
+      </c>
+      <c r="Q54">
+        <v>25</v>
+      </c>
+      <c r="S54">
+        <v>15</v>
+      </c>
+      <c r="T54">
+        <v>15</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>8</v>
+      </c>
+      <c r="W54">
+        <v>32</v>
+      </c>
+      <c r="X54">
+        <v>15</v>
+      </c>
+      <c r="Y54">
+        <v>15</v>
+      </c>
+      <c r="Z54">
+        <v>17</v>
+      </c>
+      <c r="AA54">
+        <v>6</v>
+      </c>
+      <c r="AB54">
+        <v>3</v>
+      </c>
+      <c r="AC54">
+        <v>19</v>
+      </c>
+      <c r="AG54">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>4</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>3</v>
+      </c>
+      <c r="T55">
+        <v>3</v>
+      </c>
+      <c r="V55">
+        <v>2</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>2</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>6</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
+        <v>3</v>
+      </c>
+      <c r="AG55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56">
+        <v>7</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>3</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>2</v>
+      </c>
+      <c r="AA56">
+        <v>3</v>
+      </c>
+      <c r="AC56">
+        <v>2</v>
+      </c>
+      <c r="AG56">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>12</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <v>7</v>
+      </c>
+      <c r="Q57">
+        <v>5</v>
+      </c>
+      <c r="S57">
+        <v>9</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>11</v>
+      </c>
+      <c r="W57">
+        <v>6</v>
+      </c>
+      <c r="X57">
+        <v>7</v>
+      </c>
+      <c r="Y57">
+        <v>3</v>
+      </c>
+      <c r="Z57">
+        <v>9</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>6</v>
+      </c>
+      <c r="AG57">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
+++ b/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A66554F-3B36-486B-B546-3874B61C89EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B9A3B3-2BA5-4C8C-AED6-6E6B33046CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">January!$A$3:$AG$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">March!$A$3:$AG$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="70">
   <si>
     <t>branchname</t>
   </si>
@@ -246,6 +247,9 @@
   </si>
   <si>
     <t>2022-02-01 - 2022-02-28</t>
+  </si>
+  <si>
+    <t>2022-03-01 - 2022-03-30</t>
   </si>
 </sst>
 </file>
@@ -615,7 +619,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -5220,7 +5224,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -9372,7 +9376,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A65A5CD-B538-4B7C-B2A7-48592120D8ED}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B2:AF2"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -9387,40 +9391,4556 @@
     <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44621</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44622</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44623</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44624</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44625</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44626</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44627</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44628</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44629</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44630</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44631</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44632</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44633</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44634</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44635</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>44636</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44637</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44638</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44639</v>
+      </c>
+      <c r="U2" s="1">
+        <v>44640</v>
+      </c>
+      <c r="V2" s="1">
+        <v>44641</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44642</v>
+      </c>
+      <c r="X2" s="1">
+        <v>44643</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>44644</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>44645</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44646</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>44647</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>44649</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>44650</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>44651</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>78</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>59</v>
+      </c>
+      <c r="P4">
+        <v>59</v>
+      </c>
+      <c r="Q4">
+        <v>60</v>
+      </c>
+      <c r="R4">
+        <v>68</v>
+      </c>
+      <c r="S4">
+        <v>59</v>
+      </c>
+      <c r="T4">
+        <v>39</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>80</v>
+      </c>
+      <c r="W4">
+        <v>58</v>
+      </c>
+      <c r="X4">
+        <v>74</v>
+      </c>
+      <c r="Y4">
+        <v>81</v>
+      </c>
+      <c r="Z4">
+        <v>60</v>
+      </c>
+      <c r="AA4">
+        <v>30</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>82</v>
+      </c>
+      <c r="AD4">
+        <v>63</v>
+      </c>
+      <c r="AE4">
+        <v>57</v>
+      </c>
+      <c r="AF4">
+        <v>73</v>
+      </c>
+      <c r="AG4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>35</v>
+      </c>
+      <c r="M5">
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>34</v>
+      </c>
+      <c r="P5">
+        <v>37</v>
+      </c>
+      <c r="Q5">
+        <v>33</v>
+      </c>
+      <c r="R5">
+        <v>31</v>
+      </c>
+      <c r="S5">
+        <v>23</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>22</v>
+      </c>
+      <c r="W5">
+        <v>38</v>
+      </c>
+      <c r="X5">
+        <v>60</v>
+      </c>
+      <c r="Y5">
+        <v>38</v>
+      </c>
+      <c r="Z5">
+        <v>24</v>
+      </c>
+      <c r="AA5">
+        <v>12</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>33</v>
+      </c>
+      <c r="AD5">
+        <v>43</v>
+      </c>
+      <c r="AE5">
+        <v>41</v>
+      </c>
+      <c r="AF5">
+        <v>27</v>
+      </c>
+      <c r="AG5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <v>86</v>
+      </c>
+      <c r="E6">
+        <v>56</v>
+      </c>
+      <c r="F6">
+        <v>68</v>
+      </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>57</v>
+      </c>
+      <c r="I6">
+        <v>84</v>
+      </c>
+      <c r="J6">
+        <v>98</v>
+      </c>
+      <c r="K6">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>52</v>
+      </c>
+      <c r="M6">
+        <v>59</v>
+      </c>
+      <c r="N6">
+        <v>37</v>
+      </c>
+      <c r="O6">
+        <v>72</v>
+      </c>
+      <c r="P6">
+        <v>86</v>
+      </c>
+      <c r="Q6">
+        <v>69</v>
+      </c>
+      <c r="R6">
+        <v>78</v>
+      </c>
+      <c r="S6">
+        <v>75</v>
+      </c>
+      <c r="T6">
+        <v>47</v>
+      </c>
+      <c r="U6">
+        <v>42</v>
+      </c>
+      <c r="V6">
+        <v>89</v>
+      </c>
+      <c r="W6">
+        <v>72</v>
+      </c>
+      <c r="X6">
+        <v>88</v>
+      </c>
+      <c r="Y6">
+        <v>73</v>
+      </c>
+      <c r="Z6">
+        <v>55</v>
+      </c>
+      <c r="AA6">
+        <v>53</v>
+      </c>
+      <c r="AB6">
+        <v>37</v>
+      </c>
+      <c r="AC6">
+        <v>90</v>
+      </c>
+      <c r="AD6">
+        <v>67</v>
+      </c>
+      <c r="AE6">
+        <v>99</v>
+      </c>
+      <c r="AF6">
+        <v>69</v>
+      </c>
+      <c r="AG6">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <v>53</v>
+      </c>
+      <c r="J8">
+        <v>72</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <v>49</v>
+      </c>
+      <c r="P8">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>53</v>
+      </c>
+      <c r="R8">
+        <v>44</v>
+      </c>
+      <c r="S8">
+        <v>34</v>
+      </c>
+      <c r="T8">
+        <v>42</v>
+      </c>
+      <c r="U8">
+        <v>17</v>
+      </c>
+      <c r="V8">
+        <v>60</v>
+      </c>
+      <c r="W8">
+        <v>46</v>
+      </c>
+      <c r="X8">
+        <v>59</v>
+      </c>
+      <c r="Y8">
+        <v>38</v>
+      </c>
+      <c r="Z8">
+        <v>40</v>
+      </c>
+      <c r="AA8">
+        <v>46</v>
+      </c>
+      <c r="AB8">
+        <v>23</v>
+      </c>
+      <c r="AC8">
+        <v>60</v>
+      </c>
+      <c r="AD8">
+        <v>56</v>
+      </c>
+      <c r="AE8">
+        <v>51</v>
+      </c>
+      <c r="AF8">
+        <v>37</v>
+      </c>
+      <c r="AG8">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>15</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+      <c r="AA9">
+        <v>5</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <v>6</v>
+      </c>
+      <c r="AE9">
+        <v>10</v>
+      </c>
+      <c r="AF9">
+        <v>13</v>
+      </c>
+      <c r="AG9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>17</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <v>11</v>
+      </c>
+      <c r="X10">
+        <v>14</v>
+      </c>
+      <c r="Y10">
+        <v>12</v>
+      </c>
+      <c r="Z10">
+        <v>17</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AC10">
+        <v>11</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>12</v>
+      </c>
+      <c r="AF10">
+        <v>7</v>
+      </c>
+      <c r="AG10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>7</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AE11">
+        <v>9</v>
+      </c>
+      <c r="AF11">
+        <v>3</v>
+      </c>
+      <c r="AG11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>3</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>5</v>
+      </c>
+      <c r="AG14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>9</v>
+      </c>
+      <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+      <c r="AC15">
+        <v>6</v>
+      </c>
+      <c r="AD15">
+        <v>4</v>
+      </c>
+      <c r="AE15">
+        <v>7</v>
+      </c>
+      <c r="AF15">
+        <v>6</v>
+      </c>
+      <c r="AG15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>12</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <v>13</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>8</v>
+      </c>
+      <c r="W16">
+        <v>15</v>
+      </c>
+      <c r="X16">
+        <v>9</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
+        <v>11</v>
+      </c>
+      <c r="AC16">
+        <v>15</v>
+      </c>
+      <c r="AD16">
+        <v>14</v>
+      </c>
+      <c r="AE16">
+        <v>11</v>
+      </c>
+      <c r="AF16">
+        <v>11</v>
+      </c>
+      <c r="AG16">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>8</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>13</v>
+      </c>
+      <c r="W17">
+        <v>16</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>6</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>7</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17">
+        <v>2</v>
+      </c>
+      <c r="AF17">
+        <v>5</v>
+      </c>
+      <c r="AG17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>3</v>
+      </c>
+      <c r="Z18">
+        <v>4</v>
+      </c>
+      <c r="AA18">
+        <v>4</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AE18">
+        <v>4</v>
+      </c>
+      <c r="AF18">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>22</v>
+      </c>
+      <c r="J19">
+        <v>26</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>23</v>
+      </c>
+      <c r="M19">
+        <v>23</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>30</v>
+      </c>
+      <c r="P19">
+        <v>17</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+      <c r="R19">
+        <v>15</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>19</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>40</v>
+      </c>
+      <c r="W19">
+        <v>23</v>
+      </c>
+      <c r="X19">
+        <v>19</v>
+      </c>
+      <c r="Y19">
+        <v>24</v>
+      </c>
+      <c r="Z19">
+        <v>13</v>
+      </c>
+      <c r="AA19">
+        <v>22</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>16</v>
+      </c>
+      <c r="AD19">
+        <v>24</v>
+      </c>
+      <c r="AE19">
+        <v>29</v>
+      </c>
+      <c r="AF19">
+        <v>18</v>
+      </c>
+      <c r="AG19">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>4</v>
+      </c>
+      <c r="AF20">
+        <v>5</v>
+      </c>
+      <c r="AG20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>43</v>
+      </c>
+      <c r="J21">
+        <v>31</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>46</v>
+      </c>
+      <c r="P21">
+        <v>41</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>39</v>
+      </c>
+      <c r="S21">
+        <v>23</v>
+      </c>
+      <c r="T21">
+        <v>15</v>
+      </c>
+      <c r="U21">
+        <v>9</v>
+      </c>
+      <c r="V21">
+        <v>36</v>
+      </c>
+      <c r="W21">
+        <v>46</v>
+      </c>
+      <c r="X21">
+        <v>32</v>
+      </c>
+      <c r="Y21">
+        <v>30</v>
+      </c>
+      <c r="Z21">
+        <v>30</v>
+      </c>
+      <c r="AA21">
+        <v>20</v>
+      </c>
+      <c r="AB21">
+        <v>5</v>
+      </c>
+      <c r="AC21">
+        <v>40</v>
+      </c>
+      <c r="AD21">
+        <v>43</v>
+      </c>
+      <c r="AE21">
+        <v>22</v>
+      </c>
+      <c r="AF21">
+        <v>31</v>
+      </c>
+      <c r="AG21">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22">
+        <v>4</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <v>2</v>
+      </c>
+      <c r="AF22">
+        <v>4</v>
+      </c>
+      <c r="AG22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>51</v>
+      </c>
+      <c r="L23">
+        <v>45</v>
+      </c>
+      <c r="M23">
+        <v>18</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>37</v>
+      </c>
+      <c r="P23">
+        <v>48</v>
+      </c>
+      <c r="Q23">
+        <v>33</v>
+      </c>
+      <c r="R23">
+        <v>52</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>23</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>45</v>
+      </c>
+      <c r="W23">
+        <v>39</v>
+      </c>
+      <c r="X23">
+        <v>28</v>
+      </c>
+      <c r="Y23">
+        <v>53</v>
+      </c>
+      <c r="Z23">
+        <v>29</v>
+      </c>
+      <c r="AA23">
+        <v>15</v>
+      </c>
+      <c r="AC23">
+        <v>32</v>
+      </c>
+      <c r="AD23">
+        <v>28</v>
+      </c>
+      <c r="AE23">
+        <v>27</v>
+      </c>
+      <c r="AF23">
+        <v>43</v>
+      </c>
+      <c r="AG23">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>2</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>5</v>
+      </c>
+      <c r="AG24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>26</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="H25">
+        <v>21</v>
+      </c>
+      <c r="I25">
+        <v>28</v>
+      </c>
+      <c r="J25">
+        <v>38</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>48</v>
+      </c>
+      <c r="M25">
+        <v>22</v>
+      </c>
+      <c r="O25">
+        <v>28</v>
+      </c>
+      <c r="P25">
+        <v>22</v>
+      </c>
+      <c r="Q25">
+        <v>34</v>
+      </c>
+      <c r="R25">
+        <v>13</v>
+      </c>
+      <c r="S25">
+        <v>29</v>
+      </c>
+      <c r="T25">
+        <v>19</v>
+      </c>
+      <c r="U25">
+        <v>6</v>
+      </c>
+      <c r="V25">
+        <v>35</v>
+      </c>
+      <c r="W25">
+        <v>29</v>
+      </c>
+      <c r="X25">
+        <v>32</v>
+      </c>
+      <c r="Y25">
+        <v>31</v>
+      </c>
+      <c r="Z25">
+        <v>28</v>
+      </c>
+      <c r="AA25">
+        <v>22</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>23</v>
+      </c>
+      <c r="AD25">
+        <v>29</v>
+      </c>
+      <c r="AE25">
+        <v>33</v>
+      </c>
+      <c r="AF25">
+        <v>29</v>
+      </c>
+      <c r="AG25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>106</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>82</v>
+      </c>
+      <c r="E26">
+        <v>74</v>
+      </c>
+      <c r="F26">
+        <v>78</v>
+      </c>
+      <c r="G26">
+        <v>45</v>
+      </c>
+      <c r="H26">
+        <v>82</v>
+      </c>
+      <c r="I26">
+        <v>101</v>
+      </c>
+      <c r="J26">
+        <v>122</v>
+      </c>
+      <c r="K26">
+        <v>48</v>
+      </c>
+      <c r="L26">
+        <v>71</v>
+      </c>
+      <c r="M26">
+        <v>76</v>
+      </c>
+      <c r="N26">
+        <v>41</v>
+      </c>
+      <c r="O26">
+        <v>101</v>
+      </c>
+      <c r="P26">
+        <v>112</v>
+      </c>
+      <c r="Q26">
+        <v>95</v>
+      </c>
+      <c r="R26">
+        <v>64</v>
+      </c>
+      <c r="S26">
+        <v>89</v>
+      </c>
+      <c r="T26">
+        <v>58</v>
+      </c>
+      <c r="U26">
+        <v>23</v>
+      </c>
+      <c r="V26">
+        <v>116</v>
+      </c>
+      <c r="W26">
+        <v>93</v>
+      </c>
+      <c r="X26">
+        <v>108</v>
+      </c>
+      <c r="Y26">
+        <v>104</v>
+      </c>
+      <c r="Z26">
+        <v>77</v>
+      </c>
+      <c r="AA26">
+        <v>66</v>
+      </c>
+      <c r="AB26">
+        <v>34</v>
+      </c>
+      <c r="AC26">
+        <v>94</v>
+      </c>
+      <c r="AD26">
+        <v>95</v>
+      </c>
+      <c r="AE26">
+        <v>79</v>
+      </c>
+      <c r="AF26">
+        <v>88</v>
+      </c>
+      <c r="AG26">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>8</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>8</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>9</v>
+      </c>
+      <c r="Z27">
+        <v>8</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>6</v>
+      </c>
+      <c r="AD27">
+        <v>7</v>
+      </c>
+      <c r="AE27">
+        <v>17</v>
+      </c>
+      <c r="AF27">
+        <v>11</v>
+      </c>
+      <c r="AG27">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>11</v>
+      </c>
+      <c r="I29">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>7</v>
+      </c>
+      <c r="R29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>7</v>
+      </c>
+      <c r="V29">
+        <v>10</v>
+      </c>
+      <c r="W29">
+        <v>11</v>
+      </c>
+      <c r="X29">
+        <v>16</v>
+      </c>
+      <c r="Y29">
+        <v>6</v>
+      </c>
+      <c r="AA29">
+        <v>10</v>
+      </c>
+      <c r="AB29">
+        <v>4</v>
+      </c>
+      <c r="AC29">
+        <v>14</v>
+      </c>
+      <c r="AD29">
+        <v>7</v>
+      </c>
+      <c r="AE29">
+        <v>10</v>
+      </c>
+      <c r="AF29">
+        <v>14</v>
+      </c>
+      <c r="AG29">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>6</v>
+      </c>
+      <c r="AC30">
+        <v>3</v>
+      </c>
+      <c r="AD30">
+        <v>3</v>
+      </c>
+      <c r="AE30">
+        <v>5</v>
+      </c>
+      <c r="AF30">
+        <v>5</v>
+      </c>
+      <c r="AG30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>46</v>
+      </c>
+      <c r="M31">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>19</v>
+      </c>
+      <c r="S31">
+        <v>15</v>
+      </c>
+      <c r="T31">
+        <v>16</v>
+      </c>
+      <c r="V31">
+        <v>17</v>
+      </c>
+      <c r="W31">
+        <v>12</v>
+      </c>
+      <c r="X31">
+        <v>25</v>
+      </c>
+      <c r="Y31">
+        <v>21</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+      <c r="AA31">
+        <v>9</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
+      <c r="AC31">
+        <v>16</v>
+      </c>
+      <c r="AD31">
+        <v>22</v>
+      </c>
+      <c r="AE31">
+        <v>21</v>
+      </c>
+      <c r="AF31">
+        <v>18</v>
+      </c>
+      <c r="AG31">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <v>4</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>9</v>
+      </c>
+      <c r="AE33">
+        <v>4</v>
+      </c>
+      <c r="AF33">
+        <v>4</v>
+      </c>
+      <c r="AG33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>37</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>27</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>37</v>
+      </c>
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>37</v>
+      </c>
+      <c r="L34">
+        <v>36</v>
+      </c>
+      <c r="M34">
+        <v>15</v>
+      </c>
+      <c r="O34">
+        <v>48</v>
+      </c>
+      <c r="P34">
+        <v>34</v>
+      </c>
+      <c r="Q34">
+        <v>41</v>
+      </c>
+      <c r="R34">
+        <v>35</v>
+      </c>
+      <c r="S34">
+        <v>14</v>
+      </c>
+      <c r="T34">
+        <v>16</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>19</v>
+      </c>
+      <c r="W34">
+        <v>30</v>
+      </c>
+      <c r="X34">
+        <v>25</v>
+      </c>
+      <c r="Y34">
+        <v>28</v>
+      </c>
+      <c r="Z34">
+        <v>32</v>
+      </c>
+      <c r="AA34">
+        <v>14</v>
+      </c>
+      <c r="AC34">
+        <v>47</v>
+      </c>
+      <c r="AD34">
+        <v>24</v>
+      </c>
+      <c r="AE34">
+        <v>31</v>
+      </c>
+      <c r="AF34">
+        <v>23</v>
+      </c>
+      <c r="AG34">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>23</v>
+      </c>
+      <c r="I35">
+        <v>22</v>
+      </c>
+      <c r="J35">
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>11</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>52</v>
+      </c>
+      <c r="P35">
+        <v>23</v>
+      </c>
+      <c r="Q35">
+        <v>21</v>
+      </c>
+      <c r="R35">
+        <v>15</v>
+      </c>
+      <c r="S35">
+        <v>22</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>19</v>
+      </c>
+      <c r="W35">
+        <v>27</v>
+      </c>
+      <c r="X35">
+        <v>17</v>
+      </c>
+      <c r="Y35">
+        <v>22</v>
+      </c>
+      <c r="Z35">
+        <v>22</v>
+      </c>
+      <c r="AA35">
+        <v>7</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>35</v>
+      </c>
+      <c r="AD35">
+        <v>22</v>
+      </c>
+      <c r="AE35">
+        <v>19</v>
+      </c>
+      <c r="AF35">
+        <v>11</v>
+      </c>
+      <c r="AG35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <v>14</v>
+      </c>
+      <c r="I36">
+        <v>18</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>16</v>
+      </c>
+      <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>16</v>
+      </c>
+      <c r="P36">
+        <v>12</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <v>19</v>
+      </c>
+      <c r="S36">
+        <v>14</v>
+      </c>
+      <c r="T36">
+        <v>8</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>13</v>
+      </c>
+      <c r="W36">
+        <v>13</v>
+      </c>
+      <c r="X36">
+        <v>15</v>
+      </c>
+      <c r="Y36">
+        <v>13</v>
+      </c>
+      <c r="Z36">
+        <v>13</v>
+      </c>
+      <c r="AA36">
+        <v>8</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+      <c r="AC36">
+        <v>25</v>
+      </c>
+      <c r="AD36">
+        <v>12</v>
+      </c>
+      <c r="AE36">
+        <v>13</v>
+      </c>
+      <c r="AF36">
+        <v>17</v>
+      </c>
+      <c r="AG36">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>59</v>
+      </c>
+      <c r="E37">
+        <v>79</v>
+      </c>
+      <c r="F37">
+        <v>41</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>55</v>
+      </c>
+      <c r="I37">
+        <v>63</v>
+      </c>
+      <c r="J37">
+        <v>84</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>62</v>
+      </c>
+      <c r="M37">
+        <v>49</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>75</v>
+      </c>
+      <c r="P37">
+        <v>73</v>
+      </c>
+      <c r="Q37">
+        <v>63</v>
+      </c>
+      <c r="R37">
+        <v>64</v>
+      </c>
+      <c r="S37">
+        <v>49</v>
+      </c>
+      <c r="T37">
+        <v>26</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>62</v>
+      </c>
+      <c r="W37">
+        <v>76</v>
+      </c>
+      <c r="X37">
+        <v>59</v>
+      </c>
+      <c r="Y37">
+        <v>71</v>
+      </c>
+      <c r="Z37">
+        <v>98</v>
+      </c>
+      <c r="AA37">
+        <v>32</v>
+      </c>
+      <c r="AB37">
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <v>69</v>
+      </c>
+      <c r="AD37">
+        <v>49</v>
+      </c>
+      <c r="AE37">
+        <v>68</v>
+      </c>
+      <c r="AF37">
+        <v>63</v>
+      </c>
+      <c r="AG37">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="H38">
+        <v>12</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>18</v>
+      </c>
+      <c r="M38">
+        <v>7</v>
+      </c>
+      <c r="O38">
+        <v>24</v>
+      </c>
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="Q38">
+        <v>19</v>
+      </c>
+      <c r="R38">
+        <v>13</v>
+      </c>
+      <c r="S38">
+        <v>22</v>
+      </c>
+      <c r="T38">
+        <v>8</v>
+      </c>
+      <c r="V38">
+        <v>11</v>
+      </c>
+      <c r="W38">
+        <v>16</v>
+      </c>
+      <c r="X38">
+        <v>15</v>
+      </c>
+      <c r="Y38">
+        <v>10</v>
+      </c>
+      <c r="Z38">
+        <v>9</v>
+      </c>
+      <c r="AA38">
+        <v>8</v>
+      </c>
+      <c r="AC38">
+        <v>14</v>
+      </c>
+      <c r="AD38">
+        <v>10</v>
+      </c>
+      <c r="AE38">
+        <v>17</v>
+      </c>
+      <c r="AF38">
+        <v>10</v>
+      </c>
+      <c r="AG38">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>47</v>
+      </c>
+      <c r="E39">
+        <v>28</v>
+      </c>
+      <c r="F39">
+        <v>22</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>37</v>
+      </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39">
+        <v>48</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>39</v>
+      </c>
+      <c r="M39">
+        <v>31</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>42</v>
+      </c>
+      <c r="P39">
+        <v>50</v>
+      </c>
+      <c r="Q39">
+        <v>31</v>
+      </c>
+      <c r="R39">
+        <v>37</v>
+      </c>
+      <c r="S39">
+        <v>20</v>
+      </c>
+      <c r="T39">
+        <v>25</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>44</v>
+      </c>
+      <c r="W39">
+        <v>48</v>
+      </c>
+      <c r="X39">
+        <v>31</v>
+      </c>
+      <c r="Y39">
+        <v>40</v>
+      </c>
+      <c r="Z39">
+        <v>39</v>
+      </c>
+      <c r="AA39">
+        <v>23</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>38</v>
+      </c>
+      <c r="AD39">
+        <v>45</v>
+      </c>
+      <c r="AE39">
+        <v>25</v>
+      </c>
+      <c r="AF39">
+        <v>33</v>
+      </c>
+      <c r="AG39">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>3</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>3</v>
+      </c>
+      <c r="AF40">
+        <v>5</v>
+      </c>
+      <c r="AG40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>8</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>4</v>
+      </c>
+      <c r="X41">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>3</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AD41">
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <v>2</v>
+      </c>
+      <c r="AF41">
+        <v>4</v>
+      </c>
+      <c r="AG41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>21</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>12</v>
+      </c>
+      <c r="V42">
+        <v>13</v>
+      </c>
+      <c r="W42">
+        <v>4</v>
+      </c>
+      <c r="X42">
+        <v>14</v>
+      </c>
+      <c r="Y42">
+        <v>21</v>
+      </c>
+      <c r="Z42">
+        <v>11</v>
+      </c>
+      <c r="AD42">
+        <v>12</v>
+      </c>
+      <c r="AE42">
+        <v>15</v>
+      </c>
+      <c r="AF42">
+        <v>15</v>
+      </c>
+      <c r="AG42">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>59</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="H43">
+        <v>34</v>
+      </c>
+      <c r="I43">
+        <v>58</v>
+      </c>
+      <c r="J43">
+        <v>57</v>
+      </c>
+      <c r="L43">
+        <v>69</v>
+      </c>
+      <c r="V43">
+        <v>65</v>
+      </c>
+      <c r="W43">
+        <v>59</v>
+      </c>
+      <c r="X43">
+        <v>52</v>
+      </c>
+      <c r="Y43">
+        <v>67</v>
+      </c>
+      <c r="Z43">
+        <v>40</v>
+      </c>
+      <c r="AD43">
+        <v>67</v>
+      </c>
+      <c r="AE43">
+        <v>71</v>
+      </c>
+      <c r="AF43">
+        <v>86</v>
+      </c>
+      <c r="AG43">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="V44">
+        <v>4</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>3</v>
+      </c>
+      <c r="Z44">
+        <v>2</v>
+      </c>
+      <c r="AD44">
+        <v>2</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <v>3</v>
+      </c>
+      <c r="AG44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>8</v>
+      </c>
+      <c r="V45">
+        <v>10</v>
+      </c>
+      <c r="W45">
+        <v>9</v>
+      </c>
+      <c r="Y45">
+        <v>13</v>
+      </c>
+      <c r="Z45">
+        <v>3</v>
+      </c>
+      <c r="AD45">
+        <v>21</v>
+      </c>
+      <c r="AE45">
+        <v>5</v>
+      </c>
+      <c r="AG45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>23</v>
+      </c>
+      <c r="L46">
+        <v>18</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>11</v>
+      </c>
+      <c r="X46">
+        <v>21</v>
+      </c>
+      <c r="Y46">
+        <v>22</v>
+      </c>
+      <c r="AD46">
+        <v>16</v>
+      </c>
+      <c r="AE46">
+        <v>24</v>
+      </c>
+      <c r="AF46">
+        <v>37</v>
+      </c>
+      <c r="AG46">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>12</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>8</v>
+      </c>
+      <c r="Q47">
+        <v>11</v>
+      </c>
+      <c r="R47">
+        <v>11</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>8</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>14</v>
+      </c>
+      <c r="Y47">
+        <v>8</v>
+      </c>
+      <c r="Z47">
+        <v>13</v>
+      </c>
+      <c r="AA47">
+        <v>3</v>
+      </c>
+      <c r="AC47">
+        <v>7</v>
+      </c>
+      <c r="AE47">
+        <v>8</v>
+      </c>
+      <c r="AF47">
+        <v>9</v>
+      </c>
+      <c r="AG47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>18</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>23</v>
+      </c>
+      <c r="J48">
+        <v>23</v>
+      </c>
+      <c r="L48">
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>41</v>
+      </c>
+      <c r="P48">
+        <v>17</v>
+      </c>
+      <c r="Q48">
+        <v>24</v>
+      </c>
+      <c r="R48">
+        <v>15</v>
+      </c>
+      <c r="S48">
+        <v>16</v>
+      </c>
+      <c r="T48">
+        <v>7</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>18</v>
+      </c>
+      <c r="W48">
+        <v>21</v>
+      </c>
+      <c r="X48">
+        <v>20</v>
+      </c>
+      <c r="Y48">
+        <v>15</v>
+      </c>
+      <c r="Z48">
+        <v>20</v>
+      </c>
+      <c r="AA48">
+        <v>12</v>
+      </c>
+      <c r="AC48">
+        <v>16</v>
+      </c>
+      <c r="AD48">
+        <v>21</v>
+      </c>
+      <c r="AE48">
+        <v>17</v>
+      </c>
+      <c r="AF48">
+        <v>20</v>
+      </c>
+      <c r="AG48">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>32</v>
+      </c>
+      <c r="C49">
+        <v>36</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>17</v>
+      </c>
+      <c r="F49">
+        <v>13</v>
+      </c>
+      <c r="H49">
+        <v>29</v>
+      </c>
+      <c r="I49">
+        <v>42</v>
+      </c>
+      <c r="J49">
+        <v>33</v>
+      </c>
+      <c r="K49">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <v>32</v>
+      </c>
+      <c r="M49">
+        <v>13</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>31</v>
+      </c>
+      <c r="P49">
+        <v>29</v>
+      </c>
+      <c r="Q49">
+        <v>28</v>
+      </c>
+      <c r="R49">
+        <v>35</v>
+      </c>
+      <c r="S49">
+        <v>26</v>
+      </c>
+      <c r="T49">
+        <v>18</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>42</v>
+      </c>
+      <c r="W49">
+        <v>30</v>
+      </c>
+      <c r="X49">
+        <v>29</v>
+      </c>
+      <c r="Y49">
+        <v>34</v>
+      </c>
+      <c r="Z49">
+        <v>32</v>
+      </c>
+      <c r="AA49">
+        <v>9</v>
+      </c>
+      <c r="AB49">
+        <v>2</v>
+      </c>
+      <c r="AC49">
+        <v>31</v>
+      </c>
+      <c r="AD49">
+        <v>25</v>
+      </c>
+      <c r="AE49">
+        <v>36</v>
+      </c>
+      <c r="AF49">
+        <v>33</v>
+      </c>
+      <c r="AG49">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>22</v>
+      </c>
+      <c r="I50">
+        <v>26</v>
+      </c>
+      <c r="J50">
+        <v>38</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <v>11</v>
+      </c>
+      <c r="O50">
+        <v>35</v>
+      </c>
+      <c r="P50">
+        <v>26</v>
+      </c>
+      <c r="Q50">
+        <v>19</v>
+      </c>
+      <c r="R50">
+        <v>24</v>
+      </c>
+      <c r="S50">
+        <v>11</v>
+      </c>
+      <c r="T50">
+        <v>17</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>30</v>
+      </c>
+      <c r="W50">
+        <v>21</v>
+      </c>
+      <c r="X50">
+        <v>25</v>
+      </c>
+      <c r="Y50">
+        <v>22</v>
+      </c>
+      <c r="Z50">
+        <v>10</v>
+      </c>
+      <c r="AA50">
+        <v>4</v>
+      </c>
+      <c r="AC50">
+        <v>29</v>
+      </c>
+      <c r="AD50">
+        <v>25</v>
+      </c>
+      <c r="AE50">
+        <v>30</v>
+      </c>
+      <c r="AF50">
+        <v>23</v>
+      </c>
+      <c r="AG50">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <v>33</v>
+      </c>
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>22</v>
+      </c>
+      <c r="I51">
+        <v>21</v>
+      </c>
+      <c r="J51">
+        <v>18</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>31</v>
+      </c>
+      <c r="P51">
+        <v>25</v>
+      </c>
+      <c r="Q51">
+        <v>17</v>
+      </c>
+      <c r="R51">
+        <v>34</v>
+      </c>
+      <c r="S51">
+        <v>13</v>
+      </c>
+      <c r="T51">
+        <v>5</v>
+      </c>
+      <c r="V51">
+        <v>32</v>
+      </c>
+      <c r="W51">
+        <v>22</v>
+      </c>
+      <c r="X51">
+        <v>27</v>
+      </c>
+      <c r="Y51">
+        <v>29</v>
+      </c>
+      <c r="Z51">
+        <v>24</v>
+      </c>
+      <c r="AA51">
+        <v>4</v>
+      </c>
+      <c r="AC51">
+        <v>23</v>
+      </c>
+      <c r="AD51">
+        <v>24</v>
+      </c>
+      <c r="AE51">
+        <v>15</v>
+      </c>
+      <c r="AF51">
+        <v>16</v>
+      </c>
+      <c r="AG51">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>46</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="D52">
+        <v>33</v>
+      </c>
+      <c r="E52">
+        <v>37</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <v>33</v>
+      </c>
+      <c r="I52">
+        <v>48</v>
+      </c>
+      <c r="J52">
+        <v>63</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>36</v>
+      </c>
+      <c r="M52">
+        <v>15</v>
+      </c>
+      <c r="N52">
+        <v>21</v>
+      </c>
+      <c r="O52">
+        <v>52</v>
+      </c>
+      <c r="P52">
+        <v>36</v>
+      </c>
+      <c r="Q52">
+        <v>43</v>
+      </c>
+      <c r="R52">
+        <v>31</v>
+      </c>
+      <c r="S52">
+        <v>34</v>
+      </c>
+      <c r="T52">
+        <v>10</v>
+      </c>
+      <c r="U52">
+        <v>12</v>
+      </c>
+      <c r="V52">
+        <v>44</v>
+      </c>
+      <c r="W52">
+        <v>48</v>
+      </c>
+      <c r="X52">
+        <v>60</v>
+      </c>
+      <c r="Y52">
+        <v>37</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>33</v>
+      </c>
+      <c r="AB52">
+        <v>9</v>
+      </c>
+      <c r="AC52">
+        <v>47</v>
+      </c>
+      <c r="AD52">
+        <v>47</v>
+      </c>
+      <c r="AE52">
+        <v>38</v>
+      </c>
+      <c r="AF52">
+        <v>46</v>
+      </c>
+      <c r="AG52">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="O53">
+        <v>9</v>
+      </c>
+      <c r="P53">
+        <v>8</v>
+      </c>
+      <c r="Q53">
+        <v>7</v>
+      </c>
+      <c r="R53">
+        <v>5</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>8</v>
+      </c>
+      <c r="W53">
+        <v>7</v>
+      </c>
+      <c r="X53">
+        <v>5</v>
+      </c>
+      <c r="Y53">
+        <v>9</v>
+      </c>
+      <c r="Z53">
+        <v>3</v>
+      </c>
+      <c r="AA53">
+        <v>4</v>
+      </c>
+      <c r="AC53">
+        <v>3</v>
+      </c>
+      <c r="AD53">
+        <v>4</v>
+      </c>
+      <c r="AE53">
+        <v>12</v>
+      </c>
+      <c r="AF53">
+        <v>6</v>
+      </c>
+      <c r="AG53">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="H54">
+        <v>16</v>
+      </c>
+      <c r="I54">
+        <v>18</v>
+      </c>
+      <c r="J54">
+        <v>33</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>14</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>15</v>
+      </c>
+      <c r="P54">
+        <v>18</v>
+      </c>
+      <c r="Q54">
+        <v>22</v>
+      </c>
+      <c r="R54">
+        <v>13</v>
+      </c>
+      <c r="S54">
+        <v>10</v>
+      </c>
+      <c r="T54">
+        <v>8</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>34</v>
+      </c>
+      <c r="W54">
+        <v>16</v>
+      </c>
+      <c r="X54">
+        <v>24</v>
+      </c>
+      <c r="Y54">
+        <v>7</v>
+      </c>
+      <c r="Z54">
+        <v>13</v>
+      </c>
+      <c r="AA54">
+        <v>8</v>
+      </c>
+      <c r="AC54">
+        <v>19</v>
+      </c>
+      <c r="AD54">
+        <v>19</v>
+      </c>
+      <c r="AE54">
+        <v>18</v>
+      </c>
+      <c r="AF54">
+        <v>17</v>
+      </c>
+      <c r="AG54">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>6</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>4</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>5</v>
+      </c>
+      <c r="T55">
+        <v>3</v>
+      </c>
+      <c r="V55">
+        <v>4</v>
+      </c>
+      <c r="W55">
+        <v>2</v>
+      </c>
+      <c r="X55">
+        <v>4</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>8</v>
+      </c>
+      <c r="AC55">
+        <v>7</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>5</v>
+      </c>
+      <c r="AF55">
+        <v>4</v>
+      </c>
+      <c r="AG55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="Q56">
+        <v>4</v>
+      </c>
+      <c r="R56">
+        <v>3</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>4</v>
+      </c>
+      <c r="W56">
+        <v>2</v>
+      </c>
+      <c r="X56">
+        <v>10</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>2</v>
+      </c>
+      <c r="AC56">
+        <v>3</v>
+      </c>
+      <c r="AD56">
+        <v>3</v>
+      </c>
+      <c r="AE56">
+        <v>8</v>
+      </c>
+      <c r="AF56">
+        <v>2</v>
+      </c>
+      <c r="AG56">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>8</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>14</v>
+      </c>
+      <c r="P57">
+        <v>6</v>
+      </c>
+      <c r="Q57">
+        <v>5</v>
+      </c>
+      <c r="R57">
+        <v>7</v>
+      </c>
+      <c r="S57">
+        <v>8</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>10</v>
+      </c>
+      <c r="W57">
+        <v>7</v>
+      </c>
+      <c r="X57">
+        <v>2</v>
+      </c>
+      <c r="Y57">
+        <v>5</v>
+      </c>
+      <c r="Z57">
+        <v>5</v>
+      </c>
+      <c r="AB57">
+        <v>2</v>
+      </c>
+      <c r="AC57">
+        <v>6</v>
+      </c>
+      <c r="AD57">
+        <v>2</v>
+      </c>
+      <c r="AE57">
+        <v>4</v>
+      </c>
+      <c r="AF57">
+        <v>4</v>
+      </c>
+      <c r="AG57">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AG57" xr:uid="{34968F86-018E-44E2-A2A3-E904B7A2DFA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
+++ b/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B9A3B3-2BA5-4C8C-AED6-6E6B33046CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0F917C-D0E0-4C7B-9F88-DD8C8D257BF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="3" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="December" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">April!$A$3:$AG$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">February!$A$3:$AG$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">January!$A$3:$AG$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">March!$A$3:$AG$57</definedName>
   </definedNames>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="71">
   <si>
     <t>branchname</t>
   </si>
@@ -250,6 +252,9 @@
   </si>
   <si>
     <t>2022-03-01 - 2022-03-30</t>
+  </si>
+  <si>
+    <t>2022-04-01 - 2022-04-30</t>
   </si>
 </sst>
 </file>
@@ -619,7 +624,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -9369,6 +9374,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AG3" xr:uid="{D8399D67-E68B-42D7-AFC3-15C82B91E2D5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13948,9 +13954,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633557D5-54F2-4CB6-8A69-0FAA84994F48}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="B2:AF2"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -13963,40 +13969,4526 @@
     <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44653</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44654</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44655</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44656</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44657</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44658</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44659</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44660</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44661</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44662</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44663</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44664</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44665</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44666</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>44667</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44668</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44669</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44670</v>
+      </c>
+      <c r="U2" s="1">
+        <v>44671</v>
+      </c>
+      <c r="V2" s="1">
+        <v>44672</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44673</v>
+      </c>
+      <c r="X2" s="1">
+        <v>44674</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>44675</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44677</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>44678</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>44679</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>44680</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>44681</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>52</v>
+      </c>
+      <c r="G4">
+        <v>53</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>54</v>
+      </c>
+      <c r="J4">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>69</v>
+      </c>
+      <c r="M4">
+        <v>67</v>
+      </c>
+      <c r="N4">
+        <v>55</v>
+      </c>
+      <c r="O4">
+        <v>88</v>
+      </c>
+      <c r="P4">
+        <v>41</v>
+      </c>
+      <c r="Q4">
+        <v>22</v>
+      </c>
+      <c r="S4">
+        <v>59</v>
+      </c>
+      <c r="T4">
+        <v>66</v>
+      </c>
+      <c r="U4">
+        <v>53</v>
+      </c>
+      <c r="V4">
+        <v>71</v>
+      </c>
+      <c r="W4">
+        <v>56</v>
+      </c>
+      <c r="X4">
+        <v>33</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>51</v>
+      </c>
+      <c r="AA4">
+        <v>66</v>
+      </c>
+      <c r="AB4">
+        <v>53</v>
+      </c>
+      <c r="AC4">
+        <v>60</v>
+      </c>
+      <c r="AD4">
+        <v>56</v>
+      </c>
+      <c r="AE4">
+        <v>38</v>
+      </c>
+      <c r="AG4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>31</v>
+      </c>
+      <c r="P5">
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>41</v>
+      </c>
+      <c r="T5">
+        <v>40</v>
+      </c>
+      <c r="U5">
+        <v>29</v>
+      </c>
+      <c r="V5">
+        <v>26</v>
+      </c>
+      <c r="W5">
+        <v>23</v>
+      </c>
+      <c r="X5">
+        <v>12</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>41</v>
+      </c>
+      <c r="AA5">
+        <v>32</v>
+      </c>
+      <c r="AB5">
+        <v>35</v>
+      </c>
+      <c r="AC5">
+        <v>28</v>
+      </c>
+      <c r="AD5">
+        <v>27</v>
+      </c>
+      <c r="AE5">
+        <v>17</v>
+      </c>
+      <c r="AG5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>57</v>
+      </c>
+      <c r="I6">
+        <v>52</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>74</v>
+      </c>
+      <c r="M6">
+        <v>77</v>
+      </c>
+      <c r="N6">
+        <v>85</v>
+      </c>
+      <c r="O6">
+        <v>79</v>
+      </c>
+      <c r="P6">
+        <v>51</v>
+      </c>
+      <c r="Q6">
+        <v>63</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>91</v>
+      </c>
+      <c r="T6">
+        <v>90</v>
+      </c>
+      <c r="U6">
+        <v>84</v>
+      </c>
+      <c r="V6">
+        <v>70</v>
+      </c>
+      <c r="W6">
+        <v>62</v>
+      </c>
+      <c r="X6">
+        <v>55</v>
+      </c>
+      <c r="Y6">
+        <v>29</v>
+      </c>
+      <c r="Z6">
+        <v>77</v>
+      </c>
+      <c r="AA6">
+        <v>91</v>
+      </c>
+      <c r="AB6">
+        <v>76</v>
+      </c>
+      <c r="AC6">
+        <v>68</v>
+      </c>
+      <c r="AD6">
+        <v>57</v>
+      </c>
+      <c r="AE6">
+        <v>48</v>
+      </c>
+      <c r="AG6">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>4</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AG7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>47</v>
+      </c>
+      <c r="G8">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>61</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>38</v>
+      </c>
+      <c r="O8">
+        <v>46</v>
+      </c>
+      <c r="P8">
+        <v>43</v>
+      </c>
+      <c r="Q8">
+        <v>41</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>61</v>
+      </c>
+      <c r="T8">
+        <v>64</v>
+      </c>
+      <c r="U8">
+        <v>45</v>
+      </c>
+      <c r="V8">
+        <v>46</v>
+      </c>
+      <c r="W8">
+        <v>43</v>
+      </c>
+      <c r="X8">
+        <v>32</v>
+      </c>
+      <c r="Y8">
+        <v>23</v>
+      </c>
+      <c r="Z8">
+        <v>41</v>
+      </c>
+      <c r="AA8">
+        <v>52</v>
+      </c>
+      <c r="AB8">
+        <v>54</v>
+      </c>
+      <c r="AC8">
+        <v>61</v>
+      </c>
+      <c r="AD8">
+        <v>43</v>
+      </c>
+      <c r="AE8">
+        <v>40</v>
+      </c>
+      <c r="AG8">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>13</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>12</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>12</v>
+      </c>
+      <c r="AC9">
+        <v>11</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9">
+        <v>8</v>
+      </c>
+      <c r="AG9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>13</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>17</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>11</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Z10">
+        <v>11</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10">
+        <v>6</v>
+      </c>
+      <c r="AC10">
+        <v>10</v>
+      </c>
+      <c r="AD10">
+        <v>12</v>
+      </c>
+      <c r="AE10">
+        <v>6</v>
+      </c>
+      <c r="AG10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="U11">
+        <v>7</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>9</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AG11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>5</v>
+      </c>
+      <c r="AC15">
+        <v>4</v>
+      </c>
+      <c r="AD15">
+        <v>5</v>
+      </c>
+      <c r="AG15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>17</v>
+      </c>
+      <c r="T16">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <v>14</v>
+      </c>
+      <c r="V16">
+        <v>17</v>
+      </c>
+      <c r="W16">
+        <v>13</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>13</v>
+      </c>
+      <c r="AA16">
+        <v>12</v>
+      </c>
+      <c r="AB16">
+        <v>8</v>
+      </c>
+      <c r="AC16">
+        <v>15</v>
+      </c>
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16">
+        <v>4</v>
+      </c>
+      <c r="AG16">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>8</v>
+      </c>
+      <c r="T17">
+        <v>11</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
+      <c r="AC17">
+        <v>6</v>
+      </c>
+      <c r="AD17">
+        <v>8</v>
+      </c>
+      <c r="AE17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>8</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>7</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>28</v>
+      </c>
+      <c r="O19">
+        <v>25</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>11</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>33</v>
+      </c>
+      <c r="T19">
+        <v>18</v>
+      </c>
+      <c r="U19">
+        <v>26</v>
+      </c>
+      <c r="V19">
+        <v>18</v>
+      </c>
+      <c r="W19">
+        <v>17</v>
+      </c>
+      <c r="X19">
+        <v>17</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19">
+        <v>36</v>
+      </c>
+      <c r="AA19">
+        <v>18</v>
+      </c>
+      <c r="AB19">
+        <v>34</v>
+      </c>
+      <c r="AC19">
+        <v>11</v>
+      </c>
+      <c r="AD19">
+        <v>25</v>
+      </c>
+      <c r="AE19">
+        <v>18</v>
+      </c>
+      <c r="AG19">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AD20">
+        <v>3</v>
+      </c>
+      <c r="AG20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>49</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>36</v>
+      </c>
+      <c r="I21">
+        <v>22</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>32</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <v>21</v>
+      </c>
+      <c r="O21">
+        <v>36</v>
+      </c>
+      <c r="P21">
+        <v>28</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>44</v>
+      </c>
+      <c r="T21">
+        <v>13</v>
+      </c>
+      <c r="U21">
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <v>33</v>
+      </c>
+      <c r="W21">
+        <v>24</v>
+      </c>
+      <c r="X21">
+        <v>14</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+      <c r="Z21">
+        <v>25</v>
+      </c>
+      <c r="AA21">
+        <v>22</v>
+      </c>
+      <c r="AB21">
+        <v>16</v>
+      </c>
+      <c r="AC21">
+        <v>36</v>
+      </c>
+      <c r="AD21">
+        <v>29</v>
+      </c>
+      <c r="AE21">
+        <v>18</v>
+      </c>
+      <c r="AG21">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>39</v>
+      </c>
+      <c r="G23">
+        <v>42</v>
+      </c>
+      <c r="H23">
+        <v>26</v>
+      </c>
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>45</v>
+      </c>
+      <c r="M23">
+        <v>36</v>
+      </c>
+      <c r="N23">
+        <v>39</v>
+      </c>
+      <c r="O23">
+        <v>29</v>
+      </c>
+      <c r="P23">
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <v>16</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>53</v>
+      </c>
+      <c r="T23">
+        <v>36</v>
+      </c>
+      <c r="U23">
+        <v>29</v>
+      </c>
+      <c r="V23">
+        <v>31</v>
+      </c>
+      <c r="W23">
+        <v>31</v>
+      </c>
+      <c r="X23">
+        <v>16</v>
+      </c>
+      <c r="Z23">
+        <v>34</v>
+      </c>
+      <c r="AA23">
+        <v>26</v>
+      </c>
+      <c r="AB23">
+        <v>38</v>
+      </c>
+      <c r="AC23">
+        <v>33</v>
+      </c>
+      <c r="AD23">
+        <v>19</v>
+      </c>
+      <c r="AE23">
+        <v>17</v>
+      </c>
+      <c r="AG23">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>5</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>36</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>39</v>
+      </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>35</v>
+      </c>
+      <c r="M25">
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <v>17</v>
+      </c>
+      <c r="O25">
+        <v>42</v>
+      </c>
+      <c r="P25">
+        <v>35</v>
+      </c>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+      <c r="S25">
+        <v>39</v>
+      </c>
+      <c r="T25">
+        <v>25</v>
+      </c>
+      <c r="U25">
+        <v>13</v>
+      </c>
+      <c r="V25">
+        <v>21</v>
+      </c>
+      <c r="W25">
+        <v>30</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>2</v>
+      </c>
+      <c r="Z25">
+        <v>25</v>
+      </c>
+      <c r="AA25">
+        <v>24</v>
+      </c>
+      <c r="AB25">
+        <v>29</v>
+      </c>
+      <c r="AC25">
+        <v>24</v>
+      </c>
+      <c r="AD25">
+        <v>20</v>
+      </c>
+      <c r="AE25">
+        <v>13</v>
+      </c>
+      <c r="AG25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>87</v>
+      </c>
+      <c r="F26">
+        <v>104</v>
+      </c>
+      <c r="G26">
+        <v>99</v>
+      </c>
+      <c r="H26">
+        <v>102</v>
+      </c>
+      <c r="I26">
+        <v>78</v>
+      </c>
+      <c r="J26">
+        <v>63</v>
+      </c>
+      <c r="K26">
+        <v>36</v>
+      </c>
+      <c r="L26">
+        <v>96</v>
+      </c>
+      <c r="M26">
+        <v>83</v>
+      </c>
+      <c r="N26">
+        <v>70</v>
+      </c>
+      <c r="O26">
+        <v>90</v>
+      </c>
+      <c r="P26">
+        <v>85</v>
+      </c>
+      <c r="Q26">
+        <v>65</v>
+      </c>
+      <c r="R26">
+        <v>8</v>
+      </c>
+      <c r="S26">
+        <v>93</v>
+      </c>
+      <c r="T26">
+        <v>98</v>
+      </c>
+      <c r="U26">
+        <v>103</v>
+      </c>
+      <c r="V26">
+        <v>79</v>
+      </c>
+      <c r="W26">
+        <v>59</v>
+      </c>
+      <c r="X26">
+        <v>56</v>
+      </c>
+      <c r="Y26">
+        <v>38</v>
+      </c>
+      <c r="Z26">
+        <v>89</v>
+      </c>
+      <c r="AA26">
+        <v>83</v>
+      </c>
+      <c r="AB26">
+        <v>102</v>
+      </c>
+      <c r="AC26">
+        <v>86</v>
+      </c>
+      <c r="AD26">
+        <v>81</v>
+      </c>
+      <c r="AE26">
+        <v>64</v>
+      </c>
+      <c r="AG26">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>8</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>9</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>7</v>
+      </c>
+      <c r="V27">
+        <v>11</v>
+      </c>
+      <c r="W27">
+        <v>11</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>7</v>
+      </c>
+      <c r="AA27">
+        <v>11</v>
+      </c>
+      <c r="AB27">
+        <v>11</v>
+      </c>
+      <c r="AC27">
+        <v>7</v>
+      </c>
+      <c r="AD27">
+        <v>5</v>
+      </c>
+      <c r="AE27">
+        <v>2</v>
+      </c>
+      <c r="AG27">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>15</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>9</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>26</v>
+      </c>
+      <c r="T29">
+        <v>7</v>
+      </c>
+      <c r="U29">
+        <v>11</v>
+      </c>
+      <c r="V29">
+        <v>7</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Z29">
+        <v>15</v>
+      </c>
+      <c r="AA29">
+        <v>5</v>
+      </c>
+      <c r="AB29">
+        <v>9</v>
+      </c>
+      <c r="AC29">
+        <v>8</v>
+      </c>
+      <c r="AE29">
+        <v>8</v>
+      </c>
+      <c r="AG29">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>6</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>5</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>3</v>
+      </c>
+      <c r="AA30">
+        <v>6</v>
+      </c>
+      <c r="AB30">
+        <v>5</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
+        <v>2</v>
+      </c>
+      <c r="AG30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>12</v>
+      </c>
+      <c r="M31">
+        <v>22</v>
+      </c>
+      <c r="N31">
+        <v>23</v>
+      </c>
+      <c r="O31">
+        <v>15</v>
+      </c>
+      <c r="P31">
+        <v>13</v>
+      </c>
+      <c r="Q31">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>23</v>
+      </c>
+      <c r="U31">
+        <v>18</v>
+      </c>
+      <c r="V31">
+        <v>18</v>
+      </c>
+      <c r="W31">
+        <v>21</v>
+      </c>
+      <c r="X31">
+        <v>10</v>
+      </c>
+      <c r="Z31">
+        <v>13</v>
+      </c>
+      <c r="AA31">
+        <v>14</v>
+      </c>
+      <c r="AB31">
+        <v>16</v>
+      </c>
+      <c r="AC31">
+        <v>18</v>
+      </c>
+      <c r="AD31">
+        <v>15</v>
+      </c>
+      <c r="AE31">
+        <v>8</v>
+      </c>
+      <c r="AG31">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>3</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>6</v>
+      </c>
+      <c r="AC33">
+        <v>6</v>
+      </c>
+      <c r="AD33">
+        <v>4</v>
+      </c>
+      <c r="AG33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>22</v>
+      </c>
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>41</v>
+      </c>
+      <c r="M34">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <v>34</v>
+      </c>
+      <c r="O34">
+        <v>22</v>
+      </c>
+      <c r="P34">
+        <v>20</v>
+      </c>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <v>36</v>
+      </c>
+      <c r="T34">
+        <v>35</v>
+      </c>
+      <c r="U34">
+        <v>29</v>
+      </c>
+      <c r="V34">
+        <v>18</v>
+      </c>
+      <c r="W34">
+        <v>20</v>
+      </c>
+      <c r="X34">
+        <v>22</v>
+      </c>
+      <c r="Z34">
+        <v>31</v>
+      </c>
+      <c r="AA34">
+        <v>26</v>
+      </c>
+      <c r="AB34">
+        <v>31</v>
+      </c>
+      <c r="AC34">
+        <v>27</v>
+      </c>
+      <c r="AD34">
+        <v>16</v>
+      </c>
+      <c r="AE34">
+        <v>14</v>
+      </c>
+      <c r="AG34">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>55</v>
+      </c>
+      <c r="F35">
+        <v>16</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>35</v>
+      </c>
+      <c r="J35">
+        <v>18</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>17</v>
+      </c>
+      <c r="N35">
+        <v>28</v>
+      </c>
+      <c r="O35">
+        <v>23</v>
+      </c>
+      <c r="P35">
+        <v>23</v>
+      </c>
+      <c r="Q35">
+        <v>17</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>28</v>
+      </c>
+      <c r="T35">
+        <v>25</v>
+      </c>
+      <c r="U35">
+        <v>18</v>
+      </c>
+      <c r="V35">
+        <v>20</v>
+      </c>
+      <c r="W35">
+        <v>31</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Z35">
+        <v>32</v>
+      </c>
+      <c r="AA35">
+        <v>27</v>
+      </c>
+      <c r="AB35">
+        <v>13</v>
+      </c>
+      <c r="AC35">
+        <v>16</v>
+      </c>
+      <c r="AD35">
+        <v>28</v>
+      </c>
+      <c r="AE35">
+        <v>12</v>
+      </c>
+      <c r="AG35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>16</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>25</v>
+      </c>
+      <c r="I36">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>24</v>
+      </c>
+      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>12</v>
+      </c>
+      <c r="P36">
+        <v>12</v>
+      </c>
+      <c r="Q36">
+        <v>14</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="S36">
+        <v>13</v>
+      </c>
+      <c r="T36">
+        <v>16</v>
+      </c>
+      <c r="U36">
+        <v>17</v>
+      </c>
+      <c r="V36">
+        <v>14</v>
+      </c>
+      <c r="W36">
+        <v>12</v>
+      </c>
+      <c r="X36">
+        <v>7</v>
+      </c>
+      <c r="Y36">
+        <v>2</v>
+      </c>
+      <c r="Z36">
+        <v>21</v>
+      </c>
+      <c r="AA36">
+        <v>17</v>
+      </c>
+      <c r="AB36">
+        <v>20</v>
+      </c>
+      <c r="AC36">
+        <v>15</v>
+      </c>
+      <c r="AD36">
+        <v>15</v>
+      </c>
+      <c r="AE36">
+        <v>7</v>
+      </c>
+      <c r="AG36">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>82</v>
+      </c>
+      <c r="C37">
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>69</v>
+      </c>
+      <c r="F37">
+        <v>58</v>
+      </c>
+      <c r="G37">
+        <v>47</v>
+      </c>
+      <c r="H37">
+        <v>44</v>
+      </c>
+      <c r="I37">
+        <v>69</v>
+      </c>
+      <c r="J37">
+        <v>34</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>63</v>
+      </c>
+      <c r="M37">
+        <v>69</v>
+      </c>
+      <c r="N37">
+        <v>54</v>
+      </c>
+      <c r="O37">
+        <v>70</v>
+      </c>
+      <c r="P37">
+        <v>52</v>
+      </c>
+      <c r="Q37">
+        <v>35</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>70</v>
+      </c>
+      <c r="T37">
+        <v>46</v>
+      </c>
+      <c r="U37">
+        <v>51</v>
+      </c>
+      <c r="V37">
+        <v>52</v>
+      </c>
+      <c r="W37">
+        <v>65</v>
+      </c>
+      <c r="X37">
+        <v>25</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+      <c r="Z37">
+        <v>71</v>
+      </c>
+      <c r="AA37">
+        <v>75</v>
+      </c>
+      <c r="AB37">
+        <v>55</v>
+      </c>
+      <c r="AC37">
+        <v>56</v>
+      </c>
+      <c r="AD37">
+        <v>51</v>
+      </c>
+      <c r="AE37">
+        <v>29</v>
+      </c>
+      <c r="AG37">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>17</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>7</v>
+      </c>
+      <c r="P38">
+        <v>11</v>
+      </c>
+      <c r="Q38">
+        <v>8</v>
+      </c>
+      <c r="S38">
+        <v>20</v>
+      </c>
+      <c r="T38">
+        <v>24</v>
+      </c>
+      <c r="U38">
+        <v>12</v>
+      </c>
+      <c r="V38">
+        <v>12</v>
+      </c>
+      <c r="W38">
+        <v>18</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Z38">
+        <v>8</v>
+      </c>
+      <c r="AA38">
+        <v>12</v>
+      </c>
+      <c r="AB38">
+        <v>12</v>
+      </c>
+      <c r="AC38">
+        <v>11</v>
+      </c>
+      <c r="AD38">
+        <v>13</v>
+      </c>
+      <c r="AE38">
+        <v>5</v>
+      </c>
+      <c r="AG38">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>49</v>
+      </c>
+      <c r="F39">
+        <v>45</v>
+      </c>
+      <c r="G39">
+        <v>31</v>
+      </c>
+      <c r="H39">
+        <v>42</v>
+      </c>
+      <c r="I39">
+        <v>24</v>
+      </c>
+      <c r="J39">
+        <v>20</v>
+      </c>
+      <c r="L39">
+        <v>46</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+      <c r="N39">
+        <v>32</v>
+      </c>
+      <c r="O39">
+        <v>28</v>
+      </c>
+      <c r="P39">
+        <v>34</v>
+      </c>
+      <c r="Q39">
+        <v>17</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>48</v>
+      </c>
+      <c r="T39">
+        <v>41</v>
+      </c>
+      <c r="U39">
+        <v>35</v>
+      </c>
+      <c r="V39">
+        <v>41</v>
+      </c>
+      <c r="W39">
+        <v>15</v>
+      </c>
+      <c r="X39">
+        <v>25</v>
+      </c>
+      <c r="Z39">
+        <v>41</v>
+      </c>
+      <c r="AA39">
+        <v>33</v>
+      </c>
+      <c r="AB39">
+        <v>39</v>
+      </c>
+      <c r="AC39">
+        <v>46</v>
+      </c>
+      <c r="AD39">
+        <v>35</v>
+      </c>
+      <c r="AE39">
+        <v>22</v>
+      </c>
+      <c r="AG39">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="O40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="AA40">
+        <v>5</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>2</v>
+      </c>
+      <c r="AG40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>4</v>
+      </c>
+      <c r="V41">
+        <v>8</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>4</v>
+      </c>
+      <c r="AB41">
+        <v>3</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>5</v>
+      </c>
+      <c r="AE41">
+        <v>4</v>
+      </c>
+      <c r="AG41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>17</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>11</v>
+      </c>
+      <c r="N42">
+        <v>9</v>
+      </c>
+      <c r="O42">
+        <v>20</v>
+      </c>
+      <c r="S42">
+        <v>11</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="U42">
+        <v>16</v>
+      </c>
+      <c r="V42">
+        <v>5</v>
+      </c>
+      <c r="W42">
+        <v>8</v>
+      </c>
+      <c r="Z42">
+        <v>19</v>
+      </c>
+      <c r="AA42">
+        <v>13</v>
+      </c>
+      <c r="AB42">
+        <v>12</v>
+      </c>
+      <c r="AC42">
+        <v>21</v>
+      </c>
+      <c r="AD42">
+        <v>11</v>
+      </c>
+      <c r="AG42">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>54</v>
+      </c>
+      <c r="E43">
+        <v>74</v>
+      </c>
+      <c r="F43">
+        <v>57</v>
+      </c>
+      <c r="G43">
+        <v>51</v>
+      </c>
+      <c r="H43">
+        <v>68</v>
+      </c>
+      <c r="I43">
+        <v>40</v>
+      </c>
+      <c r="L43">
+        <v>63</v>
+      </c>
+      <c r="M43">
+        <v>73</v>
+      </c>
+      <c r="N43">
+        <v>67</v>
+      </c>
+      <c r="O43">
+        <v>66</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>59</v>
+      </c>
+      <c r="AA43">
+        <v>52</v>
+      </c>
+      <c r="AB43">
+        <v>58</v>
+      </c>
+      <c r="AC43">
+        <v>57</v>
+      </c>
+      <c r="AD43">
+        <v>45</v>
+      </c>
+      <c r="AG43">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>3</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AD44">
+        <v>2</v>
+      </c>
+      <c r="AG44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>9</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <v>3</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>30</v>
+      </c>
+      <c r="Z45">
+        <v>16</v>
+      </c>
+      <c r="AA45">
+        <v>3</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>2</v>
+      </c>
+      <c r="AD45">
+        <v>4</v>
+      </c>
+      <c r="AG45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>21</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>22</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>13</v>
+      </c>
+      <c r="N46">
+        <v>22</v>
+      </c>
+      <c r="O46">
+        <v>23</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>9</v>
+      </c>
+      <c r="U46">
+        <v>24</v>
+      </c>
+      <c r="V46">
+        <v>19</v>
+      </c>
+      <c r="W46">
+        <v>8</v>
+      </c>
+      <c r="AA46">
+        <v>16</v>
+      </c>
+      <c r="AB46">
+        <v>27</v>
+      </c>
+      <c r="AC46">
+        <v>23</v>
+      </c>
+      <c r="AG46">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="L47">
+        <v>8</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>8</v>
+      </c>
+      <c r="P47">
+        <v>7</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>9</v>
+      </c>
+      <c r="U47">
+        <v>11</v>
+      </c>
+      <c r="V47">
+        <v>6</v>
+      </c>
+      <c r="W47">
+        <v>8</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>11</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>10</v>
+      </c>
+      <c r="AC47">
+        <v>9</v>
+      </c>
+      <c r="AD47">
+        <v>5</v>
+      </c>
+      <c r="AE47">
+        <v>4</v>
+      </c>
+      <c r="AG47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>37</v>
+      </c>
+      <c r="M48">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>20</v>
+      </c>
+      <c r="O48">
+        <v>32</v>
+      </c>
+      <c r="P48">
+        <v>18</v>
+      </c>
+      <c r="Q48">
+        <v>4</v>
+      </c>
+      <c r="S48">
+        <v>3</v>
+      </c>
+      <c r="T48">
+        <v>29</v>
+      </c>
+      <c r="U48">
+        <v>17</v>
+      </c>
+      <c r="V48">
+        <v>23</v>
+      </c>
+      <c r="W48">
+        <v>12</v>
+      </c>
+      <c r="X48">
+        <v>13</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>11</v>
+      </c>
+      <c r="AA48">
+        <v>16</v>
+      </c>
+      <c r="AB48">
+        <v>21</v>
+      </c>
+      <c r="AC48">
+        <v>16</v>
+      </c>
+      <c r="AD48">
+        <v>27</v>
+      </c>
+      <c r="AE48">
+        <v>14</v>
+      </c>
+      <c r="AG48">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>31</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>31</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>35</v>
+      </c>
+      <c r="H49">
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>23</v>
+      </c>
+      <c r="J49">
+        <v>15</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>33</v>
+      </c>
+      <c r="M49">
+        <v>24</v>
+      </c>
+      <c r="N49">
+        <v>33</v>
+      </c>
+      <c r="O49">
+        <v>26</v>
+      </c>
+      <c r="P49">
+        <v>37</v>
+      </c>
+      <c r="Q49">
+        <v>19</v>
+      </c>
+      <c r="S49">
+        <v>39</v>
+      </c>
+      <c r="T49">
+        <v>32</v>
+      </c>
+      <c r="U49">
+        <v>35</v>
+      </c>
+      <c r="V49">
+        <v>15</v>
+      </c>
+      <c r="W49">
+        <v>35</v>
+      </c>
+      <c r="X49">
+        <v>14</v>
+      </c>
+      <c r="Y49">
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <v>38</v>
+      </c>
+      <c r="AA49">
+        <v>22</v>
+      </c>
+      <c r="AB49">
+        <v>27</v>
+      </c>
+      <c r="AC49">
+        <v>28</v>
+      </c>
+      <c r="AD49">
+        <v>34</v>
+      </c>
+      <c r="AE49">
+        <v>14</v>
+      </c>
+      <c r="AG49">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>29</v>
+      </c>
+      <c r="F50">
+        <v>19</v>
+      </c>
+      <c r="G50">
+        <v>31</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>16</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>25</v>
+      </c>
+      <c r="M50">
+        <v>26</v>
+      </c>
+      <c r="N50">
+        <v>26</v>
+      </c>
+      <c r="O50">
+        <v>20</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>31</v>
+      </c>
+      <c r="T50">
+        <v>22</v>
+      </c>
+      <c r="U50">
+        <v>21</v>
+      </c>
+      <c r="V50">
+        <v>20</v>
+      </c>
+      <c r="W50">
+        <v>14</v>
+      </c>
+      <c r="X50">
+        <v>17</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>28</v>
+      </c>
+      <c r="AA50">
+        <v>21</v>
+      </c>
+      <c r="AB50">
+        <v>23</v>
+      </c>
+      <c r="AC50">
+        <v>24</v>
+      </c>
+      <c r="AD50">
+        <v>14</v>
+      </c>
+      <c r="AE50">
+        <v>13</v>
+      </c>
+      <c r="AG50">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>24</v>
+      </c>
+      <c r="F51">
+        <v>26</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <v>17</v>
+      </c>
+      <c r="M51">
+        <v>37</v>
+      </c>
+      <c r="N51">
+        <v>23</v>
+      </c>
+      <c r="O51">
+        <v>10</v>
+      </c>
+      <c r="P51">
+        <v>12</v>
+      </c>
+      <c r="Q51">
+        <v>7</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>11</v>
+      </c>
+      <c r="T51">
+        <v>20</v>
+      </c>
+      <c r="U51">
+        <v>21</v>
+      </c>
+      <c r="V51">
+        <v>5</v>
+      </c>
+      <c r="W51">
+        <v>20</v>
+      </c>
+      <c r="X51">
+        <v>37</v>
+      </c>
+      <c r="Z51">
+        <v>12</v>
+      </c>
+      <c r="AA51">
+        <v>20</v>
+      </c>
+      <c r="AB51">
+        <v>18</v>
+      </c>
+      <c r="AC51">
+        <v>16</v>
+      </c>
+      <c r="AD51">
+        <v>26</v>
+      </c>
+      <c r="AE51">
+        <v>4</v>
+      </c>
+      <c r="AG51">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>41</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>34</v>
+      </c>
+      <c r="F52">
+        <v>58</v>
+      </c>
+      <c r="G52">
+        <v>49</v>
+      </c>
+      <c r="H52">
+        <v>47</v>
+      </c>
+      <c r="I52">
+        <v>32</v>
+      </c>
+      <c r="J52">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>37</v>
+      </c>
+      <c r="M52">
+        <v>35</v>
+      </c>
+      <c r="N52">
+        <v>48</v>
+      </c>
+      <c r="O52">
+        <v>32</v>
+      </c>
+      <c r="P52">
+        <v>36</v>
+      </c>
+      <c r="Q52">
+        <v>18</v>
+      </c>
+      <c r="S52">
+        <v>37</v>
+      </c>
+      <c r="T52">
+        <v>52</v>
+      </c>
+      <c r="U52">
+        <v>41</v>
+      </c>
+      <c r="V52">
+        <v>40</v>
+      </c>
+      <c r="W52">
+        <v>40</v>
+      </c>
+      <c r="X52">
+        <v>26</v>
+      </c>
+      <c r="Y52">
+        <v>14</v>
+      </c>
+      <c r="Z52">
+        <v>41</v>
+      </c>
+      <c r="AA52">
+        <v>47</v>
+      </c>
+      <c r="AB52">
+        <v>32</v>
+      </c>
+      <c r="AC52">
+        <v>38</v>
+      </c>
+      <c r="AD52">
+        <v>36</v>
+      </c>
+      <c r="AE52">
+        <v>29</v>
+      </c>
+      <c r="AG52">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>6</v>
+      </c>
+      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>8</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53">
+        <v>5</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>5</v>
+      </c>
+      <c r="T53">
+        <v>5</v>
+      </c>
+      <c r="U53">
+        <v>8</v>
+      </c>
+      <c r="V53">
+        <v>4</v>
+      </c>
+      <c r="W53">
+        <v>3</v>
+      </c>
+      <c r="X53">
+        <v>7</v>
+      </c>
+      <c r="Z53">
+        <v>4</v>
+      </c>
+      <c r="AA53">
+        <v>6</v>
+      </c>
+      <c r="AB53">
+        <v>9</v>
+      </c>
+      <c r="AC53">
+        <v>2</v>
+      </c>
+      <c r="AD53">
+        <v>5</v>
+      </c>
+      <c r="AE53">
+        <v>5</v>
+      </c>
+      <c r="AG53">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>19</v>
+      </c>
+      <c r="F54">
+        <v>13</v>
+      </c>
+      <c r="G54">
+        <v>29</v>
+      </c>
+      <c r="H54">
+        <v>17</v>
+      </c>
+      <c r="I54">
+        <v>18</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <v>13</v>
+      </c>
+      <c r="M54">
+        <v>16</v>
+      </c>
+      <c r="N54">
+        <v>19</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54">
+        <v>14</v>
+      </c>
+      <c r="Q54">
+        <v>6</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>21</v>
+      </c>
+      <c r="T54">
+        <v>17</v>
+      </c>
+      <c r="U54">
+        <v>19</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
+      </c>
+      <c r="W54">
+        <v>13</v>
+      </c>
+      <c r="X54">
+        <v>7</v>
+      </c>
+      <c r="Z54">
+        <v>24</v>
+      </c>
+      <c r="AA54">
+        <v>9</v>
+      </c>
+      <c r="AB54">
+        <v>19</v>
+      </c>
+      <c r="AC54">
+        <v>8</v>
+      </c>
+      <c r="AD54">
+        <v>14</v>
+      </c>
+      <c r="AE54">
+        <v>5</v>
+      </c>
+      <c r="AG54">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>5</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
+        <v>4</v>
+      </c>
+      <c r="W55">
+        <v>5</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>2</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>2</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <v>2</v>
+      </c>
+      <c r="AE55">
+        <v>3</v>
+      </c>
+      <c r="AG55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>8</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>10</v>
+      </c>
+      <c r="V56">
+        <v>3</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>4</v>
+      </c>
+      <c r="AA56">
+        <v>2</v>
+      </c>
+      <c r="AB56">
+        <v>4</v>
+      </c>
+      <c r="AE56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>7</v>
+      </c>
+      <c r="N57">
+        <v>8</v>
+      </c>
+      <c r="O57">
+        <v>6</v>
+      </c>
+      <c r="P57">
+        <v>9</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>8</v>
+      </c>
+      <c r="T57">
+        <v>5</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+      <c r="W57">
+        <v>5</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>4</v>
+      </c>
+      <c r="AA57">
+        <v>5</v>
+      </c>
+      <c r="AB57">
+        <v>5</v>
+      </c>
+      <c r="AC57">
+        <v>6</v>
+      </c>
+      <c r="AD57">
+        <v>4</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AG3" xr:uid="{9030ABEF-4467-42E7-BCDA-FF968810D030}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
+++ b/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BB1981-64EF-4970-90FB-F64D5BE7B410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B0B007-88BC-4247-9833-230D668C9E9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="4" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="5" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">April!$A$3:$AG$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">February!$A$3:$AG$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">January!$A$3:$AG$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">June!$A$3:$AG$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">March!$A$3:$AG$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">May!$A$3:$AG$57</definedName>
   </definedNames>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="73">
   <si>
     <t>branchname</t>
   </si>
@@ -259,6 +260,9 @@
   </si>
   <si>
     <t>2022-05-01 - 2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-06-01 - 2022-06-30</t>
   </si>
 </sst>
 </file>
@@ -18502,7 +18506,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -22829,10 +22833,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7559C5-98A6-49B7-ABC7-2F44371F9A3D}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="B2:AF2"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
@@ -22844,38 +22848,4304 @@
     <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44713</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44714</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44715</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44716</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44717</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44718</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44719</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44720</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44721</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44722</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44723</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44724</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44725</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44726</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44727</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>44728</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44729</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44730</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44731</v>
+      </c>
+      <c r="U2" s="1">
+        <v>44732</v>
+      </c>
+      <c r="V2" s="1">
+        <v>44733</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44734</v>
+      </c>
+      <c r="X2" s="1">
+        <v>44735</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>44736</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>44737</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44738</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>44739</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>44740</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>44741</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>44742</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>87</v>
+      </c>
+      <c r="I4">
+        <v>91</v>
+      </c>
+      <c r="J4">
+        <v>92</v>
+      </c>
+      <c r="K4">
+        <v>53</v>
+      </c>
+      <c r="L4">
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>79</v>
+      </c>
+      <c r="O4">
+        <v>75</v>
+      </c>
+      <c r="P4">
+        <v>75</v>
+      </c>
+      <c r="Q4">
+        <v>77</v>
+      </c>
+      <c r="R4">
+        <v>66</v>
+      </c>
+      <c r="S4">
+        <v>37</v>
+      </c>
+      <c r="T4">
+        <v>9</v>
+      </c>
+      <c r="U4">
+        <v>70</v>
+      </c>
+      <c r="V4">
+        <v>80</v>
+      </c>
+      <c r="W4">
+        <v>83</v>
+      </c>
+      <c r="X4">
+        <v>73</v>
+      </c>
+      <c r="Y4">
+        <v>56</v>
+      </c>
+      <c r="Z4">
+        <v>32</v>
+      </c>
+      <c r="AA4">
+        <v>7</v>
+      </c>
+      <c r="AB4">
+        <v>74</v>
+      </c>
+      <c r="AC4">
+        <v>78</v>
+      </c>
+      <c r="AD4">
+        <v>88</v>
+      </c>
+      <c r="AE4">
+        <v>74</v>
+      </c>
+      <c r="AG4">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>35</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>36</v>
+      </c>
+      <c r="O5">
+        <v>54</v>
+      </c>
+      <c r="P5">
+        <v>52</v>
+      </c>
+      <c r="Q5">
+        <v>47</v>
+      </c>
+      <c r="R5">
+        <v>31</v>
+      </c>
+      <c r="S5">
+        <v>30</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>49</v>
+      </c>
+      <c r="V5">
+        <v>49</v>
+      </c>
+      <c r="W5">
+        <v>46</v>
+      </c>
+      <c r="X5">
+        <v>38</v>
+      </c>
+      <c r="Y5">
+        <v>38</v>
+      </c>
+      <c r="Z5">
+        <v>24</v>
+      </c>
+      <c r="AB5">
+        <v>43</v>
+      </c>
+      <c r="AC5">
+        <v>55</v>
+      </c>
+      <c r="AD5">
+        <v>49</v>
+      </c>
+      <c r="AE5">
+        <v>42</v>
+      </c>
+      <c r="AG5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>102</v>
+      </c>
+      <c r="D6">
+        <v>87</v>
+      </c>
+      <c r="E6">
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>102</v>
+      </c>
+      <c r="H6">
+        <v>126</v>
+      </c>
+      <c r="I6">
+        <v>124</v>
+      </c>
+      <c r="J6">
+        <v>101</v>
+      </c>
+      <c r="K6">
+        <v>63</v>
+      </c>
+      <c r="L6">
+        <v>59</v>
+      </c>
+      <c r="M6">
+        <v>41</v>
+      </c>
+      <c r="N6">
+        <v>112</v>
+      </c>
+      <c r="O6">
+        <v>110</v>
+      </c>
+      <c r="P6">
+        <v>125</v>
+      </c>
+      <c r="Q6">
+        <v>95</v>
+      </c>
+      <c r="R6">
+        <v>95</v>
+      </c>
+      <c r="S6">
+        <v>57</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>90</v>
+      </c>
+      <c r="V6">
+        <v>96</v>
+      </c>
+      <c r="W6">
+        <v>133</v>
+      </c>
+      <c r="X6">
+        <v>94</v>
+      </c>
+      <c r="Y6">
+        <v>78</v>
+      </c>
+      <c r="Z6">
+        <v>64</v>
+      </c>
+      <c r="AA6">
+        <v>41</v>
+      </c>
+      <c r="AB6">
+        <v>96</v>
+      </c>
+      <c r="AC6">
+        <v>107</v>
+      </c>
+      <c r="AD6">
+        <v>144</v>
+      </c>
+      <c r="AE6">
+        <v>97</v>
+      </c>
+      <c r="AG6">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>8</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>62</v>
+      </c>
+      <c r="D8">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>94</v>
+      </c>
+      <c r="H8">
+        <v>70</v>
+      </c>
+      <c r="I8">
+        <v>75</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
+      </c>
+      <c r="K8">
+        <v>48</v>
+      </c>
+      <c r="L8">
+        <v>39</v>
+      </c>
+      <c r="M8">
+        <v>29</v>
+      </c>
+      <c r="N8">
+        <v>68</v>
+      </c>
+      <c r="O8">
+        <v>80</v>
+      </c>
+      <c r="P8">
+        <v>88</v>
+      </c>
+      <c r="Q8">
+        <v>60</v>
+      </c>
+      <c r="R8">
+        <v>56</v>
+      </c>
+      <c r="S8">
+        <v>51</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>71</v>
+      </c>
+      <c r="V8">
+        <v>98</v>
+      </c>
+      <c r="W8">
+        <v>74</v>
+      </c>
+      <c r="X8">
+        <v>72</v>
+      </c>
+      <c r="Y8">
+        <v>43</v>
+      </c>
+      <c r="Z8">
+        <v>35</v>
+      </c>
+      <c r="AA8">
+        <v>22</v>
+      </c>
+      <c r="AB8">
+        <v>68</v>
+      </c>
+      <c r="AC8">
+        <v>63</v>
+      </c>
+      <c r="AD8">
+        <v>95</v>
+      </c>
+      <c r="AE8">
+        <v>61</v>
+      </c>
+      <c r="AG8">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>14</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>17</v>
+      </c>
+      <c r="X9">
+        <v>14</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9">
+        <v>15</v>
+      </c>
+      <c r="AG9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>16</v>
+      </c>
+      <c r="V10">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <v>20</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>14</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>11</v>
+      </c>
+      <c r="AC10">
+        <v>15</v>
+      </c>
+      <c r="AD10">
+        <v>11</v>
+      </c>
+      <c r="AE10">
+        <v>11</v>
+      </c>
+      <c r="AG10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>27</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>13</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>3</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>16</v>
+      </c>
+      <c r="AE11">
+        <v>3</v>
+      </c>
+      <c r="AG11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <v>18</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>12</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>16</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AG12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+      <c r="AE14">
+        <v>4</v>
+      </c>
+      <c r="AG14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>8</v>
+      </c>
+      <c r="V15">
+        <v>11</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>9</v>
+      </c>
+      <c r="Z15">
+        <v>4</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>5</v>
+      </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AD15">
+        <v>14</v>
+      </c>
+      <c r="AE15">
+        <v>11</v>
+      </c>
+      <c r="AG15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>11</v>
+      </c>
+      <c r="O16">
+        <v>12</v>
+      </c>
+      <c r="P16">
+        <v>17</v>
+      </c>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+      <c r="R16">
+        <v>16</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>11</v>
+      </c>
+      <c r="V16">
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <v>22</v>
+      </c>
+      <c r="X16">
+        <v>23</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+      <c r="Z16">
+        <v>8</v>
+      </c>
+      <c r="AB16">
+        <v>12</v>
+      </c>
+      <c r="AC16">
+        <v>19</v>
+      </c>
+      <c r="AD16">
+        <v>12</v>
+      </c>
+      <c r="AE16">
+        <v>6</v>
+      </c>
+      <c r="AG16">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>18</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>24</v>
+      </c>
+      <c r="R17">
+        <v>8</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>9</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>6</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>9</v>
+      </c>
+      <c r="AC17">
+        <v>7</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17">
+        <v>8</v>
+      </c>
+      <c r="AG17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>11</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>14</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <v>4</v>
+      </c>
+      <c r="AB18">
+        <v>4</v>
+      </c>
+      <c r="AC18">
+        <v>6</v>
+      </c>
+      <c r="AD18">
+        <v>11</v>
+      </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>34</v>
+      </c>
+      <c r="H19">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>37</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>19</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>37</v>
+      </c>
+      <c r="O19">
+        <v>28</v>
+      </c>
+      <c r="P19">
+        <v>44</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+      <c r="R19">
+        <v>16</v>
+      </c>
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>41</v>
+      </c>
+      <c r="W19">
+        <v>38</v>
+      </c>
+      <c r="X19">
+        <v>23</v>
+      </c>
+      <c r="Y19">
+        <v>25</v>
+      </c>
+      <c r="Z19">
+        <v>17</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>29</v>
+      </c>
+      <c r="AC19">
+        <v>23</v>
+      </c>
+      <c r="AD19">
+        <v>38</v>
+      </c>
+      <c r="AE19">
+        <v>25</v>
+      </c>
+      <c r="AG19">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>5</v>
+      </c>
+      <c r="AD20">
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>47</v>
+      </c>
+      <c r="H21">
+        <v>38</v>
+      </c>
+      <c r="I21">
+        <v>36</v>
+      </c>
+      <c r="J21">
+        <v>54</v>
+      </c>
+      <c r="K21">
+        <v>36</v>
+      </c>
+      <c r="L21">
+        <v>13</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>35</v>
+      </c>
+      <c r="O21">
+        <v>46</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <v>42</v>
+      </c>
+      <c r="R21">
+        <v>32</v>
+      </c>
+      <c r="S21">
+        <v>13</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>41</v>
+      </c>
+      <c r="V21">
+        <v>26</v>
+      </c>
+      <c r="W21">
+        <v>39</v>
+      </c>
+      <c r="X21">
+        <v>42</v>
+      </c>
+      <c r="Y21">
+        <v>27</v>
+      </c>
+      <c r="Z21">
+        <v>16</v>
+      </c>
+      <c r="AA21">
+        <v>7</v>
+      </c>
+      <c r="AB21">
+        <v>46</v>
+      </c>
+      <c r="AC21">
+        <v>33</v>
+      </c>
+      <c r="AD21">
+        <v>24</v>
+      </c>
+      <c r="AE21">
+        <v>44</v>
+      </c>
+      <c r="AG21">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>42</v>
+      </c>
+      <c r="H23">
+        <v>43</v>
+      </c>
+      <c r="I23">
+        <v>42</v>
+      </c>
+      <c r="J23">
+        <v>49</v>
+      </c>
+      <c r="K23">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>45</v>
+      </c>
+      <c r="O23">
+        <v>51</v>
+      </c>
+      <c r="P23">
+        <v>37</v>
+      </c>
+      <c r="Q23">
+        <v>42</v>
+      </c>
+      <c r="R23">
+        <v>33</v>
+      </c>
+      <c r="S23">
+        <v>17</v>
+      </c>
+      <c r="U23">
+        <v>49</v>
+      </c>
+      <c r="V23">
+        <v>41</v>
+      </c>
+      <c r="W23">
+        <v>50</v>
+      </c>
+      <c r="X23">
+        <v>31</v>
+      </c>
+      <c r="Y23">
+        <v>37</v>
+      </c>
+      <c r="Z23">
+        <v>14</v>
+      </c>
+      <c r="AB23">
+        <v>44</v>
+      </c>
+      <c r="AC23">
+        <v>39</v>
+      </c>
+      <c r="AD23">
+        <v>32</v>
+      </c>
+      <c r="AE23">
+        <v>43</v>
+      </c>
+      <c r="AG23">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>8</v>
+      </c>
+      <c r="X24">
+        <v>5</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>5</v>
+      </c>
+      <c r="AD24">
+        <v>7</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AG24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>69</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>52</v>
+      </c>
+      <c r="H25">
+        <v>34</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>35</v>
+      </c>
+      <c r="K25">
+        <v>40</v>
+      </c>
+      <c r="L25">
+        <v>13</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>41</v>
+      </c>
+      <c r="O25">
+        <v>46</v>
+      </c>
+      <c r="P25">
+        <v>37</v>
+      </c>
+      <c r="Q25">
+        <v>28</v>
+      </c>
+      <c r="R25">
+        <v>36</v>
+      </c>
+      <c r="S25">
+        <v>19</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>33</v>
+      </c>
+      <c r="V25">
+        <v>51</v>
+      </c>
+      <c r="W25">
+        <v>53</v>
+      </c>
+      <c r="X25">
+        <v>40</v>
+      </c>
+      <c r="Y25">
+        <v>45</v>
+      </c>
+      <c r="Z25">
+        <v>20</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25">
+        <v>42</v>
+      </c>
+      <c r="AC25">
+        <v>43</v>
+      </c>
+      <c r="AD25">
+        <v>35</v>
+      </c>
+      <c r="AE25">
+        <v>35</v>
+      </c>
+      <c r="AG25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>108</v>
+      </c>
+      <c r="C26">
+        <v>109</v>
+      </c>
+      <c r="D26">
+        <v>94</v>
+      </c>
+      <c r="E26">
+        <v>74</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>118</v>
+      </c>
+      <c r="H26">
+        <v>130</v>
+      </c>
+      <c r="I26">
+        <v>107</v>
+      </c>
+      <c r="J26">
+        <v>102</v>
+      </c>
+      <c r="K26">
+        <v>72</v>
+      </c>
+      <c r="L26">
+        <v>57</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>103</v>
+      </c>
+      <c r="O26">
+        <v>106</v>
+      </c>
+      <c r="P26">
+        <v>110</v>
+      </c>
+      <c r="Q26">
+        <v>96</v>
+      </c>
+      <c r="R26">
+        <v>75</v>
+      </c>
+      <c r="S26">
+        <v>61</v>
+      </c>
+      <c r="U26">
+        <v>14</v>
+      </c>
+      <c r="V26">
+        <v>167</v>
+      </c>
+      <c r="W26">
+        <v>145</v>
+      </c>
+      <c r="X26">
+        <v>90</v>
+      </c>
+      <c r="Y26">
+        <v>83</v>
+      </c>
+      <c r="Z26">
+        <v>77</v>
+      </c>
+      <c r="AA26">
+        <v>7</v>
+      </c>
+      <c r="AB26">
+        <v>91</v>
+      </c>
+      <c r="AC26">
+        <v>116</v>
+      </c>
+      <c r="AD26">
+        <v>83</v>
+      </c>
+      <c r="AE26">
+        <v>100</v>
+      </c>
+      <c r="AG26">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>12</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+      <c r="O27">
+        <v>15</v>
+      </c>
+      <c r="P27">
+        <v>13</v>
+      </c>
+      <c r="Q27">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="U27">
+        <v>10</v>
+      </c>
+      <c r="V27">
+        <v>6</v>
+      </c>
+      <c r="W27">
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <v>15</v>
+      </c>
+      <c r="Y27">
+        <v>9</v>
+      </c>
+      <c r="AB27">
+        <v>11</v>
+      </c>
+      <c r="AC27">
+        <v>14</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>8</v>
+      </c>
+      <c r="AG27">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>13</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>13</v>
+      </c>
+      <c r="O29">
+        <v>13</v>
+      </c>
+      <c r="P29">
+        <v>9</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>19</v>
+      </c>
+      <c r="V29">
+        <v>14</v>
+      </c>
+      <c r="W29">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>14</v>
+      </c>
+      <c r="Z29">
+        <v>10</v>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29">
+        <v>16</v>
+      </c>
+      <c r="AC29">
+        <v>13</v>
+      </c>
+      <c r="AD29">
+        <v>17</v>
+      </c>
+      <c r="AE29">
+        <v>13</v>
+      </c>
+      <c r="AG29">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>7</v>
+      </c>
+      <c r="W30">
+        <v>5</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>11</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>9</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
+        <v>8</v>
+      </c>
+      <c r="AE30">
+        <v>5</v>
+      </c>
+      <c r="AG30">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>33</v>
+      </c>
+      <c r="H31">
+        <v>39</v>
+      </c>
+      <c r="I31">
+        <v>31</v>
+      </c>
+      <c r="J31">
+        <v>33</v>
+      </c>
+      <c r="K31">
+        <v>25</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <v>24</v>
+      </c>
+      <c r="O31">
+        <v>31</v>
+      </c>
+      <c r="P31">
+        <v>33</v>
+      </c>
+      <c r="Q31">
+        <v>39</v>
+      </c>
+      <c r="R31">
+        <v>21</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>24</v>
+      </c>
+      <c r="V31">
+        <v>33</v>
+      </c>
+      <c r="W31">
+        <v>25</v>
+      </c>
+      <c r="X31">
+        <v>25</v>
+      </c>
+      <c r="Y31">
+        <v>16</v>
+      </c>
+      <c r="Z31">
+        <v>5</v>
+      </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
+      <c r="AB31">
+        <v>25</v>
+      </c>
+      <c r="AC31">
+        <v>16</v>
+      </c>
+      <c r="AD31">
+        <v>25</v>
+      </c>
+      <c r="AE31">
+        <v>29</v>
+      </c>
+      <c r="AG31">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>4</v>
+      </c>
+      <c r="AG32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>13</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="O33">
+        <v>13</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>8</v>
+      </c>
+      <c r="V33">
+        <v>15</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <v>7</v>
+      </c>
+      <c r="Y33">
+        <v>7</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>14</v>
+      </c>
+      <c r="AD33">
+        <v>3</v>
+      </c>
+      <c r="AE33">
+        <v>7</v>
+      </c>
+      <c r="AG33">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="G34">
+        <v>46</v>
+      </c>
+      <c r="H34">
+        <v>47</v>
+      </c>
+      <c r="I34">
+        <v>41</v>
+      </c>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>42</v>
+      </c>
+      <c r="L34">
+        <v>16</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>42</v>
+      </c>
+      <c r="O34">
+        <v>54</v>
+      </c>
+      <c r="P34">
+        <v>39</v>
+      </c>
+      <c r="Q34">
+        <v>30</v>
+      </c>
+      <c r="R34">
+        <v>35</v>
+      </c>
+      <c r="S34">
+        <v>12</v>
+      </c>
+      <c r="U34">
+        <v>40</v>
+      </c>
+      <c r="V34">
+        <v>33</v>
+      </c>
+      <c r="W34">
+        <v>36</v>
+      </c>
+      <c r="X34">
+        <v>26</v>
+      </c>
+      <c r="Y34">
+        <v>36</v>
+      </c>
+      <c r="Z34">
+        <v>14</v>
+      </c>
+      <c r="AB34">
+        <v>37</v>
+      </c>
+      <c r="AC34">
+        <v>38</v>
+      </c>
+      <c r="AD34">
+        <v>53</v>
+      </c>
+      <c r="AE34">
+        <v>34</v>
+      </c>
+      <c r="AG34">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>31</v>
+      </c>
+      <c r="H35">
+        <v>36</v>
+      </c>
+      <c r="I35">
+        <v>36</v>
+      </c>
+      <c r="J35">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>22</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>31</v>
+      </c>
+      <c r="O35">
+        <v>34</v>
+      </c>
+      <c r="P35">
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <v>14</v>
+      </c>
+      <c r="R35">
+        <v>35</v>
+      </c>
+      <c r="S35">
+        <v>16</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>60</v>
+      </c>
+      <c r="W35">
+        <v>37</v>
+      </c>
+      <c r="X35">
+        <v>27</v>
+      </c>
+      <c r="Y35">
+        <v>26</v>
+      </c>
+      <c r="Z35">
+        <v>9</v>
+      </c>
+      <c r="AA35">
+        <v>2</v>
+      </c>
+      <c r="AB35">
+        <v>38</v>
+      </c>
+      <c r="AC35">
+        <v>40</v>
+      </c>
+      <c r="AD35">
+        <v>32</v>
+      </c>
+      <c r="AE35">
+        <v>50</v>
+      </c>
+      <c r="AG35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>27</v>
+      </c>
+      <c r="H36">
+        <v>22</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <v>16</v>
+      </c>
+      <c r="L36">
+        <v>9</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>26</v>
+      </c>
+      <c r="O36">
+        <v>21</v>
+      </c>
+      <c r="P36">
+        <v>20</v>
+      </c>
+      <c r="Q36">
+        <v>13</v>
+      </c>
+      <c r="R36">
+        <v>18</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="U36">
+        <v>12</v>
+      </c>
+      <c r="V36">
+        <v>20</v>
+      </c>
+      <c r="W36">
+        <v>14</v>
+      </c>
+      <c r="X36">
+        <v>14</v>
+      </c>
+      <c r="Y36">
+        <v>19</v>
+      </c>
+      <c r="Z36">
+        <v>7</v>
+      </c>
+      <c r="AB36">
+        <v>17</v>
+      </c>
+      <c r="AC36">
+        <v>16</v>
+      </c>
+      <c r="AD36">
+        <v>14</v>
+      </c>
+      <c r="AE36">
+        <v>30</v>
+      </c>
+      <c r="AG36">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>103</v>
+      </c>
+      <c r="C37">
+        <v>119</v>
+      </c>
+      <c r="D37">
+        <v>87</v>
+      </c>
+      <c r="E37">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>110</v>
+      </c>
+      <c r="H37">
+        <v>105</v>
+      </c>
+      <c r="I37">
+        <v>84</v>
+      </c>
+      <c r="J37">
+        <v>101</v>
+      </c>
+      <c r="K37">
+        <v>87</v>
+      </c>
+      <c r="L37">
+        <v>41</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>98</v>
+      </c>
+      <c r="O37">
+        <v>87</v>
+      </c>
+      <c r="P37">
+        <v>84</v>
+      </c>
+      <c r="Q37">
+        <v>100</v>
+      </c>
+      <c r="R37">
+        <v>62</v>
+      </c>
+      <c r="S37">
+        <v>27</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>104</v>
+      </c>
+      <c r="V37">
+        <v>121</v>
+      </c>
+      <c r="W37">
+        <v>81</v>
+      </c>
+      <c r="X37">
+        <v>95</v>
+      </c>
+      <c r="Y37">
+        <v>78</v>
+      </c>
+      <c r="Z37">
+        <v>28</v>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>116</v>
+      </c>
+      <c r="AC37">
+        <v>102</v>
+      </c>
+      <c r="AD37">
+        <v>84</v>
+      </c>
+      <c r="AE37">
+        <v>85</v>
+      </c>
+      <c r="AG37">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+      <c r="K38">
+        <v>11</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <v>15</v>
+      </c>
+      <c r="O38">
+        <v>14</v>
+      </c>
+      <c r="P38">
+        <v>16</v>
+      </c>
+      <c r="Q38">
+        <v>19</v>
+      </c>
+      <c r="R38">
+        <v>17</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>17</v>
+      </c>
+      <c r="V38">
+        <v>33</v>
+      </c>
+      <c r="W38">
+        <v>23</v>
+      </c>
+      <c r="X38">
+        <v>20</v>
+      </c>
+      <c r="Y38">
+        <v>13</v>
+      </c>
+      <c r="Z38">
+        <v>11</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>15</v>
+      </c>
+      <c r="AC38">
+        <v>12</v>
+      </c>
+      <c r="AD38">
+        <v>7</v>
+      </c>
+      <c r="AE38">
+        <v>26</v>
+      </c>
+      <c r="AG38">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <v>43</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>46</v>
+      </c>
+      <c r="H39">
+        <v>48</v>
+      </c>
+      <c r="I39">
+        <v>52</v>
+      </c>
+      <c r="J39">
+        <v>43</v>
+      </c>
+      <c r="K39">
+        <v>33</v>
+      </c>
+      <c r="L39">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>83</v>
+      </c>
+      <c r="O39">
+        <v>63</v>
+      </c>
+      <c r="P39">
+        <v>64</v>
+      </c>
+      <c r="Q39">
+        <v>70</v>
+      </c>
+      <c r="R39">
+        <v>49</v>
+      </c>
+      <c r="S39">
+        <v>26</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>93</v>
+      </c>
+      <c r="W39">
+        <v>65</v>
+      </c>
+      <c r="X39">
+        <v>71</v>
+      </c>
+      <c r="Y39">
+        <v>45</v>
+      </c>
+      <c r="Z39">
+        <v>29</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>54</v>
+      </c>
+      <c r="AC39">
+        <v>61</v>
+      </c>
+      <c r="AD39">
+        <v>57</v>
+      </c>
+      <c r="AE39">
+        <v>66</v>
+      </c>
+      <c r="AG39">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>19</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>9</v>
+      </c>
+      <c r="Q40">
+        <v>18</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>14</v>
+      </c>
+      <c r="X40">
+        <v>13</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>11</v>
+      </c>
+      <c r="AE40">
+        <v>21</v>
+      </c>
+      <c r="AG40">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>4</v>
+      </c>
+      <c r="AD41">
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <v>2</v>
+      </c>
+      <c r="AG41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="P47">
+        <v>7</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>9</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="U47">
+        <v>9</v>
+      </c>
+      <c r="W47">
+        <v>14</v>
+      </c>
+      <c r="X47">
+        <v>9</v>
+      </c>
+      <c r="Y47">
+        <v>10</v>
+      </c>
+      <c r="Z47">
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <v>11</v>
+      </c>
+      <c r="AD47">
+        <v>10</v>
+      </c>
+      <c r="AE47">
+        <v>5</v>
+      </c>
+      <c r="AG47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>22</v>
+      </c>
+      <c r="H48">
+        <v>34</v>
+      </c>
+      <c r="I48">
+        <v>12</v>
+      </c>
+      <c r="J48">
+        <v>23</v>
+      </c>
+      <c r="K48">
+        <v>23</v>
+      </c>
+      <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>44</v>
+      </c>
+      <c r="O48">
+        <v>15</v>
+      </c>
+      <c r="P48">
+        <v>22</v>
+      </c>
+      <c r="Q48">
+        <v>23</v>
+      </c>
+      <c r="R48">
+        <v>17</v>
+      </c>
+      <c r="S48">
+        <v>6</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>18</v>
+      </c>
+      <c r="V48">
+        <v>29</v>
+      </c>
+      <c r="W48">
+        <v>21</v>
+      </c>
+      <c r="X48">
+        <v>29</v>
+      </c>
+      <c r="Y48">
+        <v>26</v>
+      </c>
+      <c r="Z48">
+        <v>6</v>
+      </c>
+      <c r="AB48">
+        <v>20</v>
+      </c>
+      <c r="AC48">
+        <v>23</v>
+      </c>
+      <c r="AD48">
+        <v>11</v>
+      </c>
+      <c r="AE48">
+        <v>19</v>
+      </c>
+      <c r="AG48">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>42</v>
+      </c>
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>19</v>
+      </c>
+      <c r="G49">
+        <v>27</v>
+      </c>
+      <c r="H49">
+        <v>44</v>
+      </c>
+      <c r="I49">
+        <v>36</v>
+      </c>
+      <c r="J49">
+        <v>32</v>
+      </c>
+      <c r="K49">
+        <v>26</v>
+      </c>
+      <c r="L49">
+        <v>9</v>
+      </c>
+      <c r="N49">
+        <v>42</v>
+      </c>
+      <c r="O49">
+        <v>35</v>
+      </c>
+      <c r="P49">
+        <v>36</v>
+      </c>
+      <c r="Q49">
+        <v>36</v>
+      </c>
+      <c r="R49">
+        <v>38</v>
+      </c>
+      <c r="S49">
+        <v>13</v>
+      </c>
+      <c r="U49">
+        <v>28</v>
+      </c>
+      <c r="V49">
+        <v>41</v>
+      </c>
+      <c r="W49">
+        <v>32</v>
+      </c>
+      <c r="X49">
+        <v>52</v>
+      </c>
+      <c r="Y49">
+        <v>43</v>
+      </c>
+      <c r="Z49">
+        <v>9</v>
+      </c>
+      <c r="AA49">
+        <v>2</v>
+      </c>
+      <c r="AB49">
+        <v>27</v>
+      </c>
+      <c r="AC49">
+        <v>41</v>
+      </c>
+      <c r="AD49">
+        <v>28</v>
+      </c>
+      <c r="AE49">
+        <v>35</v>
+      </c>
+      <c r="AG49">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>33</v>
+      </c>
+      <c r="D50">
+        <v>26</v>
+      </c>
+      <c r="E50">
+        <v>14</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>46</v>
+      </c>
+      <c r="H50">
+        <v>47</v>
+      </c>
+      <c r="I50">
+        <v>33</v>
+      </c>
+      <c r="J50">
+        <v>30</v>
+      </c>
+      <c r="K50">
+        <v>18</v>
+      </c>
+      <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="N50">
+        <v>40</v>
+      </c>
+      <c r="O50">
+        <v>36</v>
+      </c>
+      <c r="P50">
+        <v>34</v>
+      </c>
+      <c r="Q50">
+        <v>31</v>
+      </c>
+      <c r="R50">
+        <v>25</v>
+      </c>
+      <c r="S50">
+        <v>15</v>
+      </c>
+      <c r="U50">
+        <v>38</v>
+      </c>
+      <c r="V50">
+        <v>41</v>
+      </c>
+      <c r="W50">
+        <v>36</v>
+      </c>
+      <c r="X50">
+        <v>24</v>
+      </c>
+      <c r="Y50">
+        <v>26</v>
+      </c>
+      <c r="Z50">
+        <v>14</v>
+      </c>
+      <c r="AB50">
+        <v>34</v>
+      </c>
+      <c r="AC50">
+        <v>34</v>
+      </c>
+      <c r="AD50">
+        <v>37</v>
+      </c>
+      <c r="AE50">
+        <v>40</v>
+      </c>
+      <c r="AG50">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>28</v>
+      </c>
+      <c r="C51">
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>24</v>
+      </c>
+      <c r="H51">
+        <v>31</v>
+      </c>
+      <c r="I51">
+        <v>25</v>
+      </c>
+      <c r="J51">
+        <v>15</v>
+      </c>
+      <c r="K51">
+        <v>6</v>
+      </c>
+      <c r="L51">
+        <v>35</v>
+      </c>
+      <c r="N51">
+        <v>25</v>
+      </c>
+      <c r="O51">
+        <v>31</v>
+      </c>
+      <c r="P51">
+        <v>17</v>
+      </c>
+      <c r="Q51">
+        <v>21</v>
+      </c>
+      <c r="R51">
+        <v>18</v>
+      </c>
+      <c r="S51">
+        <v>5</v>
+      </c>
+      <c r="U51">
+        <v>21</v>
+      </c>
+      <c r="V51">
+        <v>21</v>
+      </c>
+      <c r="W51">
+        <v>24</v>
+      </c>
+      <c r="X51">
+        <v>44</v>
+      </c>
+      <c r="Y51">
+        <v>22</v>
+      </c>
+      <c r="Z51">
+        <v>7</v>
+      </c>
+      <c r="AB51">
+        <v>17</v>
+      </c>
+      <c r="AC51">
+        <v>31</v>
+      </c>
+      <c r="AD51">
+        <v>21</v>
+      </c>
+      <c r="AE51">
+        <v>34</v>
+      </c>
+      <c r="AG51">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>69</v>
+      </c>
+      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>58</v>
+      </c>
+      <c r="E52">
+        <v>24</v>
+      </c>
+      <c r="F52">
+        <v>19</v>
+      </c>
+      <c r="G52">
+        <v>73</v>
+      </c>
+      <c r="H52">
+        <v>47</v>
+      </c>
+      <c r="I52">
+        <v>53</v>
+      </c>
+      <c r="J52">
+        <v>75</v>
+      </c>
+      <c r="K52">
+        <v>47</v>
+      </c>
+      <c r="L52">
+        <v>21</v>
+      </c>
+      <c r="M52">
+        <v>9</v>
+      </c>
+      <c r="N52">
+        <v>66</v>
+      </c>
+      <c r="O52">
+        <v>66</v>
+      </c>
+      <c r="P52">
+        <v>66</v>
+      </c>
+      <c r="Q52">
+        <v>76</v>
+      </c>
+      <c r="R52">
+        <v>50</v>
+      </c>
+      <c r="S52">
+        <v>20</v>
+      </c>
+      <c r="T52">
+        <v>14</v>
+      </c>
+      <c r="U52">
+        <v>53</v>
+      </c>
+      <c r="V52">
+        <v>47</v>
+      </c>
+      <c r="W52">
+        <v>51</v>
+      </c>
+      <c r="X52">
+        <v>81</v>
+      </c>
+      <c r="Y52">
+        <v>42</v>
+      </c>
+      <c r="Z52">
+        <v>30</v>
+      </c>
+      <c r="AA52">
+        <v>11</v>
+      </c>
+      <c r="AB52">
+        <v>43</v>
+      </c>
+      <c r="AC52">
+        <v>49</v>
+      </c>
+      <c r="AD52">
+        <v>51</v>
+      </c>
+      <c r="AE52">
+        <v>66</v>
+      </c>
+      <c r="AG52">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>9</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>8</v>
+      </c>
+      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="P53">
+        <v>11</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="R53">
+        <v>11</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="U53">
+        <v>7</v>
+      </c>
+      <c r="V53">
+        <v>7</v>
+      </c>
+      <c r="W53">
+        <v>10</v>
+      </c>
+      <c r="X53">
+        <v>4</v>
+      </c>
+      <c r="Y53">
+        <v>5</v>
+      </c>
+      <c r="Z53">
+        <v>3</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <v>8</v>
+      </c>
+      <c r="AC53">
+        <v>5</v>
+      </c>
+      <c r="AD53">
+        <v>8</v>
+      </c>
+      <c r="AE53">
+        <v>5</v>
+      </c>
+      <c r="AG53">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>19</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>26</v>
+      </c>
+      <c r="H54">
+        <v>24</v>
+      </c>
+      <c r="I54">
+        <v>47</v>
+      </c>
+      <c r="J54">
+        <v>11</v>
+      </c>
+      <c r="K54">
+        <v>22</v>
+      </c>
+      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>20</v>
+      </c>
+      <c r="O54">
+        <v>17</v>
+      </c>
+      <c r="P54">
+        <v>46</v>
+      </c>
+      <c r="Q54">
+        <v>17</v>
+      </c>
+      <c r="R54">
+        <v>23</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>21</v>
+      </c>
+      <c r="V54">
+        <v>14</v>
+      </c>
+      <c r="W54">
+        <v>36</v>
+      </c>
+      <c r="X54">
+        <v>18</v>
+      </c>
+      <c r="Y54">
+        <v>28</v>
+      </c>
+      <c r="Z54">
+        <v>4</v>
+      </c>
+      <c r="AB54">
+        <v>24</v>
+      </c>
+      <c r="AC54">
+        <v>25</v>
+      </c>
+      <c r="AD54">
+        <v>30</v>
+      </c>
+      <c r="AE54">
+        <v>12</v>
+      </c>
+      <c r="AG54">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>5</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+      <c r="P55">
+        <v>8</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <v>6</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>9</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>7</v>
+      </c>
+      <c r="AB55">
+        <v>5</v>
+      </c>
+      <c r="AC55">
+        <v>3</v>
+      </c>
+      <c r="AD55">
+        <v>9</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>13</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>6</v>
+      </c>
+      <c r="O56">
+        <v>3</v>
+      </c>
+      <c r="P56">
+        <v>7</v>
+      </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
+      <c r="U56">
+        <v>5</v>
+      </c>
+      <c r="V56">
+        <v>4</v>
+      </c>
+      <c r="W56">
+        <v>6</v>
+      </c>
+      <c r="Z56">
+        <v>2</v>
+      </c>
+      <c r="AB56">
+        <v>10</v>
+      </c>
+      <c r="AC56">
+        <v>3</v>
+      </c>
+      <c r="AD56">
+        <v>5</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
+      <c r="AG56">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>13</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <v>11</v>
+      </c>
+      <c r="K57">
+        <v>11</v>
+      </c>
+      <c r="N57">
+        <v>8</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+      <c r="P57">
+        <v>9</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="R57">
+        <v>4</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>11</v>
+      </c>
+      <c r="V57">
+        <v>4</v>
+      </c>
+      <c r="W57">
+        <v>6</v>
+      </c>
+      <c r="X57">
+        <v>4</v>
+      </c>
+      <c r="Y57">
+        <v>10</v>
+      </c>
+      <c r="Z57">
+        <v>6</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>7</v>
+      </c>
+      <c r="AC57">
+        <v>6</v>
+      </c>
+      <c r="AD57">
+        <v>4</v>
+      </c>
+      <c r="AE57">
+        <v>11</v>
+      </c>
+      <c r="AG57">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
+++ b/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B0B007-88BC-4247-9833-230D668C9E9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DACCA4-0AE6-4F30-83EA-4E5A3D265D07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="5" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="719" activeTab="6" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="74">
   <si>
     <t>branchname</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>2022-06-01 - 2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-07-01 - 2022-07-31</t>
   </si>
 </sst>
 </file>
@@ -22835,7 +22838,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -27155,9 +27158,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1B21F-6FFE-4052-B555-7EB4F04AC5E9}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="B2:AF2"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -27170,38 +27173,4196 @@
     <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44744</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44745</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44746</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44747</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44748</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44749</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44750</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44751</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44752</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44753</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44754</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44755</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44756</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44757</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>44758</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44759</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44760</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44761</v>
+      </c>
+      <c r="U2" s="1">
+        <v>44762</v>
+      </c>
+      <c r="V2" s="1">
+        <v>44763</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44764</v>
+      </c>
+      <c r="X2" s="1">
+        <v>44765</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>44766</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>44767</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44768</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>44769</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>44770</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>44771</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>44772</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>44773</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>83</v>
+      </c>
+      <c r="G4">
+        <v>85</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>61</v>
+      </c>
+      <c r="J4">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>78</v>
+      </c>
+      <c r="M4">
+        <v>72</v>
+      </c>
+      <c r="N4">
+        <v>83</v>
+      </c>
+      <c r="O4">
+        <v>63</v>
+      </c>
+      <c r="P4">
+        <v>64</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>84</v>
+      </c>
+      <c r="T4">
+        <v>70</v>
+      </c>
+      <c r="U4">
+        <v>62</v>
+      </c>
+      <c r="V4">
+        <v>88</v>
+      </c>
+      <c r="W4">
+        <v>64</v>
+      </c>
+      <c r="X4">
+        <v>26</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>67</v>
+      </c>
+      <c r="AA4">
+        <v>77</v>
+      </c>
+      <c r="AB4">
+        <v>79</v>
+      </c>
+      <c r="AC4">
+        <v>75</v>
+      </c>
+      <c r="AD4">
+        <v>56</v>
+      </c>
+      <c r="AE4">
+        <v>42</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>47</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>51</v>
+      </c>
+      <c r="M5">
+        <v>46</v>
+      </c>
+      <c r="N5">
+        <v>59</v>
+      </c>
+      <c r="O5">
+        <v>50</v>
+      </c>
+      <c r="P5">
+        <v>29</v>
+      </c>
+      <c r="Q5">
+        <v>11</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>52</v>
+      </c>
+      <c r="T5">
+        <v>27</v>
+      </c>
+      <c r="U5">
+        <v>33</v>
+      </c>
+      <c r="V5">
+        <v>44</v>
+      </c>
+      <c r="W5">
+        <v>26</v>
+      </c>
+      <c r="X5">
+        <v>17</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>35</v>
+      </c>
+      <c r="AA5">
+        <v>35</v>
+      </c>
+      <c r="AB5">
+        <v>30</v>
+      </c>
+      <c r="AC5">
+        <v>36</v>
+      </c>
+      <c r="AD5">
+        <v>38</v>
+      </c>
+      <c r="AE5">
+        <v>27</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>114</v>
+      </c>
+      <c r="G6">
+        <v>148</v>
+      </c>
+      <c r="H6">
+        <v>107</v>
+      </c>
+      <c r="I6">
+        <v>82</v>
+      </c>
+      <c r="J6">
+        <v>58</v>
+      </c>
+      <c r="K6">
+        <v>45</v>
+      </c>
+      <c r="L6">
+        <v>91</v>
+      </c>
+      <c r="M6">
+        <v>104</v>
+      </c>
+      <c r="N6">
+        <v>112</v>
+      </c>
+      <c r="O6">
+        <v>103</v>
+      </c>
+      <c r="P6">
+        <v>71</v>
+      </c>
+      <c r="Q6">
+        <v>57</v>
+      </c>
+      <c r="R6">
+        <v>46</v>
+      </c>
+      <c r="S6">
+        <v>95</v>
+      </c>
+      <c r="T6">
+        <v>126</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6">
+        <v>103</v>
+      </c>
+      <c r="W6">
+        <v>73</v>
+      </c>
+      <c r="X6">
+        <v>57</v>
+      </c>
+      <c r="Y6">
+        <v>37</v>
+      </c>
+      <c r="Z6">
+        <v>126</v>
+      </c>
+      <c r="AA6">
+        <v>122</v>
+      </c>
+      <c r="AB6">
+        <v>87</v>
+      </c>
+      <c r="AC6">
+        <v>102</v>
+      </c>
+      <c r="AD6">
+        <v>71</v>
+      </c>
+      <c r="AE6">
+        <v>50</v>
+      </c>
+      <c r="AF6">
+        <v>52</v>
+      </c>
+      <c r="AG6">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>74</v>
+      </c>
+      <c r="G8">
+        <v>81</v>
+      </c>
+      <c r="H8">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>84</v>
+      </c>
+      <c r="M8">
+        <v>81</v>
+      </c>
+      <c r="N8">
+        <v>74</v>
+      </c>
+      <c r="O8">
+        <v>76</v>
+      </c>
+      <c r="P8">
+        <v>59</v>
+      </c>
+      <c r="Q8">
+        <v>44</v>
+      </c>
+      <c r="R8">
+        <v>12</v>
+      </c>
+      <c r="S8">
+        <v>80</v>
+      </c>
+      <c r="T8">
+        <v>84</v>
+      </c>
+      <c r="U8">
+        <v>83</v>
+      </c>
+      <c r="V8">
+        <v>50</v>
+      </c>
+      <c r="W8">
+        <v>61</v>
+      </c>
+      <c r="X8">
+        <v>42</v>
+      </c>
+      <c r="Y8">
+        <v>22</v>
+      </c>
+      <c r="Z8">
+        <v>77</v>
+      </c>
+      <c r="AA8">
+        <v>76</v>
+      </c>
+      <c r="AB8">
+        <v>77</v>
+      </c>
+      <c r="AC8">
+        <v>64</v>
+      </c>
+      <c r="AD8">
+        <v>56</v>
+      </c>
+      <c r="AE8">
+        <v>59</v>
+      </c>
+      <c r="AF8">
+        <v>30</v>
+      </c>
+      <c r="AG8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>14</v>
+      </c>
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <v>13</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>13</v>
+      </c>
+      <c r="AA9">
+        <v>9</v>
+      </c>
+      <c r="AB9">
+        <v>15</v>
+      </c>
+      <c r="AC9">
+        <v>15</v>
+      </c>
+      <c r="AD9">
+        <v>8</v>
+      </c>
+      <c r="AE9">
+        <v>9</v>
+      </c>
+      <c r="AG9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10">
+        <v>12</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>12</v>
+      </c>
+      <c r="U10">
+        <v>12</v>
+      </c>
+      <c r="V10">
+        <v>16</v>
+      </c>
+      <c r="W10">
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>13</v>
+      </c>
+      <c r="AD10">
+        <v>12</v>
+      </c>
+      <c r="AE10">
+        <v>6</v>
+      </c>
+      <c r="AG10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>4</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11">
+        <v>7</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+      <c r="AG14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <v>19</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>6</v>
+      </c>
+      <c r="AC15">
+        <v>6</v>
+      </c>
+      <c r="AD15">
+        <v>9</v>
+      </c>
+      <c r="AE15">
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>11</v>
+      </c>
+      <c r="O16">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>16</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>55</v>
+      </c>
+      <c r="T16">
+        <v>15</v>
+      </c>
+      <c r="U16">
+        <v>13</v>
+      </c>
+      <c r="V16">
+        <v>25</v>
+      </c>
+      <c r="W16">
+        <v>12</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>16</v>
+      </c>
+      <c r="AA16">
+        <v>14</v>
+      </c>
+      <c r="AB16">
+        <v>13</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>10</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>8</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>8</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>9</v>
+      </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>8</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>7</v>
+      </c>
+      <c r="AB18">
+        <v>11</v>
+      </c>
+      <c r="AC18">
+        <v>6</v>
+      </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <v>29</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>44</v>
+      </c>
+      <c r="M19">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>36</v>
+      </c>
+      <c r="O19">
+        <v>28</v>
+      </c>
+      <c r="P19">
+        <v>21</v>
+      </c>
+      <c r="Q19">
+        <v>21</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>37</v>
+      </c>
+      <c r="T19">
+        <v>26</v>
+      </c>
+      <c r="U19">
+        <v>29</v>
+      </c>
+      <c r="V19">
+        <v>14</v>
+      </c>
+      <c r="W19">
+        <v>22</v>
+      </c>
+      <c r="X19">
+        <v>13</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+      <c r="Z19">
+        <v>22</v>
+      </c>
+      <c r="AA19">
+        <v>30</v>
+      </c>
+      <c r="AB19">
+        <v>38</v>
+      </c>
+      <c r="AC19">
+        <v>22</v>
+      </c>
+      <c r="AD19">
+        <v>19</v>
+      </c>
+      <c r="AE19">
+        <v>21</v>
+      </c>
+      <c r="AF19">
+        <v>3</v>
+      </c>
+      <c r="AG19">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="AB20">
+        <v>9</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <v>43</v>
+      </c>
+      <c r="H21">
+        <v>42</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>13</v>
+      </c>
+      <c r="L21">
+        <v>43</v>
+      </c>
+      <c r="M21">
+        <v>24</v>
+      </c>
+      <c r="N21">
+        <v>40</v>
+      </c>
+      <c r="O21">
+        <v>41</v>
+      </c>
+      <c r="P21">
+        <v>33</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+      <c r="R21">
+        <v>15</v>
+      </c>
+      <c r="S21">
+        <v>38</v>
+      </c>
+      <c r="T21">
+        <v>27</v>
+      </c>
+      <c r="U21">
+        <v>29</v>
+      </c>
+      <c r="V21">
+        <v>42</v>
+      </c>
+      <c r="W21">
+        <v>25</v>
+      </c>
+      <c r="X21">
+        <v>25</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <v>35</v>
+      </c>
+      <c r="AA21">
+        <v>33</v>
+      </c>
+      <c r="AB21">
+        <v>29</v>
+      </c>
+      <c r="AC21">
+        <v>47</v>
+      </c>
+      <c r="AD21">
+        <v>30</v>
+      </c>
+      <c r="AE21">
+        <v>13</v>
+      </c>
+      <c r="AF21">
+        <v>14</v>
+      </c>
+      <c r="AG21">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>56</v>
+      </c>
+      <c r="G23">
+        <v>35</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>23</v>
+      </c>
+      <c r="J23">
+        <v>23</v>
+      </c>
+      <c r="L23">
+        <v>42</v>
+      </c>
+      <c r="M23">
+        <v>29</v>
+      </c>
+      <c r="N23">
+        <v>24</v>
+      </c>
+      <c r="O23">
+        <v>38</v>
+      </c>
+      <c r="P23">
+        <v>28</v>
+      </c>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>49</v>
+      </c>
+      <c r="T23">
+        <v>37</v>
+      </c>
+      <c r="U23">
+        <v>31</v>
+      </c>
+      <c r="V23">
+        <v>27</v>
+      </c>
+      <c r="W23">
+        <v>46</v>
+      </c>
+      <c r="X23">
+        <v>16</v>
+      </c>
+      <c r="Z23">
+        <v>39</v>
+      </c>
+      <c r="AA23">
+        <v>45</v>
+      </c>
+      <c r="AB23">
+        <v>22</v>
+      </c>
+      <c r="AC23">
+        <v>34</v>
+      </c>
+      <c r="AD23">
+        <v>29</v>
+      </c>
+      <c r="AE23">
+        <v>14</v>
+      </c>
+      <c r="AG23">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>5</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AG24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>51</v>
+      </c>
+      <c r="G25">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>44</v>
+      </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>28</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>34</v>
+      </c>
+      <c r="O25">
+        <v>52</v>
+      </c>
+      <c r="P25">
+        <v>45</v>
+      </c>
+      <c r="Q25">
+        <v>25</v>
+      </c>
+      <c r="S25">
+        <v>43</v>
+      </c>
+      <c r="T25">
+        <v>53</v>
+      </c>
+      <c r="U25">
+        <v>35</v>
+      </c>
+      <c r="V25">
+        <v>34</v>
+      </c>
+      <c r="W25">
+        <v>25</v>
+      </c>
+      <c r="X25">
+        <v>20</v>
+      </c>
+      <c r="Y25">
+        <v>2</v>
+      </c>
+      <c r="Z25">
+        <v>44</v>
+      </c>
+      <c r="AA25">
+        <v>35</v>
+      </c>
+      <c r="AB25">
+        <v>22</v>
+      </c>
+      <c r="AC25">
+        <v>35</v>
+      </c>
+      <c r="AD25">
+        <v>41</v>
+      </c>
+      <c r="AE25">
+        <v>19</v>
+      </c>
+      <c r="AF25">
+        <v>4</v>
+      </c>
+      <c r="AG25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>85</v>
+      </c>
+      <c r="C26">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>140</v>
+      </c>
+      <c r="G26">
+        <v>127</v>
+      </c>
+      <c r="H26">
+        <v>98</v>
+      </c>
+      <c r="I26">
+        <v>82</v>
+      </c>
+      <c r="J26">
+        <v>84</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>114</v>
+      </c>
+      <c r="M26">
+        <v>127</v>
+      </c>
+      <c r="N26">
+        <v>115</v>
+      </c>
+      <c r="O26">
+        <v>96</v>
+      </c>
+      <c r="P26">
+        <v>41</v>
+      </c>
+      <c r="Q26">
+        <v>67</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26">
+        <v>118</v>
+      </c>
+      <c r="T26">
+        <v>122</v>
+      </c>
+      <c r="U26">
+        <v>132</v>
+      </c>
+      <c r="V26">
+        <v>126</v>
+      </c>
+      <c r="W26">
+        <v>83</v>
+      </c>
+      <c r="X26">
+        <v>67</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <v>124</v>
+      </c>
+      <c r="AA26">
+        <v>124</v>
+      </c>
+      <c r="AB26">
+        <v>110</v>
+      </c>
+      <c r="AC26">
+        <v>102</v>
+      </c>
+      <c r="AD26">
+        <v>19</v>
+      </c>
+      <c r="AE26">
+        <v>96</v>
+      </c>
+      <c r="AF26">
+        <v>13</v>
+      </c>
+      <c r="AG26">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <v>12</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+      <c r="O27">
+        <v>12</v>
+      </c>
+      <c r="P27">
+        <v>11</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>18</v>
+      </c>
+      <c r="T27">
+        <v>4</v>
+      </c>
+      <c r="U27">
+        <v>6</v>
+      </c>
+      <c r="V27">
+        <v>12</v>
+      </c>
+      <c r="W27">
+        <v>13</v>
+      </c>
+      <c r="X27">
+        <v>5</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>11</v>
+      </c>
+      <c r="AA27">
+        <v>9</v>
+      </c>
+      <c r="AB27">
+        <v>12</v>
+      </c>
+      <c r="AC27">
+        <v>7</v>
+      </c>
+      <c r="AD27">
+        <v>8</v>
+      </c>
+      <c r="AE27">
+        <v>3</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>13</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>9</v>
+      </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>16</v>
+      </c>
+      <c r="T29">
+        <v>7</v>
+      </c>
+      <c r="U29">
+        <v>6</v>
+      </c>
+      <c r="V29">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>8</v>
+      </c>
+      <c r="Z29">
+        <v>16</v>
+      </c>
+      <c r="AA29">
+        <v>9</v>
+      </c>
+      <c r="AB29">
+        <v>13</v>
+      </c>
+      <c r="AC29">
+        <v>9</v>
+      </c>
+      <c r="AE29">
+        <v>6</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>5</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>3</v>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>8</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>7</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>37</v>
+      </c>
+      <c r="G31">
+        <v>24</v>
+      </c>
+      <c r="H31">
+        <v>33</v>
+      </c>
+      <c r="I31">
+        <v>27</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>19</v>
+      </c>
+      <c r="O31">
+        <v>37</v>
+      </c>
+      <c r="P31">
+        <v>25</v>
+      </c>
+      <c r="Q31">
+        <v>11</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>18</v>
+      </c>
+      <c r="T31">
+        <v>22</v>
+      </c>
+      <c r="U31">
+        <v>24</v>
+      </c>
+      <c r="V31">
+        <v>20</v>
+      </c>
+      <c r="W31">
+        <v>29</v>
+      </c>
+      <c r="X31">
+        <v>12</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>15</v>
+      </c>
+      <c r="AA31">
+        <v>25</v>
+      </c>
+      <c r="AB31">
+        <v>19</v>
+      </c>
+      <c r="AC31">
+        <v>28</v>
+      </c>
+      <c r="AD31">
+        <v>10</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>26</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>4</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>5</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AG32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>9</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>11</v>
+      </c>
+      <c r="P33">
+        <v>8</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>8</v>
+      </c>
+      <c r="U33">
+        <v>7</v>
+      </c>
+      <c r="V33">
+        <v>9</v>
+      </c>
+      <c r="W33">
+        <v>6</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>9</v>
+      </c>
+      <c r="AB33">
+        <v>3</v>
+      </c>
+      <c r="AC33">
+        <v>5</v>
+      </c>
+      <c r="AD33">
+        <v>5</v>
+      </c>
+      <c r="AE33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>46</v>
+      </c>
+      <c r="G34">
+        <v>41</v>
+      </c>
+      <c r="H34">
+        <v>35</v>
+      </c>
+      <c r="I34">
+        <v>27</v>
+      </c>
+      <c r="J34">
+        <v>23</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>59</v>
+      </c>
+      <c r="N34">
+        <v>29</v>
+      </c>
+      <c r="O34">
+        <v>39</v>
+      </c>
+      <c r="P34">
+        <v>32</v>
+      </c>
+      <c r="Q34">
+        <v>17</v>
+      </c>
+      <c r="S34">
+        <v>46</v>
+      </c>
+      <c r="T34">
+        <v>41</v>
+      </c>
+      <c r="U34">
+        <v>44</v>
+      </c>
+      <c r="V34">
+        <v>30</v>
+      </c>
+      <c r="W34">
+        <v>30</v>
+      </c>
+      <c r="X34">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>48</v>
+      </c>
+      <c r="AA34">
+        <v>35</v>
+      </c>
+      <c r="AB34">
+        <v>32</v>
+      </c>
+      <c r="AC34">
+        <v>31</v>
+      </c>
+      <c r="AD34">
+        <v>21</v>
+      </c>
+      <c r="AE34">
+        <v>15</v>
+      </c>
+      <c r="AG34">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>36</v>
+      </c>
+      <c r="G35">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <v>29</v>
+      </c>
+      <c r="I35">
+        <v>31</v>
+      </c>
+      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+      <c r="M35">
+        <v>27</v>
+      </c>
+      <c r="N35">
+        <v>24</v>
+      </c>
+      <c r="O35">
+        <v>31</v>
+      </c>
+      <c r="P35">
+        <v>24</v>
+      </c>
+      <c r="Q35">
+        <v>18</v>
+      </c>
+      <c r="S35">
+        <v>34</v>
+      </c>
+      <c r="T35">
+        <v>26</v>
+      </c>
+      <c r="U35">
+        <v>23</v>
+      </c>
+      <c r="V35">
+        <v>36</v>
+      </c>
+      <c r="W35">
+        <v>22</v>
+      </c>
+      <c r="X35">
+        <v>9</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>57</v>
+      </c>
+      <c r="AA35">
+        <v>30</v>
+      </c>
+      <c r="AB35">
+        <v>19</v>
+      </c>
+      <c r="AC35">
+        <v>24</v>
+      </c>
+      <c r="AD35">
+        <v>19</v>
+      </c>
+      <c r="AE35">
+        <v>11</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>17</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>14</v>
+      </c>
+      <c r="O36">
+        <v>17</v>
+      </c>
+      <c r="P36">
+        <v>11</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>18</v>
+      </c>
+      <c r="T36">
+        <v>15</v>
+      </c>
+      <c r="U36">
+        <v>18</v>
+      </c>
+      <c r="V36">
+        <v>23</v>
+      </c>
+      <c r="W36">
+        <v>15</v>
+      </c>
+      <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Z36">
+        <v>19</v>
+      </c>
+      <c r="AA36">
+        <v>12</v>
+      </c>
+      <c r="AB36">
+        <v>16</v>
+      </c>
+      <c r="AC36">
+        <v>21</v>
+      </c>
+      <c r="AD36">
+        <v>12</v>
+      </c>
+      <c r="AE36">
+        <v>8</v>
+      </c>
+      <c r="AG36">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>86</v>
+      </c>
+      <c r="C37">
+        <v>39</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>121</v>
+      </c>
+      <c r="G37">
+        <v>106</v>
+      </c>
+      <c r="H37">
+        <v>82</v>
+      </c>
+      <c r="I37">
+        <v>104</v>
+      </c>
+      <c r="J37">
+        <v>26</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>113</v>
+      </c>
+      <c r="M37">
+        <v>87</v>
+      </c>
+      <c r="N37">
+        <v>73</v>
+      </c>
+      <c r="O37">
+        <v>79</v>
+      </c>
+      <c r="P37">
+        <v>64</v>
+      </c>
+      <c r="Q37">
+        <v>34</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <v>127</v>
+      </c>
+      <c r="T37">
+        <v>84</v>
+      </c>
+      <c r="U37">
+        <v>87</v>
+      </c>
+      <c r="V37">
+        <v>87</v>
+      </c>
+      <c r="W37">
+        <v>112</v>
+      </c>
+      <c r="X37">
+        <v>30</v>
+      </c>
+      <c r="Y37">
+        <v>6</v>
+      </c>
+      <c r="Z37">
+        <v>91</v>
+      </c>
+      <c r="AA37">
+        <v>84</v>
+      </c>
+      <c r="AB37">
+        <v>79</v>
+      </c>
+      <c r="AC37">
+        <v>73</v>
+      </c>
+      <c r="AD37">
+        <v>73</v>
+      </c>
+      <c r="AE37">
+        <v>27</v>
+      </c>
+      <c r="AF37">
+        <v>4</v>
+      </c>
+      <c r="AG37">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>17</v>
+      </c>
+      <c r="M38">
+        <v>17</v>
+      </c>
+      <c r="N38">
+        <v>13</v>
+      </c>
+      <c r="O38">
+        <v>27</v>
+      </c>
+      <c r="P38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>22</v>
+      </c>
+      <c r="T38">
+        <v>29</v>
+      </c>
+      <c r="U38">
+        <v>19</v>
+      </c>
+      <c r="V38">
+        <v>17</v>
+      </c>
+      <c r="W38">
+        <v>14</v>
+      </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
+      <c r="Z38">
+        <v>16</v>
+      </c>
+      <c r="AA38">
+        <v>13</v>
+      </c>
+      <c r="AB38">
+        <v>17</v>
+      </c>
+      <c r="AC38">
+        <v>17</v>
+      </c>
+      <c r="AD38">
+        <v>15</v>
+      </c>
+      <c r="AE38">
+        <v>8</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>42</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>80</v>
+      </c>
+      <c r="G39">
+        <v>54</v>
+      </c>
+      <c r="H39">
+        <v>61</v>
+      </c>
+      <c r="I39">
+        <v>49</v>
+      </c>
+      <c r="J39">
+        <v>56</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>53</v>
+      </c>
+      <c r="M39">
+        <v>84</v>
+      </c>
+      <c r="N39">
+        <v>63</v>
+      </c>
+      <c r="O39">
+        <v>68</v>
+      </c>
+      <c r="P39">
+        <v>51</v>
+      </c>
+      <c r="Q39">
+        <v>29</v>
+      </c>
+      <c r="S39">
+        <v>55</v>
+      </c>
+      <c r="T39">
+        <v>58</v>
+      </c>
+      <c r="U39">
+        <v>73</v>
+      </c>
+      <c r="V39">
+        <v>70</v>
+      </c>
+      <c r="W39">
+        <v>46</v>
+      </c>
+      <c r="X39">
+        <v>25</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>60</v>
+      </c>
+      <c r="AA39">
+        <v>75</v>
+      </c>
+      <c r="AB39">
+        <v>45</v>
+      </c>
+      <c r="AC39">
+        <v>50</v>
+      </c>
+      <c r="AD39">
+        <v>52</v>
+      </c>
+      <c r="AE39">
+        <v>22</v>
+      </c>
+      <c r="AG39">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <v>16</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>7</v>
+      </c>
+      <c r="O40">
+        <v>13</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>13</v>
+      </c>
+      <c r="X40">
+        <v>4</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>3</v>
+      </c>
+      <c r="AG40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>4</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>2</v>
+      </c>
+      <c r="AD41">
+        <v>4</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>3</v>
+      </c>
+      <c r="P47">
+        <v>13</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>6</v>
+      </c>
+      <c r="U47">
+        <v>6</v>
+      </c>
+      <c r="V47">
+        <v>9</v>
+      </c>
+      <c r="W47">
+        <v>8</v>
+      </c>
+      <c r="X47">
+        <v>6</v>
+      </c>
+      <c r="Z47">
+        <v>9</v>
+      </c>
+      <c r="AB47">
+        <v>8</v>
+      </c>
+      <c r="AC47">
+        <v>10</v>
+      </c>
+      <c r="AD47">
+        <v>6</v>
+      </c>
+      <c r="AE47">
+        <v>2</v>
+      </c>
+      <c r="AG47">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <v>25</v>
+      </c>
+      <c r="H48">
+        <v>19</v>
+      </c>
+      <c r="I48">
+        <v>21</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>37</v>
+      </c>
+      <c r="M48">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>28</v>
+      </c>
+      <c r="O48">
+        <v>31</v>
+      </c>
+      <c r="P48">
+        <v>26</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>24</v>
+      </c>
+      <c r="T48">
+        <v>18</v>
+      </c>
+      <c r="U48">
+        <v>11</v>
+      </c>
+      <c r="V48">
+        <v>19</v>
+      </c>
+      <c r="W48">
+        <v>19</v>
+      </c>
+      <c r="X48">
+        <v>4</v>
+      </c>
+      <c r="Z48">
+        <v>27</v>
+      </c>
+      <c r="AA48">
+        <v>19</v>
+      </c>
+      <c r="AB48">
+        <v>19</v>
+      </c>
+      <c r="AC48">
+        <v>34</v>
+      </c>
+      <c r="AD48">
+        <v>26</v>
+      </c>
+      <c r="AE48">
+        <v>3</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AG48">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>26</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>39</v>
+      </c>
+      <c r="G49">
+        <v>34</v>
+      </c>
+      <c r="H49">
+        <v>25</v>
+      </c>
+      <c r="I49">
+        <v>36</v>
+      </c>
+      <c r="J49">
+        <v>13</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>23</v>
+      </c>
+      <c r="M49">
+        <v>33</v>
+      </c>
+      <c r="N49">
+        <v>35</v>
+      </c>
+      <c r="O49">
+        <v>27</v>
+      </c>
+      <c r="P49">
+        <v>30</v>
+      </c>
+      <c r="Q49">
+        <v>14</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>43</v>
+      </c>
+      <c r="T49">
+        <v>34</v>
+      </c>
+      <c r="U49">
+        <v>32</v>
+      </c>
+      <c r="V49">
+        <v>38</v>
+      </c>
+      <c r="W49">
+        <v>34</v>
+      </c>
+      <c r="X49">
+        <v>17</v>
+      </c>
+      <c r="Z49">
+        <v>37</v>
+      </c>
+      <c r="AA49">
+        <v>27</v>
+      </c>
+      <c r="AB49">
+        <v>26</v>
+      </c>
+      <c r="AC49">
+        <v>27</v>
+      </c>
+      <c r="AD49">
+        <v>30</v>
+      </c>
+      <c r="AE49">
+        <v>15</v>
+      </c>
+      <c r="AG49">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>23</v>
+      </c>
+      <c r="C50">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>39</v>
+      </c>
+      <c r="G50">
+        <v>43</v>
+      </c>
+      <c r="H50">
+        <v>25</v>
+      </c>
+      <c r="I50">
+        <v>29</v>
+      </c>
+      <c r="J50">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>41</v>
+      </c>
+      <c r="M50">
+        <v>33</v>
+      </c>
+      <c r="N50">
+        <v>35</v>
+      </c>
+      <c r="O50">
+        <v>26</v>
+      </c>
+      <c r="P50">
+        <v>30</v>
+      </c>
+      <c r="Q50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>36</v>
+      </c>
+      <c r="T50">
+        <v>43</v>
+      </c>
+      <c r="U50">
+        <v>29</v>
+      </c>
+      <c r="V50">
+        <v>25</v>
+      </c>
+      <c r="W50">
+        <v>25</v>
+      </c>
+      <c r="X50">
+        <v>14</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>37</v>
+      </c>
+      <c r="AA50">
+        <v>37</v>
+      </c>
+      <c r="AB50">
+        <v>31</v>
+      </c>
+      <c r="AC50">
+        <v>33</v>
+      </c>
+      <c r="AD50">
+        <v>16</v>
+      </c>
+      <c r="AE50">
+        <v>10</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+      <c r="AG50">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>29</v>
+      </c>
+      <c r="I51">
+        <v>13</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>32</v>
+      </c>
+      <c r="N51">
+        <v>21</v>
+      </c>
+      <c r="O51">
+        <v>30</v>
+      </c>
+      <c r="P51">
+        <v>24</v>
+      </c>
+      <c r="Q51">
+        <v>8</v>
+      </c>
+      <c r="S51">
+        <v>13</v>
+      </c>
+      <c r="T51">
+        <v>22</v>
+      </c>
+      <c r="U51">
+        <v>30</v>
+      </c>
+      <c r="V51">
+        <v>29</v>
+      </c>
+      <c r="W51">
+        <v>32</v>
+      </c>
+      <c r="X51">
+        <v>14</v>
+      </c>
+      <c r="Z51">
+        <v>32</v>
+      </c>
+      <c r="AA51">
+        <v>23</v>
+      </c>
+      <c r="AB51">
+        <v>23</v>
+      </c>
+      <c r="AC51">
+        <v>33</v>
+      </c>
+      <c r="AD51">
+        <v>28</v>
+      </c>
+      <c r="AE51">
+        <v>17</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>33</v>
+      </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>47</v>
+      </c>
+      <c r="G52">
+        <v>60</v>
+      </c>
+      <c r="H52">
+        <v>65</v>
+      </c>
+      <c r="I52">
+        <v>44</v>
+      </c>
+      <c r="J52">
+        <v>32</v>
+      </c>
+      <c r="K52">
+        <v>19</v>
+      </c>
+      <c r="L52">
+        <v>70</v>
+      </c>
+      <c r="M52">
+        <v>64</v>
+      </c>
+      <c r="N52">
+        <v>69</v>
+      </c>
+      <c r="O52">
+        <v>57</v>
+      </c>
+      <c r="P52">
+        <v>50</v>
+      </c>
+      <c r="Q52">
+        <v>36</v>
+      </c>
+      <c r="R52">
+        <v>14</v>
+      </c>
+      <c r="S52">
+        <v>49</v>
+      </c>
+      <c r="T52">
+        <v>80</v>
+      </c>
+      <c r="U52">
+        <v>67</v>
+      </c>
+      <c r="V52">
+        <v>53</v>
+      </c>
+      <c r="W52">
+        <v>30</v>
+      </c>
+      <c r="X52">
+        <v>26</v>
+      </c>
+      <c r="Y52">
+        <v>9</v>
+      </c>
+      <c r="Z52">
+        <v>52</v>
+      </c>
+      <c r="AA52">
+        <v>52</v>
+      </c>
+      <c r="AB52">
+        <v>57</v>
+      </c>
+      <c r="AC52">
+        <v>52</v>
+      </c>
+      <c r="AD52">
+        <v>48</v>
+      </c>
+      <c r="AE52">
+        <v>19</v>
+      </c>
+      <c r="AF52">
+        <v>15</v>
+      </c>
+      <c r="AG52">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+      <c r="M53">
+        <v>7</v>
+      </c>
+      <c r="N53">
+        <v>9</v>
+      </c>
+      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="P53">
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>8</v>
+      </c>
+      <c r="T53">
+        <v>8</v>
+      </c>
+      <c r="U53">
+        <v>7</v>
+      </c>
+      <c r="V53">
+        <v>5</v>
+      </c>
+      <c r="W53">
+        <v>11</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>9</v>
+      </c>
+      <c r="AA53">
+        <v>8</v>
+      </c>
+      <c r="AB53">
+        <v>5</v>
+      </c>
+      <c r="AC53">
+        <v>2</v>
+      </c>
+      <c r="AD53">
+        <v>7</v>
+      </c>
+      <c r="AG53">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>19</v>
+      </c>
+      <c r="G54">
+        <v>25</v>
+      </c>
+      <c r="H54">
+        <v>18</v>
+      </c>
+      <c r="I54">
+        <v>30</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>18</v>
+      </c>
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54">
+        <v>31</v>
+      </c>
+      <c r="O54">
+        <v>16</v>
+      </c>
+      <c r="P54">
+        <v>16</v>
+      </c>
+      <c r="Q54">
+        <v>9</v>
+      </c>
+      <c r="S54">
+        <v>23</v>
+      </c>
+      <c r="T54">
+        <v>20</v>
+      </c>
+      <c r="U54">
+        <v>18</v>
+      </c>
+      <c r="V54">
+        <v>12</v>
+      </c>
+      <c r="W54">
+        <v>26</v>
+      </c>
+      <c r="X54">
+        <v>7</v>
+      </c>
+      <c r="Z54">
+        <v>23</v>
+      </c>
+      <c r="AA54">
+        <v>16</v>
+      </c>
+      <c r="AB54">
+        <v>46</v>
+      </c>
+      <c r="AC54">
+        <v>16</v>
+      </c>
+      <c r="AD54">
+        <v>19</v>
+      </c>
+      <c r="AE54">
+        <v>11</v>
+      </c>
+      <c r="AG54">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>9</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>5</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>4</v>
+      </c>
+      <c r="V55">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>6</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>4</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>4</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <v>4</v>
+      </c>
+      <c r="AE55">
+        <v>2</v>
+      </c>
+      <c r="AG55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>6</v>
+      </c>
+      <c r="N56">
+        <v>7</v>
+      </c>
+      <c r="O56">
+        <v>3</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>3</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56">
+        <v>5</v>
+      </c>
+      <c r="V56">
+        <v>2</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>6</v>
+      </c>
+      <c r="AA56">
+        <v>6</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
+      <c r="AD56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>17</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>7</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+      <c r="P57">
+        <v>9</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+      <c r="T57">
+        <v>8</v>
+      </c>
+      <c r="U57">
+        <v>7</v>
+      </c>
+      <c r="V57">
+        <v>4</v>
+      </c>
+      <c r="W57">
+        <v>7</v>
+      </c>
+      <c r="Z57">
+        <v>6</v>
+      </c>
+      <c r="AA57">
+        <v>6</v>
+      </c>
+      <c r="AB57">
+        <v>2</v>
+      </c>
+      <c r="AC57">
+        <v>5</v>
+      </c>
+      <c r="AD57">
+        <v>5</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
+++ b/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8AC989-47F6-43FA-88F2-D40089606AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E51FD4-65C2-40A7-8E7C-E371A4727791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="719" activeTab="7" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11390" tabRatio="719" activeTab="8" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">June!$A$3:$AG$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">March!$A$3:$AG$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">May!$A$3:$AG$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">September!$A$3:$AG$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="76">
   <si>
     <t>branchname</t>
   </si>
@@ -270,6 +271,9 @@
   <si>
     <t>2022-08-01 - 2022-08-30</t>
   </si>
+  <si>
+    <t>2022-09-01 - 2022-09-30</t>
+  </si>
 </sst>
 </file>
 
@@ -311,22 +315,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -660,13 +649,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -868,7 +857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -969,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1056,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1168,7 +1157,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +1258,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1316,7 +1305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1417,7 +1406,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1500,7 +1489,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1583,7 +1572,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1651,7 +1640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1671,12 +1660,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1735,7 +1724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1812,7 +1801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1892,7 +1881,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1972,7 +1961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2046,7 +2035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2144,7 +2133,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2215,7 +2204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2316,7 +2305,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2357,7 +2346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2455,7 +2444,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2517,7 +2506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2612,7 +2601,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2713,7 +2702,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2805,12 +2794,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2887,7 +2876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2964,7 +2953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3053,7 +3042,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3103,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3165,7 +3154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3248,7 +3237,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3340,7 +3329,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3429,7 +3418,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3530,7 +3519,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3625,7 +3614,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3723,7 +3712,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3773,7 +3762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3829,7 +3818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3888,7 +3877,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3956,7 +3945,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4012,7 +4001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4074,7 +4063,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4133,7 +4122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4207,7 +4196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -4305,7 +4294,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -4400,7 +4389,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -4489,7 +4478,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -4578,7 +4567,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -4679,7 +4668,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -4759,7 +4748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -4845,7 +4834,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -4931,7 +4920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -4999,7 +4988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -5097,13 +5086,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5153,13 +5142,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5209,13 +5198,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5265,13 +5254,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5372,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5473,7 +5462,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5574,7 +5563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5666,7 +5655,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5758,7 +5747,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5850,7 +5839,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5903,7 +5892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -5995,7 +5984,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -6075,7 +6064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6143,7 +6132,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -6205,7 +6194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -6216,12 +6205,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -6283,7 +6272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -6348,7 +6337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -6428,7 +6417,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -6505,7 +6494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -6576,7 +6565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6659,7 +6648,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -6724,7 +6713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6816,7 +6805,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6869,7 +6858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6955,7 +6944,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -7029,7 +7018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -7103,7 +7092,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -7195,7 +7184,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -7275,12 +7264,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7354,7 +7343,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7425,7 +7414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7508,7 +7497,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -7561,7 +7550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -7635,7 +7624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -7712,7 +7701,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -7801,7 +7790,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -7884,7 +7873,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -7976,7 +7965,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -8053,7 +8042,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -8139,7 +8128,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -8180,7 +8169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -8239,7 +8228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -8298,7 +8287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -8360,7 +8349,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -8416,7 +8405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -8475,7 +8464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -8522,7 +8511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -8590,7 +8579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -8673,7 +8662,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -8759,7 +8748,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -8842,7 +8831,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -8925,7 +8914,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -9017,7 +9006,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -9094,7 +9083,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -9180,7 +9169,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -9260,7 +9249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -9322,7 +9311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -9420,13 +9409,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9527,7 +9516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9628,7 +9617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9729,7 +9718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -9830,7 +9819,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -9928,7 +9917,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10029,7 +10018,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -10082,7 +10071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -10183,7 +10172,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -10272,7 +10261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -10364,7 +10353,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -10435,7 +10424,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -10452,12 +10441,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -10522,7 +10511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -10599,7 +10588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -10688,7 +10677,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -10774,7 +10763,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -10854,7 +10843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -10952,7 +10941,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -11035,7 +11024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -11136,7 +11125,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -11198,7 +11187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -11293,7 +11282,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -11376,7 +11365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -11471,7 +11460,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -11572,7 +11561,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -11661,12 +11650,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -11749,7 +11738,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -11826,7 +11815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -11912,7 +11901,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -11965,7 +11954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -12042,7 +12031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -12131,7 +12120,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -12229,7 +12218,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -12327,7 +12316,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -12428,7 +12417,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -12517,7 +12506,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -12618,7 +12607,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -12668,7 +12657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -12736,7 +12725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -12792,7 +12781,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -12848,7 +12837,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -12898,7 +12887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -12945,7 +12934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -12995,7 +12984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -13075,7 +13064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -13164,7 +13153,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -13262,7 +13251,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -13354,7 +13343,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -13443,7 +13432,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -13544,7 +13533,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -13627,7 +13616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -13722,7 +13711,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -13805,7 +13794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -13885,7 +13874,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -13992,13 +13981,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14099,7 +14088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14200,7 +14189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -14301,7 +14290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -14396,7 +14385,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -14491,7 +14480,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -14589,7 +14578,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -14654,7 +14643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -14752,7 +14741,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -14841,7 +14830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -14930,7 +14919,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -14998,7 +14987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -15021,12 +15010,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -15091,7 +15080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -15162,7 +15151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -15248,7 +15237,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -15334,7 +15323,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -15417,7 +15406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -15509,7 +15498,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -15586,7 +15575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -15684,7 +15673,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -15740,7 +15729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -15832,7 +15821,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -15906,7 +15895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -16001,7 +15990,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -16099,7 +16088,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -16188,12 +16177,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -16282,7 +16271,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -16359,7 +16348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -16454,7 +16443,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -16504,7 +16493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -16569,7 +16558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -16658,7 +16647,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -16750,7 +16739,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -16848,7 +16837,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -16946,7 +16935,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -17038,7 +17027,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -17130,7 +17119,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -17180,7 +17169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -17251,7 +17240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -17319,7 +17308,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -17381,7 +17370,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -17416,7 +17405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -17484,7 +17473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -17546,7 +17535,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -17629,7 +17618,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -17718,7 +17707,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -17810,7 +17799,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -17908,7 +17897,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -18000,7 +17989,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -18095,7 +18084,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -18181,7 +18170,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -18270,7 +18259,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -18350,7 +18339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -18427,7 +18416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -18534,13 +18523,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18641,7 +18630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18742,7 +18731,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -18843,7 +18832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -18944,7 +18933,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -19042,7 +19031,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -19143,7 +19132,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -19199,7 +19188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -19300,7 +19289,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -19383,7 +19372,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -19466,7 +19455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -19531,7 +19520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -19548,12 +19537,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -19618,7 +19607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -19692,7 +19681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -19778,7 +19767,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -19861,7 +19850,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -19938,7 +19927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -20033,7 +20022,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -20104,7 +20093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -20202,7 +20191,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -20252,7 +20241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -20350,7 +20339,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -20427,7 +20416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -20525,7 +20514,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -20626,7 +20615,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -20721,12 +20710,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -20818,7 +20807,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -20895,7 +20884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -20987,7 +20976,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -21031,7 +21020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -21102,7 +21091,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -21188,7 +21177,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -21277,7 +21266,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -21369,7 +21358,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -21470,7 +21459,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -21559,7 +21548,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -21654,7 +21643,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -21701,7 +21690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -21763,7 +21752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -21801,7 +21790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -21821,7 +21810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -21844,7 +21833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -21867,7 +21856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -21887,7 +21876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -21949,7 +21938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -22044,7 +22033,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -22136,7 +22125,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -22231,7 +22220,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -22320,7 +22309,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -22421,7 +22410,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -22513,7 +22502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -22611,7 +22600,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -22691,7 +22680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -22762,7 +22751,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -22863,13 +22852,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22970,7 +22959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23071,7 +23060,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -23172,7 +23161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -23270,7 +23259,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -23365,7 +23354,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -23463,7 +23452,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -23543,7 +23532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -23641,7 +23630,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -23730,7 +23719,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -23816,7 +23805,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -23896,7 +23885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -23937,12 +23926,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -24010,7 +23999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -24099,7 +24088,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -24188,7 +24177,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -24274,7 +24263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -24360,7 +24349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -24458,7 +24447,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -24526,7 +24515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -24624,7 +24613,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -24665,7 +24654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -24751,7 +24740,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -24828,7 +24817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -24926,7 +24915,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -25021,7 +25010,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -25107,12 +25096,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -25201,7 +25190,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -25287,7 +25276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -25379,7 +25368,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -25438,7 +25427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -25512,7 +25501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -25601,7 +25590,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -25696,7 +25685,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -25785,7 +25774,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -25880,7 +25869,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -25972,7 +25961,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -26070,7 +26059,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -26117,7 +26106,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -26182,7 +26171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -26193,27 +26182,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -26287,7 +26276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -26379,7 +26368,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -26468,7 +26457,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -26557,7 +26546,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -26643,7 +26632,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -26741,7 +26730,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -26830,7 +26819,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -26922,7 +26911,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -27005,7 +26994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -27079,7 +27068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -27185,13 +27174,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27292,7 +27281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -27393,7 +27382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -27494,7 +27483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -27595,7 +27584,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -27693,7 +27682,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -27794,7 +27783,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -27865,7 +27854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -27966,7 +27955,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -28055,7 +28044,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -28135,7 +28124,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -28206,7 +28195,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -28244,12 +28233,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -28305,7 +28294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -28385,7 +28374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -28468,7 +28457,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -28548,7 +28537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -28625,7 +28614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -28726,7 +28715,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -28794,7 +28783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -28892,7 +28881,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -28921,7 +28910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -29001,7 +28990,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -29069,7 +29058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -29167,7 +29156,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -29268,7 +29257,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -29360,12 +29349,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -29439,7 +29428,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -29522,7 +29511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -29614,7 +29603,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -29664,7 +29653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -29735,7 +29724,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -29821,7 +29810,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -29916,7 +29905,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -30008,7 +29997,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -30109,7 +30098,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -30198,7 +30187,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -30290,7 +30279,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -30337,7 +30326,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -30399,32 +30388,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -30495,7 +30484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -30590,7 +30579,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -30682,7 +30671,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -30783,7 +30772,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -30875,7 +30864,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -30976,7 +30965,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -31065,7 +31054,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -31151,7 +31140,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -31234,7 +31223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -31302,7 +31291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -31392,20 +31381,20 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -31506,7 +31495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31607,7 +31596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -31708,7 +31697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -31809,7 +31798,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -31910,7 +31899,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -32011,7 +32000,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -32079,7 +32068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -32180,7 +32169,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -32269,7 +32258,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -32358,7 +32347,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -32438,7 +32427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -32467,12 +32456,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -32546,7 +32535,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -32635,7 +32624,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -32730,7 +32719,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -32813,7 +32802,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -32893,7 +32882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -32994,7 +32983,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -33062,7 +33051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -33163,7 +33152,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -33228,7 +33217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -33317,7 +33306,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -33397,7 +33386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -33492,7 +33481,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -33593,7 +33582,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -33691,12 +33680,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -33776,7 +33765,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -33859,7 +33848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -33954,7 +33943,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -34019,7 +34008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -34096,7 +34085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -34188,7 +34177,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -34286,7 +34275,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -34381,7 +34370,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -34482,7 +34471,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -34574,7 +34563,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -34672,7 +34661,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -34728,7 +34717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -34790,7 +34779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -34822,7 +34811,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -34863,7 +34852,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -34901,7 +34890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -34936,7 +34925,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -34962,7 +34951,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -35036,7 +35025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -35128,7 +35117,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -35229,7 +35218,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -35324,7 +35313,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -35419,7 +35408,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -35520,7 +35509,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -35612,7 +35601,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -35713,7 +35702,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -35796,7 +35785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -35876,7 +35865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -35962,55 +35951,4472 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F138D5-7324-41CA-BDE7-6178B269EFE3}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="B2:AF2"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="33" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44805</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44806</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44807</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44808</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44809</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44810</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44811</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44812</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44813</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44814</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44815</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44816</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44817</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44818</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44819</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>44820</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44821</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44822</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44823</v>
+      </c>
+      <c r="U2" s="1">
+        <v>44824</v>
+      </c>
+      <c r="V2" s="1">
+        <v>44825</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44826</v>
+      </c>
+      <c r="X2" s="1">
+        <v>44827</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>44828</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>44829</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44830</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>44831</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>44832</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>44833</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>44834</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>73</v>
+      </c>
+      <c r="H4">
+        <v>77</v>
+      </c>
+      <c r="I4">
+        <v>77</v>
+      </c>
+      <c r="J4">
+        <v>78</v>
+      </c>
+      <c r="K4">
+        <v>35</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>62</v>
+      </c>
+      <c r="N4">
+        <v>76</v>
+      </c>
+      <c r="O4">
+        <v>59</v>
+      </c>
+      <c r="P4">
+        <v>67</v>
+      </c>
+      <c r="Q4">
+        <v>58</v>
+      </c>
+      <c r="R4">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>54</v>
+      </c>
+      <c r="U4">
+        <v>56</v>
+      </c>
+      <c r="V4">
+        <v>55</v>
+      </c>
+      <c r="W4">
+        <v>71</v>
+      </c>
+      <c r="X4">
+        <v>72</v>
+      </c>
+      <c r="Y4">
+        <v>31</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4">
+        <v>71</v>
+      </c>
+      <c r="AB4">
+        <v>64</v>
+      </c>
+      <c r="AC4">
+        <v>52</v>
+      </c>
+      <c r="AD4">
+        <v>67</v>
+      </c>
+      <c r="AE4">
+        <v>62</v>
+      </c>
+      <c r="AG4">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>32</v>
+      </c>
+      <c r="N5">
+        <v>44</v>
+      </c>
+      <c r="O5">
+        <v>37</v>
+      </c>
+      <c r="P5">
+        <v>36</v>
+      </c>
+      <c r="Q5">
+        <v>27</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>52</v>
+      </c>
+      <c r="U5">
+        <v>34</v>
+      </c>
+      <c r="V5">
+        <v>39</v>
+      </c>
+      <c r="W5">
+        <v>26</v>
+      </c>
+      <c r="X5">
+        <v>36</v>
+      </c>
+      <c r="Y5">
+        <v>23</v>
+      </c>
+      <c r="AA5">
+        <v>31</v>
+      </c>
+      <c r="AB5">
+        <v>25</v>
+      </c>
+      <c r="AC5">
+        <v>45</v>
+      </c>
+      <c r="AD5">
+        <v>25</v>
+      </c>
+      <c r="AE5">
+        <v>18</v>
+      </c>
+      <c r="AG5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>106</v>
+      </c>
+      <c r="H6">
+        <v>91</v>
+      </c>
+      <c r="I6">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>62</v>
+      </c>
+      <c r="K6">
+        <v>56</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>99</v>
+      </c>
+      <c r="N6">
+        <v>88</v>
+      </c>
+      <c r="O6">
+        <v>84</v>
+      </c>
+      <c r="P6">
+        <v>76</v>
+      </c>
+      <c r="Q6">
+        <v>59</v>
+      </c>
+      <c r="R6">
+        <v>55</v>
+      </c>
+      <c r="S6">
+        <v>38</v>
+      </c>
+      <c r="T6">
+        <v>66</v>
+      </c>
+      <c r="U6">
+        <v>98</v>
+      </c>
+      <c r="V6">
+        <v>86</v>
+      </c>
+      <c r="W6">
+        <v>71</v>
+      </c>
+      <c r="X6">
+        <v>69</v>
+      </c>
+      <c r="Y6">
+        <v>54</v>
+      </c>
+      <c r="Z6">
+        <v>43</v>
+      </c>
+      <c r="AA6">
+        <v>108</v>
+      </c>
+      <c r="AB6">
+        <v>88</v>
+      </c>
+      <c r="AC6">
+        <v>83</v>
+      </c>
+      <c r="AD6">
+        <v>75</v>
+      </c>
+      <c r="AE6">
+        <v>67</v>
+      </c>
+      <c r="AG6">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>64</v>
+      </c>
+      <c r="H8">
+        <v>84</v>
+      </c>
+      <c r="I8">
+        <v>48</v>
+      </c>
+      <c r="J8">
+        <v>46</v>
+      </c>
+      <c r="K8">
+        <v>39</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>49</v>
+      </c>
+      <c r="N8">
+        <v>71</v>
+      </c>
+      <c r="O8">
+        <v>80</v>
+      </c>
+      <c r="P8">
+        <v>52</v>
+      </c>
+      <c r="Q8">
+        <v>37</v>
+      </c>
+      <c r="R8">
+        <v>35</v>
+      </c>
+      <c r="S8">
+        <v>28</v>
+      </c>
+      <c r="T8">
+        <v>63</v>
+      </c>
+      <c r="U8">
+        <v>77</v>
+      </c>
+      <c r="V8">
+        <v>53</v>
+      </c>
+      <c r="W8">
+        <v>49</v>
+      </c>
+      <c r="X8">
+        <v>37</v>
+      </c>
+      <c r="Y8">
+        <v>32</v>
+      </c>
+      <c r="Z8">
+        <v>17</v>
+      </c>
+      <c r="AA8">
+        <v>50</v>
+      </c>
+      <c r="AB8">
+        <v>64</v>
+      </c>
+      <c r="AC8">
+        <v>65</v>
+      </c>
+      <c r="AD8">
+        <v>54</v>
+      </c>
+      <c r="AE8">
+        <v>40</v>
+      </c>
+      <c r="AG8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>17</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>20</v>
+      </c>
+      <c r="R9">
+        <v>13</v>
+      </c>
+      <c r="T9">
+        <v>18</v>
+      </c>
+      <c r="U9">
+        <v>12</v>
+      </c>
+      <c r="V9">
+        <v>22</v>
+      </c>
+      <c r="W9">
+        <v>13</v>
+      </c>
+      <c r="X9">
+        <v>12</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="AA9">
+        <v>17</v>
+      </c>
+      <c r="AB9">
+        <v>14</v>
+      </c>
+      <c r="AC9">
+        <v>14</v>
+      </c>
+      <c r="AD9">
+        <v>9</v>
+      </c>
+      <c r="AE9">
+        <v>16</v>
+      </c>
+      <c r="AG9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>13</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>11</v>
+      </c>
+      <c r="V10">
+        <v>13</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>11</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>12</v>
+      </c>
+      <c r="AB10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>9</v>
+      </c>
+      <c r="AD10">
+        <v>11</v>
+      </c>
+      <c r="AE10">
+        <v>12</v>
+      </c>
+      <c r="AG10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="V11">
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AC11">
+        <v>8</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <v>6</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>9</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>5</v>
+      </c>
+      <c r="AB15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <v>10</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>6</v>
+      </c>
+      <c r="AG15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>13</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>9</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>9</v>
+      </c>
+      <c r="U16">
+        <v>48</v>
+      </c>
+      <c r="V16">
+        <v>13</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>16</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+      <c r="AB16">
+        <v>11</v>
+      </c>
+      <c r="AC16">
+        <v>35</v>
+      </c>
+      <c r="AD16">
+        <v>6</v>
+      </c>
+      <c r="AE16">
+        <v>11</v>
+      </c>
+      <c r="AG16">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>7</v>
+      </c>
+      <c r="V17">
+        <v>9</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <v>4</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <v>7</v>
+      </c>
+      <c r="AE17">
+        <v>6</v>
+      </c>
+      <c r="AG17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>4</v>
+      </c>
+      <c r="AC18">
+        <v>5</v>
+      </c>
+      <c r="AD18">
+        <v>6</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29</v>
+      </c>
+      <c r="N19">
+        <v>19</v>
+      </c>
+      <c r="O19">
+        <v>25</v>
+      </c>
+      <c r="P19">
+        <v>14</v>
+      </c>
+      <c r="Q19">
+        <v>27</v>
+      </c>
+      <c r="R19">
+        <v>20</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>23</v>
+      </c>
+      <c r="U19">
+        <v>19</v>
+      </c>
+      <c r="V19">
+        <v>49</v>
+      </c>
+      <c r="W19">
+        <v>14</v>
+      </c>
+      <c r="X19">
+        <v>18</v>
+      </c>
+      <c r="Y19">
+        <v>17</v>
+      </c>
+      <c r="AA19">
+        <v>28</v>
+      </c>
+      <c r="AB19">
+        <v>23</v>
+      </c>
+      <c r="AC19">
+        <v>29</v>
+      </c>
+      <c r="AD19">
+        <v>22</v>
+      </c>
+      <c r="AE19">
+        <v>11</v>
+      </c>
+      <c r="AG19">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <v>5</v>
+      </c>
+      <c r="AD20">
+        <v>3</v>
+      </c>
+      <c r="AE20">
+        <v>7</v>
+      </c>
+      <c r="AG20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>46</v>
+      </c>
+      <c r="H21">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <v>28</v>
+      </c>
+      <c r="N21">
+        <v>29</v>
+      </c>
+      <c r="O21">
+        <v>30</v>
+      </c>
+      <c r="P21">
+        <v>32</v>
+      </c>
+      <c r="Q21">
+        <v>28</v>
+      </c>
+      <c r="R21">
+        <v>13</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>29</v>
+      </c>
+      <c r="U21">
+        <v>29</v>
+      </c>
+      <c r="V21">
+        <v>13</v>
+      </c>
+      <c r="W21">
+        <v>43</v>
+      </c>
+      <c r="X21">
+        <v>34</v>
+      </c>
+      <c r="Y21">
+        <v>14</v>
+      </c>
+      <c r="Z21">
+        <v>8</v>
+      </c>
+      <c r="AA21">
+        <v>32</v>
+      </c>
+      <c r="AB21">
+        <v>33</v>
+      </c>
+      <c r="AC21">
+        <v>24</v>
+      </c>
+      <c r="AD21">
+        <v>27</v>
+      </c>
+      <c r="AE21">
+        <v>24</v>
+      </c>
+      <c r="AG21">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>11</v>
+      </c>
+      <c r="AA22">
+        <v>4</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>6</v>
+      </c>
+      <c r="AD22">
+        <v>4</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>70</v>
+      </c>
+      <c r="H23">
+        <v>43</v>
+      </c>
+      <c r="I23">
+        <v>41</v>
+      </c>
+      <c r="J23">
+        <v>27</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>47</v>
+      </c>
+      <c r="N23">
+        <v>29</v>
+      </c>
+      <c r="O23">
+        <v>25</v>
+      </c>
+      <c r="P23">
+        <v>27</v>
+      </c>
+      <c r="Q23">
+        <v>30</v>
+      </c>
+      <c r="R23">
+        <v>11</v>
+      </c>
+      <c r="T23">
+        <v>30</v>
+      </c>
+      <c r="U23">
+        <v>23</v>
+      </c>
+      <c r="V23">
+        <v>34</v>
+      </c>
+      <c r="W23">
+        <v>35</v>
+      </c>
+      <c r="X23">
+        <v>23</v>
+      </c>
+      <c r="Y23">
+        <v>11</v>
+      </c>
+      <c r="AA23">
+        <v>41</v>
+      </c>
+      <c r="AB23">
+        <v>19</v>
+      </c>
+      <c r="AC23">
+        <v>29</v>
+      </c>
+      <c r="AD23">
+        <v>29</v>
+      </c>
+      <c r="AE23">
+        <v>32</v>
+      </c>
+      <c r="AG23">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>9</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>7</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>4</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>49</v>
+      </c>
+      <c r="H25">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>34</v>
+      </c>
+      <c r="N25">
+        <v>28</v>
+      </c>
+      <c r="O25">
+        <v>26</v>
+      </c>
+      <c r="P25">
+        <v>31</v>
+      </c>
+      <c r="Q25">
+        <v>40</v>
+      </c>
+      <c r="R25">
+        <v>16</v>
+      </c>
+      <c r="T25">
+        <v>40</v>
+      </c>
+      <c r="U25">
+        <v>25</v>
+      </c>
+      <c r="V25">
+        <v>34</v>
+      </c>
+      <c r="W25">
+        <v>22</v>
+      </c>
+      <c r="X25">
+        <v>33</v>
+      </c>
+      <c r="Y25">
+        <v>14</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>33</v>
+      </c>
+      <c r="AB25">
+        <v>24</v>
+      </c>
+      <c r="AC25">
+        <v>22</v>
+      </c>
+      <c r="AD25">
+        <v>23</v>
+      </c>
+      <c r="AE25">
+        <v>35</v>
+      </c>
+      <c r="AG25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>89</v>
+      </c>
+      <c r="C26">
+        <v>97</v>
+      </c>
+      <c r="D26">
+        <v>79</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>144</v>
+      </c>
+      <c r="H26">
+        <v>101</v>
+      </c>
+      <c r="I26">
+        <v>92</v>
+      </c>
+      <c r="J26">
+        <v>62</v>
+      </c>
+      <c r="K26">
+        <v>72</v>
+      </c>
+      <c r="L26">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>102</v>
+      </c>
+      <c r="N26">
+        <v>95</v>
+      </c>
+      <c r="O26">
+        <v>94</v>
+      </c>
+      <c r="P26">
+        <v>88</v>
+      </c>
+      <c r="Q26">
+        <v>84</v>
+      </c>
+      <c r="R26">
+        <v>65</v>
+      </c>
+      <c r="S26">
+        <v>20</v>
+      </c>
+      <c r="T26">
+        <v>112</v>
+      </c>
+      <c r="U26">
+        <v>96</v>
+      </c>
+      <c r="V26">
+        <v>100</v>
+      </c>
+      <c r="W26">
+        <v>90</v>
+      </c>
+      <c r="X26">
+        <v>87</v>
+      </c>
+      <c r="Y26">
+        <v>65</v>
+      </c>
+      <c r="Z26">
+        <v>33</v>
+      </c>
+      <c r="AA26">
+        <v>105</v>
+      </c>
+      <c r="AB26">
+        <v>84</v>
+      </c>
+      <c r="AC26">
+        <v>105</v>
+      </c>
+      <c r="AD26">
+        <v>80</v>
+      </c>
+      <c r="AE26">
+        <v>78</v>
+      </c>
+      <c r="AG26">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>8</v>
+      </c>
+      <c r="V27">
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>7</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
+      </c>
+      <c r="AA27">
+        <v>11</v>
+      </c>
+      <c r="AB27">
+        <v>7</v>
+      </c>
+      <c r="AC27">
+        <v>4</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>6</v>
+      </c>
+      <c r="AG27">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>12</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="R29">
+        <v>9</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="U29">
+        <v>12</v>
+      </c>
+      <c r="V29">
+        <v>14</v>
+      </c>
+      <c r="W29">
+        <v>11</v>
+      </c>
+      <c r="Y29">
+        <v>6</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>17</v>
+      </c>
+      <c r="AB29">
+        <v>10</v>
+      </c>
+      <c r="AC29">
+        <v>10</v>
+      </c>
+      <c r="AD29">
+        <v>3</v>
+      </c>
+      <c r="AG29">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
+        <v>4</v>
+      </c>
+      <c r="AD30">
+        <v>2</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="G31">
+        <v>24</v>
+      </c>
+      <c r="H31">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>19</v>
+      </c>
+      <c r="J31">
+        <v>26</v>
+      </c>
+      <c r="K31">
+        <v>16</v>
+      </c>
+      <c r="M31">
+        <v>21</v>
+      </c>
+      <c r="N31">
+        <v>24</v>
+      </c>
+      <c r="O31">
+        <v>20</v>
+      </c>
+      <c r="P31">
+        <v>23</v>
+      </c>
+      <c r="Q31">
+        <v>21</v>
+      </c>
+      <c r="R31">
+        <v>12</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>18</v>
+      </c>
+      <c r="U31">
+        <v>22</v>
+      </c>
+      <c r="V31">
+        <v>19</v>
+      </c>
+      <c r="W31">
+        <v>11</v>
+      </c>
+      <c r="X31">
+        <v>13</v>
+      </c>
+      <c r="Y31">
+        <v>13</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>14</v>
+      </c>
+      <c r="AB31">
+        <v>24</v>
+      </c>
+      <c r="AC31">
+        <v>29</v>
+      </c>
+      <c r="AD31">
+        <v>21</v>
+      </c>
+      <c r="AE31">
+        <v>15</v>
+      </c>
+      <c r="AG31">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+      <c r="V33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>6</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <v>6</v>
+      </c>
+      <c r="AC33">
+        <v>5</v>
+      </c>
+      <c r="AD33">
+        <v>5</v>
+      </c>
+      <c r="AE33">
+        <v>2</v>
+      </c>
+      <c r="AG33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34">
+        <v>34</v>
+      </c>
+      <c r="J34">
+        <v>29</v>
+      </c>
+      <c r="K34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>36</v>
+      </c>
+      <c r="N34">
+        <v>39</v>
+      </c>
+      <c r="O34">
+        <v>41</v>
+      </c>
+      <c r="P34">
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <v>26</v>
+      </c>
+      <c r="R34">
+        <v>12</v>
+      </c>
+      <c r="T34">
+        <v>41</v>
+      </c>
+      <c r="U34">
+        <v>31</v>
+      </c>
+      <c r="V34">
+        <v>36</v>
+      </c>
+      <c r="W34">
+        <v>43</v>
+      </c>
+      <c r="X34">
+        <v>37</v>
+      </c>
+      <c r="Y34">
+        <v>19</v>
+      </c>
+      <c r="AA34">
+        <v>43</v>
+      </c>
+      <c r="AB34">
+        <v>27</v>
+      </c>
+      <c r="AC34">
+        <v>35</v>
+      </c>
+      <c r="AD34">
+        <v>29</v>
+      </c>
+      <c r="AE34">
+        <v>34</v>
+      </c>
+      <c r="AG34">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>18</v>
+      </c>
+      <c r="J35">
+        <v>24</v>
+      </c>
+      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>32</v>
+      </c>
+      <c r="N35">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>23</v>
+      </c>
+      <c r="P35">
+        <v>21</v>
+      </c>
+      <c r="Q35">
+        <v>22</v>
+      </c>
+      <c r="R35">
+        <v>12</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>24</v>
+      </c>
+      <c r="U35">
+        <v>15</v>
+      </c>
+      <c r="V35">
+        <v>22</v>
+      </c>
+      <c r="W35">
+        <v>25</v>
+      </c>
+      <c r="X35">
+        <v>29</v>
+      </c>
+      <c r="Y35">
+        <v>9</v>
+      </c>
+      <c r="AA35">
+        <v>34</v>
+      </c>
+      <c r="AB35">
+        <v>19</v>
+      </c>
+      <c r="AC35">
+        <v>25</v>
+      </c>
+      <c r="AD35">
+        <v>18</v>
+      </c>
+      <c r="AE35">
+        <v>24</v>
+      </c>
+      <c r="AG35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>19</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>16</v>
+      </c>
+      <c r="J36">
+        <v>15</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>11</v>
+      </c>
+      <c r="O36">
+        <v>13</v>
+      </c>
+      <c r="P36">
+        <v>23</v>
+      </c>
+      <c r="Q36">
+        <v>13</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>14</v>
+      </c>
+      <c r="U36">
+        <v>9</v>
+      </c>
+      <c r="V36">
+        <v>12</v>
+      </c>
+      <c r="W36">
+        <v>18</v>
+      </c>
+      <c r="X36">
+        <v>13</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>17</v>
+      </c>
+      <c r="AB36">
+        <v>8</v>
+      </c>
+      <c r="AC36">
+        <v>20</v>
+      </c>
+      <c r="AD36">
+        <v>23</v>
+      </c>
+      <c r="AE36">
+        <v>11</v>
+      </c>
+      <c r="AG36">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>63</v>
+      </c>
+      <c r="C37">
+        <v>67</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>91</v>
+      </c>
+      <c r="H37">
+        <v>81</v>
+      </c>
+      <c r="I37">
+        <v>87</v>
+      </c>
+      <c r="J37">
+        <v>62</v>
+      </c>
+      <c r="K37">
+        <v>26</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>65</v>
+      </c>
+      <c r="N37">
+        <v>66</v>
+      </c>
+      <c r="O37">
+        <v>77</v>
+      </c>
+      <c r="P37">
+        <v>62</v>
+      </c>
+      <c r="Q37">
+        <v>78</v>
+      </c>
+      <c r="R37">
+        <v>32</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>70</v>
+      </c>
+      <c r="U37">
+        <v>72</v>
+      </c>
+      <c r="V37">
+        <v>59</v>
+      </c>
+      <c r="W37">
+        <v>49</v>
+      </c>
+      <c r="X37">
+        <v>64</v>
+      </c>
+      <c r="Y37">
+        <v>28</v>
+      </c>
+      <c r="Z37">
+        <v>3</v>
+      </c>
+      <c r="AA37">
+        <v>83</v>
+      </c>
+      <c r="AB37">
+        <v>66</v>
+      </c>
+      <c r="AC37">
+        <v>101</v>
+      </c>
+      <c r="AD37">
+        <v>72</v>
+      </c>
+      <c r="AE37">
+        <v>64</v>
+      </c>
+      <c r="AG37">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>24</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>12</v>
+      </c>
+      <c r="N38">
+        <v>20</v>
+      </c>
+      <c r="O38">
+        <v>28</v>
+      </c>
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="Q38">
+        <v>13</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>18</v>
+      </c>
+      <c r="U38">
+        <v>23</v>
+      </c>
+      <c r="V38">
+        <v>12</v>
+      </c>
+      <c r="W38">
+        <v>16</v>
+      </c>
+      <c r="X38">
+        <v>26</v>
+      </c>
+      <c r="Y38">
+        <v>4</v>
+      </c>
+      <c r="AA38">
+        <v>13</v>
+      </c>
+      <c r="AB38">
+        <v>14</v>
+      </c>
+      <c r="AC38">
+        <v>13</v>
+      </c>
+      <c r="AD38">
+        <v>5</v>
+      </c>
+      <c r="AE38">
+        <v>12</v>
+      </c>
+      <c r="AG38">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>84</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="I39">
+        <v>51</v>
+      </c>
+      <c r="J39">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>30</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>47</v>
+      </c>
+      <c r="N39">
+        <v>49</v>
+      </c>
+      <c r="O39">
+        <v>43</v>
+      </c>
+      <c r="P39">
+        <v>48</v>
+      </c>
+      <c r="Q39">
+        <v>47</v>
+      </c>
+      <c r="R39">
+        <v>18</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>42</v>
+      </c>
+      <c r="U39">
+        <v>59</v>
+      </c>
+      <c r="V39">
+        <v>48</v>
+      </c>
+      <c r="W39">
+        <v>54</v>
+      </c>
+      <c r="X39">
+        <v>38</v>
+      </c>
+      <c r="Y39">
+        <v>19</v>
+      </c>
+      <c r="AA39">
+        <v>50</v>
+      </c>
+      <c r="AB39">
+        <v>48</v>
+      </c>
+      <c r="AC39">
+        <v>49</v>
+      </c>
+      <c r="AD39">
+        <v>50</v>
+      </c>
+      <c r="AE39">
+        <v>33</v>
+      </c>
+      <c r="AG39">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>9</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>4</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>3</v>
+      </c>
+      <c r="AD40">
+        <v>3</v>
+      </c>
+      <c r="AG40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>2</v>
+      </c>
+      <c r="AD41">
+        <v>2</v>
+      </c>
+      <c r="AG41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>19</v>
+      </c>
+      <c r="J42">
+        <v>11</v>
+      </c>
+      <c r="M42">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <v>9</v>
+      </c>
+      <c r="O42">
+        <v>14</v>
+      </c>
+      <c r="P42">
+        <v>21</v>
+      </c>
+      <c r="Q42">
+        <v>8</v>
+      </c>
+      <c r="T42">
+        <v>14</v>
+      </c>
+      <c r="U42">
+        <v>11</v>
+      </c>
+      <c r="V42">
+        <v>33</v>
+      </c>
+      <c r="W42">
+        <v>18</v>
+      </c>
+      <c r="AB42">
+        <v>12</v>
+      </c>
+      <c r="AC42">
+        <v>29</v>
+      </c>
+      <c r="AD42">
+        <v>34</v>
+      </c>
+      <c r="AE42">
+        <v>14</v>
+      </c>
+      <c r="AG42">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>71</v>
+      </c>
+      <c r="C43">
+        <v>58</v>
+      </c>
+      <c r="G43">
+        <v>86</v>
+      </c>
+      <c r="H43">
+        <v>105</v>
+      </c>
+      <c r="I43">
+        <v>97</v>
+      </c>
+      <c r="J43">
+        <v>55</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>85</v>
+      </c>
+      <c r="U43">
+        <v>70</v>
+      </c>
+      <c r="V43">
+        <v>75</v>
+      </c>
+      <c r="W43">
+        <v>64</v>
+      </c>
+      <c r="X43">
+        <v>54</v>
+      </c>
+      <c r="AB43">
+        <v>80</v>
+      </c>
+      <c r="AC43">
+        <v>93</v>
+      </c>
+      <c r="AD43">
+        <v>103</v>
+      </c>
+      <c r="AE43">
+        <v>56</v>
+      </c>
+      <c r="AG43">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <v>2</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
+      </c>
+      <c r="AD44">
+        <v>2</v>
+      </c>
+      <c r="AE44">
+        <v>2</v>
+      </c>
+      <c r="AG44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>13</v>
+      </c>
+      <c r="O45">
+        <v>38</v>
+      </c>
+      <c r="P45">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>17</v>
+      </c>
+      <c r="T45">
+        <v>9</v>
+      </c>
+      <c r="U45">
+        <v>5</v>
+      </c>
+      <c r="V45">
+        <v>8</v>
+      </c>
+      <c r="W45">
+        <v>7</v>
+      </c>
+      <c r="AB45">
+        <v>21</v>
+      </c>
+      <c r="AC45">
+        <v>5</v>
+      </c>
+      <c r="AD45">
+        <v>3</v>
+      </c>
+      <c r="AE45">
+        <v>3</v>
+      </c>
+      <c r="AG45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>21</v>
+      </c>
+      <c r="I46">
+        <v>23</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="O46">
+        <v>20</v>
+      </c>
+      <c r="P46">
+        <v>20</v>
+      </c>
+      <c r="Q46">
+        <v>9</v>
+      </c>
+      <c r="U46">
+        <v>9</v>
+      </c>
+      <c r="V46">
+        <v>22</v>
+      </c>
+      <c r="W46">
+        <v>21</v>
+      </c>
+      <c r="X46">
+        <v>12</v>
+      </c>
+      <c r="AC46">
+        <v>20</v>
+      </c>
+      <c r="AD46">
+        <v>19</v>
+      </c>
+      <c r="AE46">
+        <v>9</v>
+      </c>
+      <c r="AG46">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>9</v>
+      </c>
+      <c r="O47">
+        <v>7</v>
+      </c>
+      <c r="P47">
+        <v>7</v>
+      </c>
+      <c r="Q47">
+        <v>11</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="T47">
+        <v>11</v>
+      </c>
+      <c r="V47">
+        <v>12</v>
+      </c>
+      <c r="W47">
+        <v>9</v>
+      </c>
+      <c r="X47">
+        <v>6</v>
+      </c>
+      <c r="AA47">
+        <v>6</v>
+      </c>
+      <c r="AC47">
+        <v>11</v>
+      </c>
+      <c r="AD47">
+        <v>7</v>
+      </c>
+      <c r="AE47">
+        <v>9</v>
+      </c>
+      <c r="AG47">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>25</v>
+      </c>
+      <c r="H48">
+        <v>12</v>
+      </c>
+      <c r="I48">
+        <v>28</v>
+      </c>
+      <c r="J48">
+        <v>14</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>25</v>
+      </c>
+      <c r="O48">
+        <v>16</v>
+      </c>
+      <c r="P48">
+        <v>21</v>
+      </c>
+      <c r="Q48">
+        <v>46</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>22</v>
+      </c>
+      <c r="U48">
+        <v>17</v>
+      </c>
+      <c r="V48">
+        <v>26</v>
+      </c>
+      <c r="W48">
+        <v>17</v>
+      </c>
+      <c r="X48">
+        <v>20</v>
+      </c>
+      <c r="AA48">
+        <v>10</v>
+      </c>
+      <c r="AB48">
+        <v>20</v>
+      </c>
+      <c r="AC48">
+        <v>19</v>
+      </c>
+      <c r="AD48">
+        <v>24</v>
+      </c>
+      <c r="AE48">
+        <v>17</v>
+      </c>
+      <c r="AG48">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>26</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>38</v>
+      </c>
+      <c r="H49">
+        <v>25</v>
+      </c>
+      <c r="I49">
+        <v>21</v>
+      </c>
+      <c r="J49">
+        <v>39</v>
+      </c>
+      <c r="K49">
+        <v>19</v>
+      </c>
+      <c r="M49">
+        <v>34</v>
+      </c>
+      <c r="N49">
+        <v>29</v>
+      </c>
+      <c r="O49">
+        <v>27</v>
+      </c>
+      <c r="P49">
+        <v>23</v>
+      </c>
+      <c r="Q49">
+        <v>20</v>
+      </c>
+      <c r="R49">
+        <v>8</v>
+      </c>
+      <c r="T49">
+        <v>35</v>
+      </c>
+      <c r="U49">
+        <v>35</v>
+      </c>
+      <c r="V49">
+        <v>35</v>
+      </c>
+      <c r="W49">
+        <v>31</v>
+      </c>
+      <c r="X49">
+        <v>31</v>
+      </c>
+      <c r="Y49">
+        <v>14</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>32</v>
+      </c>
+      <c r="AB49">
+        <v>34</v>
+      </c>
+      <c r="AC49">
+        <v>30</v>
+      </c>
+      <c r="AD49">
+        <v>22</v>
+      </c>
+      <c r="AE49">
+        <v>29</v>
+      </c>
+      <c r="AG49">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>32</v>
+      </c>
+      <c r="H50">
+        <v>27</v>
+      </c>
+      <c r="I50">
+        <v>23</v>
+      </c>
+      <c r="J50">
+        <v>15</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>22</v>
+      </c>
+      <c r="N50">
+        <v>22</v>
+      </c>
+      <c r="O50">
+        <v>28</v>
+      </c>
+      <c r="P50">
+        <v>24</v>
+      </c>
+      <c r="Q50">
+        <v>20</v>
+      </c>
+      <c r="R50">
+        <v>14</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>33</v>
+      </c>
+      <c r="U50">
+        <v>16</v>
+      </c>
+      <c r="V50">
+        <v>26</v>
+      </c>
+      <c r="W50">
+        <v>20</v>
+      </c>
+      <c r="X50">
+        <v>17</v>
+      </c>
+      <c r="Y50">
+        <v>11</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>26</v>
+      </c>
+      <c r="AB50">
+        <v>22</v>
+      </c>
+      <c r="AC50">
+        <v>23</v>
+      </c>
+      <c r="AD50">
+        <v>18</v>
+      </c>
+      <c r="AE50">
+        <v>20</v>
+      </c>
+      <c r="AG50">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>44</v>
+      </c>
+      <c r="H51">
+        <v>23</v>
+      </c>
+      <c r="I51">
+        <v>28</v>
+      </c>
+      <c r="J51">
+        <v>23</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
+        <v>36</v>
+      </c>
+      <c r="O51">
+        <v>17</v>
+      </c>
+      <c r="P51">
+        <v>27</v>
+      </c>
+      <c r="Q51">
+        <v>19</v>
+      </c>
+      <c r="R51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>35</v>
+      </c>
+      <c r="U51">
+        <v>23</v>
+      </c>
+      <c r="V51">
+        <v>25</v>
+      </c>
+      <c r="W51">
+        <v>24</v>
+      </c>
+      <c r="X51">
+        <v>20</v>
+      </c>
+      <c r="Y51">
+        <v>2</v>
+      </c>
+      <c r="AA51">
+        <v>22</v>
+      </c>
+      <c r="AB51">
+        <v>11</v>
+      </c>
+      <c r="AC51">
+        <v>30</v>
+      </c>
+      <c r="AD51">
+        <v>31</v>
+      </c>
+      <c r="AE51">
+        <v>13</v>
+      </c>
+      <c r="AG51">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>59</v>
+      </c>
+      <c r="D52">
+        <v>26</v>
+      </c>
+      <c r="E52">
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>55</v>
+      </c>
+      <c r="H52">
+        <v>43</v>
+      </c>
+      <c r="I52">
+        <v>52</v>
+      </c>
+      <c r="J52">
+        <v>45</v>
+      </c>
+      <c r="K52">
+        <v>28</v>
+      </c>
+      <c r="L52">
+        <v>15</v>
+      </c>
+      <c r="M52">
+        <v>43</v>
+      </c>
+      <c r="N52">
+        <v>52</v>
+      </c>
+      <c r="O52">
+        <v>48</v>
+      </c>
+      <c r="P52">
+        <v>62</v>
+      </c>
+      <c r="Q52">
+        <v>39</v>
+      </c>
+      <c r="R52">
+        <v>29</v>
+      </c>
+      <c r="S52">
+        <v>14</v>
+      </c>
+      <c r="T52">
+        <v>30</v>
+      </c>
+      <c r="U52">
+        <v>52</v>
+      </c>
+      <c r="V52">
+        <v>52</v>
+      </c>
+      <c r="W52">
+        <v>37</v>
+      </c>
+      <c r="X52">
+        <v>38</v>
+      </c>
+      <c r="Y52">
+        <v>16</v>
+      </c>
+      <c r="Z52">
+        <v>5</v>
+      </c>
+      <c r="AA52">
+        <v>47</v>
+      </c>
+      <c r="AB52">
+        <v>37</v>
+      </c>
+      <c r="AC52">
+        <v>35</v>
+      </c>
+      <c r="AD52">
+        <v>44</v>
+      </c>
+      <c r="AE52">
+        <v>37</v>
+      </c>
+      <c r="AG52">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>9</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>6</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>11</v>
+      </c>
+      <c r="N53">
+        <v>6</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53">
+        <v>6</v>
+      </c>
+      <c r="Q53">
+        <v>7</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>8</v>
+      </c>
+      <c r="U53">
+        <v>6</v>
+      </c>
+      <c r="V53">
+        <v>13</v>
+      </c>
+      <c r="W53">
+        <v>7</v>
+      </c>
+      <c r="X53">
+        <v>11</v>
+      </c>
+      <c r="Y53">
+        <v>4</v>
+      </c>
+      <c r="AA53">
+        <v>8</v>
+      </c>
+      <c r="AB53">
+        <v>4</v>
+      </c>
+      <c r="AC53">
+        <v>11</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>8</v>
+      </c>
+      <c r="AG53">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>17</v>
+      </c>
+      <c r="H54">
+        <v>21</v>
+      </c>
+      <c r="I54">
+        <v>16</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>28</v>
+      </c>
+      <c r="N54">
+        <v>14</v>
+      </c>
+      <c r="O54">
+        <v>18</v>
+      </c>
+      <c r="P54">
+        <v>19</v>
+      </c>
+      <c r="Q54">
+        <v>20</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>12</v>
+      </c>
+      <c r="U54">
+        <v>24</v>
+      </c>
+      <c r="V54">
+        <v>19</v>
+      </c>
+      <c r="W54">
+        <v>18</v>
+      </c>
+      <c r="X54">
+        <v>19</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>3</v>
+      </c>
+      <c r="AA54">
+        <v>14</v>
+      </c>
+      <c r="AB54">
+        <v>14</v>
+      </c>
+      <c r="AC54">
+        <v>21</v>
+      </c>
+      <c r="AD54">
+        <v>74</v>
+      </c>
+      <c r="AE54">
+        <v>23</v>
+      </c>
+      <c r="AG54">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>10</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
+        <v>4</v>
+      </c>
+      <c r="V55">
+        <v>2</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>3</v>
+      </c>
+      <c r="Y55">
+        <v>9</v>
+      </c>
+      <c r="AA55">
+        <v>6</v>
+      </c>
+      <c r="AB55">
+        <v>2</v>
+      </c>
+      <c r="AC55">
+        <v>4</v>
+      </c>
+      <c r="AD55">
+        <v>2</v>
+      </c>
+      <c r="AE55">
+        <v>4</v>
+      </c>
+      <c r="AG55">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>8</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>9</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <v>8</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <v>3</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AG56">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="M57">
+        <v>6</v>
+      </c>
+      <c r="N57">
+        <v>6</v>
+      </c>
+      <c r="O57">
+        <v>7</v>
+      </c>
+      <c r="P57">
+        <v>6</v>
+      </c>
+      <c r="Q57">
+        <v>7</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>6</v>
+      </c>
+      <c r="V57">
+        <v>4</v>
+      </c>
+      <c r="W57">
+        <v>6</v>
+      </c>
+      <c r="X57">
+        <v>4</v>
+      </c>
+      <c r="Y57">
+        <v>2</v>
+      </c>
+      <c r="AA57">
+        <v>7</v>
+      </c>
+      <c r="AB57">
+        <v>6</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>3</v>
+      </c>
+      <c r="AE57">
+        <v>5</v>
+      </c>
+      <c r="AG57">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AG57" xr:uid="{AFC2BCF1-614C-4B72-8DE9-95317B022DA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
+++ b/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E51FD4-65C2-40A7-8E7C-E371A4727791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1A9F66-5C1A-42C3-9667-C1D87F062C5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11390" tabRatio="719" activeTab="8" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="719" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="77">
   <si>
     <t>branchname</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>2022-09-01 - 2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-10-01 - 2022-10-30</t>
   </si>
 </sst>
 </file>
@@ -642,20 +645,20 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -857,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -958,7 +961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1660,12 +1663,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2794,12 +2797,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2876,7 +2879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3614,7 +3617,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3945,7 +3948,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4001,7 +4004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -4389,7 +4392,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -4567,7 +4570,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -4748,7 +4751,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -5077,6 +5080,4499 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80DC31A-AD51-4885-BB98-4F5D65DA2C63}">
   <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:AG57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44835</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44836</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44837</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44838</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44839</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44840</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44841</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44842</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44843</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44844</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44845</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44846</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44847</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44848</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44849</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>44850</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44851</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44852</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44853</v>
+      </c>
+      <c r="U2" s="1">
+        <v>44854</v>
+      </c>
+      <c r="V2" s="1">
+        <v>44855</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44856</v>
+      </c>
+      <c r="X2" s="1">
+        <v>44857</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>44858</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>44859</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44860</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>44861</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>44862</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>44863</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>44864</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>44865</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>67</v>
+      </c>
+      <c r="H4">
+        <v>51</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4">
+        <v>66</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>84</v>
+      </c>
+      <c r="O4">
+        <v>68</v>
+      </c>
+      <c r="P4">
+        <v>35</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>57</v>
+      </c>
+      <c r="S4">
+        <v>62</v>
+      </c>
+      <c r="T4">
+        <v>70</v>
+      </c>
+      <c r="U4">
+        <v>81</v>
+      </c>
+      <c r="V4">
+        <v>54</v>
+      </c>
+      <c r="W4">
+        <v>34</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>58</v>
+      </c>
+      <c r="Z4">
+        <v>71</v>
+      </c>
+      <c r="AA4">
+        <v>58</v>
+      </c>
+      <c r="AB4">
+        <v>61</v>
+      </c>
+      <c r="AC4">
+        <v>49</v>
+      </c>
+      <c r="AD4">
+        <v>34</v>
+      </c>
+      <c r="AE4">
+        <v>6</v>
+      </c>
+      <c r="AF4">
+        <v>71</v>
+      </c>
+      <c r="AG4">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>41</v>
+      </c>
+      <c r="L5">
+        <v>37</v>
+      </c>
+      <c r="M5">
+        <v>39</v>
+      </c>
+      <c r="N5">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>44</v>
+      </c>
+      <c r="S5">
+        <v>37</v>
+      </c>
+      <c r="T5">
+        <v>35</v>
+      </c>
+      <c r="U5">
+        <v>38</v>
+      </c>
+      <c r="V5">
+        <v>26</v>
+      </c>
+      <c r="W5">
+        <v>20</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>32</v>
+      </c>
+      <c r="Z5">
+        <v>35</v>
+      </c>
+      <c r="AA5">
+        <v>26</v>
+      </c>
+      <c r="AB5">
+        <v>31</v>
+      </c>
+      <c r="AC5">
+        <v>39</v>
+      </c>
+      <c r="AD5">
+        <v>19</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>32</v>
+      </c>
+      <c r="AG5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>88</v>
+      </c>
+      <c r="H6">
+        <v>68</v>
+      </c>
+      <c r="I6">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>119</v>
+      </c>
+      <c r="M6">
+        <v>80</v>
+      </c>
+      <c r="N6">
+        <v>83</v>
+      </c>
+      <c r="O6">
+        <v>68</v>
+      </c>
+      <c r="P6">
+        <v>43</v>
+      </c>
+      <c r="Q6">
+        <v>29</v>
+      </c>
+      <c r="R6">
+        <v>87</v>
+      </c>
+      <c r="S6">
+        <v>95</v>
+      </c>
+      <c r="T6">
+        <v>94</v>
+      </c>
+      <c r="U6">
+        <v>78</v>
+      </c>
+      <c r="V6">
+        <v>70</v>
+      </c>
+      <c r="W6">
+        <v>46</v>
+      </c>
+      <c r="X6">
+        <v>47</v>
+      </c>
+      <c r="Y6">
+        <v>74</v>
+      </c>
+      <c r="Z6">
+        <v>99</v>
+      </c>
+      <c r="AA6">
+        <v>83</v>
+      </c>
+      <c r="AB6">
+        <v>72</v>
+      </c>
+      <c r="AC6">
+        <v>70</v>
+      </c>
+      <c r="AD6">
+        <v>58</v>
+      </c>
+      <c r="AE6">
+        <v>48</v>
+      </c>
+      <c r="AF6">
+        <v>68</v>
+      </c>
+      <c r="AG6">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>84</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>43</v>
+      </c>
+      <c r="H8">
+        <v>58</v>
+      </c>
+      <c r="I8">
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>59</v>
+      </c>
+      <c r="L8">
+        <v>47</v>
+      </c>
+      <c r="M8">
+        <v>63</v>
+      </c>
+      <c r="N8">
+        <v>54</v>
+      </c>
+      <c r="O8">
+        <v>51</v>
+      </c>
+      <c r="P8">
+        <v>33</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>63</v>
+      </c>
+      <c r="S8">
+        <v>73</v>
+      </c>
+      <c r="T8">
+        <v>68</v>
+      </c>
+      <c r="U8">
+        <v>36</v>
+      </c>
+      <c r="V8">
+        <v>41</v>
+      </c>
+      <c r="W8">
+        <v>30</v>
+      </c>
+      <c r="X8">
+        <v>29</v>
+      </c>
+      <c r="Y8">
+        <v>37</v>
+      </c>
+      <c r="Z8">
+        <v>67</v>
+      </c>
+      <c r="AA8">
+        <v>59</v>
+      </c>
+      <c r="AB8">
+        <v>59</v>
+      </c>
+      <c r="AC8">
+        <v>48</v>
+      </c>
+      <c r="AD8">
+        <v>29</v>
+      </c>
+      <c r="AE8">
+        <v>18</v>
+      </c>
+      <c r="AF8">
+        <v>60</v>
+      </c>
+      <c r="AG8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>27</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>11</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>11</v>
+      </c>
+      <c r="U9">
+        <v>14</v>
+      </c>
+      <c r="V9">
+        <v>13</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>11</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>21</v>
+      </c>
+      <c r="AB9">
+        <v>6</v>
+      </c>
+      <c r="AC9">
+        <v>12</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AF9">
+        <v>7</v>
+      </c>
+      <c r="AG9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>12</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10">
+        <v>13</v>
+      </c>
+      <c r="V10">
+        <v>12</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>15</v>
+      </c>
+      <c r="AA10">
+        <v>11</v>
+      </c>
+      <c r="AB10">
+        <v>8</v>
+      </c>
+      <c r="AC10">
+        <v>16</v>
+      </c>
+      <c r="AD10">
+        <v>6</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>6</v>
+      </c>
+      <c r="AG10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AF11">
+        <v>13</v>
+      </c>
+      <c r="AG11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>7</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>3</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>3</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AG14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>12</v>
+      </c>
+      <c r="U15">
+        <v>8</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>7</v>
+      </c>
+      <c r="AB15">
+        <v>9</v>
+      </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <v>6</v>
+      </c>
+      <c r="AG15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>36</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>17</v>
+      </c>
+      <c r="S16">
+        <v>20</v>
+      </c>
+      <c r="T16">
+        <v>17</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="Y16">
+        <v>8</v>
+      </c>
+      <c r="Z16">
+        <v>8</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+      <c r="AB16">
+        <v>9</v>
+      </c>
+      <c r="AC16">
+        <v>37</v>
+      </c>
+      <c r="AD16">
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <v>8</v>
+      </c>
+      <c r="AG16">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>9</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>23</v>
+      </c>
+      <c r="AB17">
+        <v>5</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>7</v>
+      </c>
+      <c r="AG17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+      <c r="AA18">
+        <v>5</v>
+      </c>
+      <c r="AB18">
+        <v>3</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>3</v>
+      </c>
+      <c r="AG18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>33</v>
+      </c>
+      <c r="M19">
+        <v>28</v>
+      </c>
+      <c r="N19">
+        <v>29</v>
+      </c>
+      <c r="O19">
+        <v>19</v>
+      </c>
+      <c r="P19">
+        <v>17</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>25</v>
+      </c>
+      <c r="S19">
+        <v>21</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>17</v>
+      </c>
+      <c r="V19">
+        <v>17</v>
+      </c>
+      <c r="W19">
+        <v>15</v>
+      </c>
+      <c r="Y19">
+        <v>28</v>
+      </c>
+      <c r="Z19">
+        <v>22</v>
+      </c>
+      <c r="AA19">
+        <v>15</v>
+      </c>
+      <c r="AB19">
+        <v>15</v>
+      </c>
+      <c r="AC19">
+        <v>19</v>
+      </c>
+      <c r="AD19">
+        <v>16</v>
+      </c>
+      <c r="AF19">
+        <v>24</v>
+      </c>
+      <c r="AG19">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>4</v>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AD20">
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>42</v>
+      </c>
+      <c r="M21">
+        <v>33</v>
+      </c>
+      <c r="N21">
+        <v>53</v>
+      </c>
+      <c r="O21">
+        <v>27</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>31</v>
+      </c>
+      <c r="S21">
+        <v>31</v>
+      </c>
+      <c r="T21">
+        <v>28</v>
+      </c>
+      <c r="U21">
+        <v>45</v>
+      </c>
+      <c r="V21">
+        <v>18</v>
+      </c>
+      <c r="W21">
+        <v>7</v>
+      </c>
+      <c r="X21">
+        <v>11</v>
+      </c>
+      <c r="Y21">
+        <v>25</v>
+      </c>
+      <c r="Z21">
+        <v>33</v>
+      </c>
+      <c r="AA21">
+        <v>28</v>
+      </c>
+      <c r="AB21">
+        <v>34</v>
+      </c>
+      <c r="AC21">
+        <v>18</v>
+      </c>
+      <c r="AD21">
+        <v>6</v>
+      </c>
+      <c r="AE21">
+        <v>7</v>
+      </c>
+      <c r="AF21">
+        <v>19</v>
+      </c>
+      <c r="AG21">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+      <c r="Z22">
+        <v>4</v>
+      </c>
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>3</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>8</v>
+      </c>
+      <c r="AG22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>27</v>
+      </c>
+      <c r="H23">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>33</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>35</v>
+      </c>
+      <c r="N23">
+        <v>44</v>
+      </c>
+      <c r="O23">
+        <v>27</v>
+      </c>
+      <c r="P23">
+        <v>14</v>
+      </c>
+      <c r="R23">
+        <v>35</v>
+      </c>
+      <c r="S23">
+        <v>32</v>
+      </c>
+      <c r="T23">
+        <v>27</v>
+      </c>
+      <c r="U23">
+        <v>38</v>
+      </c>
+      <c r="V23">
+        <v>33</v>
+      </c>
+      <c r="W23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>38</v>
+      </c>
+      <c r="Z23">
+        <v>49</v>
+      </c>
+      <c r="AA23">
+        <v>36</v>
+      </c>
+      <c r="AB23">
+        <v>30</v>
+      </c>
+      <c r="AC23">
+        <v>29</v>
+      </c>
+      <c r="AD23">
+        <v>12</v>
+      </c>
+      <c r="AF23">
+        <v>31</v>
+      </c>
+      <c r="AG23">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>11</v>
+      </c>
+      <c r="AG24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>33</v>
+      </c>
+      <c r="N25">
+        <v>42</v>
+      </c>
+      <c r="O25">
+        <v>27</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>33</v>
+      </c>
+      <c r="S25">
+        <v>19</v>
+      </c>
+      <c r="T25">
+        <v>28</v>
+      </c>
+      <c r="U25">
+        <v>23</v>
+      </c>
+      <c r="V25">
+        <v>24</v>
+      </c>
+      <c r="W25">
+        <v>19</v>
+      </c>
+      <c r="X25">
+        <v>6</v>
+      </c>
+      <c r="Y25">
+        <v>25</v>
+      </c>
+      <c r="Z25">
+        <v>26</v>
+      </c>
+      <c r="AA25">
+        <v>32</v>
+      </c>
+      <c r="AB25">
+        <v>21</v>
+      </c>
+      <c r="AC25">
+        <v>19</v>
+      </c>
+      <c r="AD25">
+        <v>22</v>
+      </c>
+      <c r="AE25">
+        <v>2</v>
+      </c>
+      <c r="AF25">
+        <v>21</v>
+      </c>
+      <c r="AG25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>80</v>
+      </c>
+      <c r="C26">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>111</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26">
+        <v>82</v>
+      </c>
+      <c r="G26">
+        <v>85</v>
+      </c>
+      <c r="H26">
+        <v>78</v>
+      </c>
+      <c r="I26">
+        <v>84</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>71</v>
+      </c>
+      <c r="L26">
+        <v>81</v>
+      </c>
+      <c r="M26">
+        <v>97</v>
+      </c>
+      <c r="N26">
+        <v>86</v>
+      </c>
+      <c r="O26">
+        <v>86</v>
+      </c>
+      <c r="P26">
+        <v>65</v>
+      </c>
+      <c r="Q26">
+        <v>33</v>
+      </c>
+      <c r="R26">
+        <v>94</v>
+      </c>
+      <c r="S26">
+        <v>97</v>
+      </c>
+      <c r="T26">
+        <v>83</v>
+      </c>
+      <c r="U26">
+        <v>74</v>
+      </c>
+      <c r="V26">
+        <v>84</v>
+      </c>
+      <c r="W26">
+        <v>70</v>
+      </c>
+      <c r="X26">
+        <v>35</v>
+      </c>
+      <c r="Y26">
+        <v>82</v>
+      </c>
+      <c r="Z26">
+        <v>101</v>
+      </c>
+      <c r="AA26">
+        <v>101</v>
+      </c>
+      <c r="AB26">
+        <v>76</v>
+      </c>
+      <c r="AC26">
+        <v>82</v>
+      </c>
+      <c r="AD26">
+        <v>80</v>
+      </c>
+      <c r="AE26">
+        <v>53</v>
+      </c>
+      <c r="AF26">
+        <v>92</v>
+      </c>
+      <c r="AG26">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <v>12</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>9</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>11</v>
+      </c>
+      <c r="V27">
+        <v>7</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>6</v>
+      </c>
+      <c r="Z27">
+        <v>9</v>
+      </c>
+      <c r="AA27">
+        <v>4</v>
+      </c>
+      <c r="AB27">
+        <v>5</v>
+      </c>
+      <c r="AC27">
+        <v>7</v>
+      </c>
+      <c r="AD27">
+        <v>3</v>
+      </c>
+      <c r="AF27">
+        <v>6</v>
+      </c>
+      <c r="AG27">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>13</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>13</v>
+      </c>
+      <c r="P29">
+        <v>9</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>15</v>
+      </c>
+      <c r="S29">
+        <v>14</v>
+      </c>
+      <c r="T29">
+        <v>15</v>
+      </c>
+      <c r="U29">
+        <v>16</v>
+      </c>
+      <c r="W29">
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+      <c r="Z29">
+        <v>8</v>
+      </c>
+      <c r="AA29">
+        <v>11</v>
+      </c>
+      <c r="AB29">
+        <v>7</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>9</v>
+      </c>
+      <c r="AF29">
+        <v>19</v>
+      </c>
+      <c r="AG29">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>13</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
+        <v>3</v>
+      </c>
+      <c r="AB30">
+        <v>3</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>6</v>
+      </c>
+      <c r="AG30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>21</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>18</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>17</v>
+      </c>
+      <c r="N31">
+        <v>19</v>
+      </c>
+      <c r="O31">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>17</v>
+      </c>
+      <c r="S31">
+        <v>25</v>
+      </c>
+      <c r="T31">
+        <v>20</v>
+      </c>
+      <c r="U31">
+        <v>19</v>
+      </c>
+      <c r="V31">
+        <v>16</v>
+      </c>
+      <c r="W31">
+        <v>20</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>15</v>
+      </c>
+      <c r="Z31">
+        <v>26</v>
+      </c>
+      <c r="AA31">
+        <v>16</v>
+      </c>
+      <c r="AB31">
+        <v>13</v>
+      </c>
+      <c r="AC31">
+        <v>22</v>
+      </c>
+      <c r="AD31">
+        <v>6</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>19</v>
+      </c>
+      <c r="AG31">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>3</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AG32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>13</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>5</v>
+      </c>
+      <c r="AA33">
+        <v>6</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>4</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>45</v>
+      </c>
+      <c r="E34">
+        <v>23</v>
+      </c>
+      <c r="F34">
+        <v>41</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>26</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>37</v>
+      </c>
+      <c r="L34">
+        <v>34</v>
+      </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
+      <c r="N34">
+        <v>24</v>
+      </c>
+      <c r="O34">
+        <v>25</v>
+      </c>
+      <c r="P34">
+        <v>17</v>
+      </c>
+      <c r="R34">
+        <v>35</v>
+      </c>
+      <c r="S34">
+        <v>34</v>
+      </c>
+      <c r="T34">
+        <v>35</v>
+      </c>
+      <c r="U34">
+        <v>37</v>
+      </c>
+      <c r="V34">
+        <v>20</v>
+      </c>
+      <c r="W34">
+        <v>16</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>39</v>
+      </c>
+      <c r="Z34">
+        <v>41</v>
+      </c>
+      <c r="AA34">
+        <v>41</v>
+      </c>
+      <c r="AB34">
+        <v>38</v>
+      </c>
+      <c r="AC34">
+        <v>22</v>
+      </c>
+      <c r="AD34">
+        <v>15</v>
+      </c>
+      <c r="AF34">
+        <v>45</v>
+      </c>
+      <c r="AG34">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>14</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>21</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>13</v>
+      </c>
+      <c r="K35">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>12</v>
+      </c>
+      <c r="M35">
+        <v>21</v>
+      </c>
+      <c r="N35">
+        <v>19</v>
+      </c>
+      <c r="O35">
+        <v>26</v>
+      </c>
+      <c r="P35">
+        <v>9</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>24</v>
+      </c>
+      <c r="S35">
+        <v>19</v>
+      </c>
+      <c r="T35">
+        <v>21</v>
+      </c>
+      <c r="U35">
+        <v>18</v>
+      </c>
+      <c r="V35">
+        <v>24</v>
+      </c>
+      <c r="W35">
+        <v>11</v>
+      </c>
+      <c r="Y35">
+        <v>21</v>
+      </c>
+      <c r="Z35">
+        <v>15</v>
+      </c>
+      <c r="AA35">
+        <v>16</v>
+      </c>
+      <c r="AB35">
+        <v>11</v>
+      </c>
+      <c r="AC35">
+        <v>21</v>
+      </c>
+      <c r="AD35">
+        <v>9</v>
+      </c>
+      <c r="AE35">
+        <v>2</v>
+      </c>
+      <c r="AF35">
+        <v>31</v>
+      </c>
+      <c r="AG35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>17</v>
+      </c>
+      <c r="L36">
+        <v>13</v>
+      </c>
+      <c r="M36">
+        <v>14</v>
+      </c>
+      <c r="N36">
+        <v>19</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>26</v>
+      </c>
+      <c r="S36">
+        <v>14</v>
+      </c>
+      <c r="T36">
+        <v>22</v>
+      </c>
+      <c r="U36">
+        <v>18</v>
+      </c>
+      <c r="V36">
+        <v>15</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="Y36">
+        <v>18</v>
+      </c>
+      <c r="Z36">
+        <v>15</v>
+      </c>
+      <c r="AA36">
+        <v>22</v>
+      </c>
+      <c r="AB36">
+        <v>12</v>
+      </c>
+      <c r="AC36">
+        <v>13</v>
+      </c>
+      <c r="AD36">
+        <v>7</v>
+      </c>
+      <c r="AF36">
+        <v>15</v>
+      </c>
+      <c r="AG36">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>75</v>
+      </c>
+      <c r="E37">
+        <v>65</v>
+      </c>
+      <c r="F37">
+        <v>75</v>
+      </c>
+      <c r="G37">
+        <v>80</v>
+      </c>
+      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <v>42</v>
+      </c>
+      <c r="K37">
+        <v>65</v>
+      </c>
+      <c r="L37">
+        <v>68</v>
+      </c>
+      <c r="M37">
+        <v>59</v>
+      </c>
+      <c r="N37">
+        <v>67</v>
+      </c>
+      <c r="O37">
+        <v>68</v>
+      </c>
+      <c r="P37">
+        <v>34</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>69</v>
+      </c>
+      <c r="S37">
+        <v>73</v>
+      </c>
+      <c r="T37">
+        <v>74</v>
+      </c>
+      <c r="U37">
+        <v>79</v>
+      </c>
+      <c r="V37">
+        <v>81</v>
+      </c>
+      <c r="W37">
+        <v>32</v>
+      </c>
+      <c r="X37">
+        <v>5</v>
+      </c>
+      <c r="Y37">
+        <v>67</v>
+      </c>
+      <c r="Z37">
+        <v>55</v>
+      </c>
+      <c r="AA37">
+        <v>68</v>
+      </c>
+      <c r="AB37">
+        <v>77</v>
+      </c>
+      <c r="AC37">
+        <v>51</v>
+      </c>
+      <c r="AD37">
+        <v>33</v>
+      </c>
+      <c r="AE37">
+        <v>5</v>
+      </c>
+      <c r="AF37">
+        <v>71</v>
+      </c>
+      <c r="AG37">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>13</v>
+      </c>
+      <c r="H38">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>12</v>
+      </c>
+      <c r="N38">
+        <v>18</v>
+      </c>
+      <c r="O38">
+        <v>14</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>26</v>
+      </c>
+      <c r="S38">
+        <v>16</v>
+      </c>
+      <c r="T38">
+        <v>11</v>
+      </c>
+      <c r="U38">
+        <v>18</v>
+      </c>
+      <c r="V38">
+        <v>14</v>
+      </c>
+      <c r="W38">
+        <v>11</v>
+      </c>
+      <c r="Y38">
+        <v>16</v>
+      </c>
+      <c r="Z38">
+        <v>18</v>
+      </c>
+      <c r="AA38">
+        <v>12</v>
+      </c>
+      <c r="AB38">
+        <v>20</v>
+      </c>
+      <c r="AC38">
+        <v>19</v>
+      </c>
+      <c r="AD38">
+        <v>5</v>
+      </c>
+      <c r="AF38">
+        <v>12</v>
+      </c>
+      <c r="AG38">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>45</v>
+      </c>
+      <c r="E39">
+        <v>62</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39">
+        <v>61</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>18</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>60</v>
+      </c>
+      <c r="M39">
+        <v>32</v>
+      </c>
+      <c r="N39">
+        <v>54</v>
+      </c>
+      <c r="O39">
+        <v>37</v>
+      </c>
+      <c r="P39">
+        <v>25</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>45</v>
+      </c>
+      <c r="S39">
+        <v>50</v>
+      </c>
+      <c r="T39">
+        <v>44</v>
+      </c>
+      <c r="U39">
+        <v>46</v>
+      </c>
+      <c r="V39">
+        <v>32</v>
+      </c>
+      <c r="W39">
+        <v>21</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>38</v>
+      </c>
+      <c r="Z39">
+        <v>47</v>
+      </c>
+      <c r="AA39">
+        <v>46</v>
+      </c>
+      <c r="AB39">
+        <v>39</v>
+      </c>
+      <c r="AC39">
+        <v>27</v>
+      </c>
+      <c r="AD39">
+        <v>38</v>
+      </c>
+      <c r="AE39">
+        <v>4</v>
+      </c>
+      <c r="AF39">
+        <v>35</v>
+      </c>
+      <c r="AG39">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>4</v>
+      </c>
+      <c r="AB40">
+        <v>2</v>
+      </c>
+      <c r="AD40">
+        <v>2</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="Z41">
+        <v>3</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>4</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>22</v>
+      </c>
+      <c r="G42">
+        <v>28</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>16</v>
+      </c>
+      <c r="M42">
+        <v>8</v>
+      </c>
+      <c r="N42">
+        <v>25</v>
+      </c>
+      <c r="O42">
+        <v>13</v>
+      </c>
+      <c r="R42">
+        <v>24</v>
+      </c>
+      <c r="S42">
+        <v>8</v>
+      </c>
+      <c r="T42">
+        <v>30</v>
+      </c>
+      <c r="Z42">
+        <v>16</v>
+      </c>
+      <c r="AA42">
+        <v>27</v>
+      </c>
+      <c r="AB42">
+        <v>27</v>
+      </c>
+      <c r="AF42">
+        <v>12</v>
+      </c>
+      <c r="AG42">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>74</v>
+      </c>
+      <c r="E43">
+        <v>69</v>
+      </c>
+      <c r="F43">
+        <v>66</v>
+      </c>
+      <c r="G43">
+        <v>65</v>
+      </c>
+      <c r="H43">
+        <v>46</v>
+      </c>
+      <c r="K43">
+        <v>73</v>
+      </c>
+      <c r="L43">
+        <v>65</v>
+      </c>
+      <c r="M43">
+        <v>46</v>
+      </c>
+      <c r="N43">
+        <v>87</v>
+      </c>
+      <c r="O43">
+        <v>51</v>
+      </c>
+      <c r="R43">
+        <v>75</v>
+      </c>
+      <c r="S43">
+        <v>62</v>
+      </c>
+      <c r="T43">
+        <v>65</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>74</v>
+      </c>
+      <c r="AA43">
+        <v>88</v>
+      </c>
+      <c r="AB43">
+        <v>94</v>
+      </c>
+      <c r="AC43">
+        <v>48</v>
+      </c>
+      <c r="AF43">
+        <v>68</v>
+      </c>
+      <c r="AG43">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="Z44">
+        <v>4</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AG44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>23</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>21</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>12</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>13</v>
+      </c>
+      <c r="T45">
+        <v>6</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>2</v>
+      </c>
+      <c r="AA45">
+        <v>3</v>
+      </c>
+      <c r="AB45">
+        <v>5</v>
+      </c>
+      <c r="AC45">
+        <v>3</v>
+      </c>
+      <c r="AF45">
+        <v>10</v>
+      </c>
+      <c r="AG45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>37</v>
+      </c>
+      <c r="H46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>21</v>
+      </c>
+      <c r="N46">
+        <v>16</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>22</v>
+      </c>
+      <c r="Z46">
+        <v>10</v>
+      </c>
+      <c r="AA46">
+        <v>15</v>
+      </c>
+      <c r="AB46">
+        <v>15</v>
+      </c>
+      <c r="AC46">
+        <v>10</v>
+      </c>
+      <c r="AG46">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>12</v>
+      </c>
+      <c r="N47">
+        <v>9</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="P47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <v>9</v>
+      </c>
+      <c r="U47">
+        <v>11</v>
+      </c>
+      <c r="V47">
+        <v>6</v>
+      </c>
+      <c r="W47">
+        <v>3</v>
+      </c>
+      <c r="Y47">
+        <v>3</v>
+      </c>
+      <c r="AC47">
+        <v>2</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <v>3</v>
+      </c>
+      <c r="AG47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>18</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>23</v>
+      </c>
+      <c r="L48">
+        <v>12</v>
+      </c>
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>27</v>
+      </c>
+      <c r="O48">
+        <v>16</v>
+      </c>
+      <c r="P48">
+        <v>7</v>
+      </c>
+      <c r="R48">
+        <v>18</v>
+      </c>
+      <c r="S48">
+        <v>24</v>
+      </c>
+      <c r="T48">
+        <v>40</v>
+      </c>
+      <c r="U48">
+        <v>35</v>
+      </c>
+      <c r="V48">
+        <v>22</v>
+      </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>13</v>
+      </c>
+      <c r="Z48">
+        <v>25</v>
+      </c>
+      <c r="AA48">
+        <v>24</v>
+      </c>
+      <c r="AB48">
+        <v>17</v>
+      </c>
+      <c r="AC48">
+        <v>20</v>
+      </c>
+      <c r="AD48">
+        <v>7</v>
+      </c>
+      <c r="AF48">
+        <v>13</v>
+      </c>
+      <c r="AG48">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>34</v>
+      </c>
+      <c r="E49">
+        <v>29</v>
+      </c>
+      <c r="F49">
+        <v>18</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
+      </c>
+      <c r="H49">
+        <v>32</v>
+      </c>
+      <c r="I49">
+        <v>15</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>25</v>
+      </c>
+      <c r="L49">
+        <v>23</v>
+      </c>
+      <c r="M49">
+        <v>21</v>
+      </c>
+      <c r="N49">
+        <v>31</v>
+      </c>
+      <c r="O49">
+        <v>33</v>
+      </c>
+      <c r="P49">
+        <v>15</v>
+      </c>
+      <c r="R49">
+        <v>33</v>
+      </c>
+      <c r="S49">
+        <v>32</v>
+      </c>
+      <c r="T49">
+        <v>24</v>
+      </c>
+      <c r="U49">
+        <v>32</v>
+      </c>
+      <c r="V49">
+        <v>31</v>
+      </c>
+      <c r="W49">
+        <v>14</v>
+      </c>
+      <c r="X49">
+        <v>2</v>
+      </c>
+      <c r="Y49">
+        <v>38</v>
+      </c>
+      <c r="Z49">
+        <v>21</v>
+      </c>
+      <c r="AA49">
+        <v>27</v>
+      </c>
+      <c r="AB49">
+        <v>31</v>
+      </c>
+      <c r="AC49">
+        <v>41</v>
+      </c>
+      <c r="AD49">
+        <v>11</v>
+      </c>
+      <c r="AF49">
+        <v>26</v>
+      </c>
+      <c r="AG49">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>22</v>
+      </c>
+      <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>30</v>
+      </c>
+      <c r="H50">
+        <v>24</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>18</v>
+      </c>
+      <c r="L50">
+        <v>13</v>
+      </c>
+      <c r="M50">
+        <v>21</v>
+      </c>
+      <c r="N50">
+        <v>23</v>
+      </c>
+      <c r="O50">
+        <v>14</v>
+      </c>
+      <c r="P50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>33</v>
+      </c>
+      <c r="S50">
+        <v>21</v>
+      </c>
+      <c r="T50">
+        <v>19</v>
+      </c>
+      <c r="U50">
+        <v>25</v>
+      </c>
+      <c r="V50">
+        <v>17</v>
+      </c>
+      <c r="W50">
+        <v>3</v>
+      </c>
+      <c r="X50">
+        <v>3</v>
+      </c>
+      <c r="Y50">
+        <v>30</v>
+      </c>
+      <c r="Z50">
+        <v>26</v>
+      </c>
+      <c r="AA50">
+        <v>25</v>
+      </c>
+      <c r="AB50">
+        <v>24</v>
+      </c>
+      <c r="AC50">
+        <v>25</v>
+      </c>
+      <c r="AD50">
+        <v>11</v>
+      </c>
+      <c r="AF50">
+        <v>20</v>
+      </c>
+      <c r="AG50">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>31</v>
+      </c>
+      <c r="E51">
+        <v>21</v>
+      </c>
+      <c r="F51">
+        <v>22</v>
+      </c>
+      <c r="G51">
+        <v>33</v>
+      </c>
+      <c r="H51">
+        <v>13</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>27</v>
+      </c>
+      <c r="L51">
+        <v>26</v>
+      </c>
+      <c r="M51">
+        <v>20</v>
+      </c>
+      <c r="N51">
+        <v>25</v>
+      </c>
+      <c r="O51">
+        <v>19</v>
+      </c>
+      <c r="P51">
+        <v>5</v>
+      </c>
+      <c r="R51">
+        <v>23</v>
+      </c>
+      <c r="S51">
+        <v>26</v>
+      </c>
+      <c r="T51">
+        <v>15</v>
+      </c>
+      <c r="U51">
+        <v>26</v>
+      </c>
+      <c r="V51">
+        <v>18</v>
+      </c>
+      <c r="W51">
+        <v>6</v>
+      </c>
+      <c r="Y51">
+        <v>10</v>
+      </c>
+      <c r="Z51">
+        <v>36</v>
+      </c>
+      <c r="AA51">
+        <v>22</v>
+      </c>
+      <c r="AB51">
+        <v>26</v>
+      </c>
+      <c r="AC51">
+        <v>15</v>
+      </c>
+      <c r="AD51">
+        <v>25</v>
+      </c>
+      <c r="AF51">
+        <v>12</v>
+      </c>
+      <c r="AG51">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>44</v>
+      </c>
+      <c r="F52">
+        <v>40</v>
+      </c>
+      <c r="G52">
+        <v>55</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>36</v>
+      </c>
+      <c r="J52">
+        <v>18</v>
+      </c>
+      <c r="K52">
+        <v>59</v>
+      </c>
+      <c r="L52">
+        <v>39</v>
+      </c>
+      <c r="M52">
+        <v>57</v>
+      </c>
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>47</v>
+      </c>
+      <c r="P52">
+        <v>25</v>
+      </c>
+      <c r="Q52">
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <v>43</v>
+      </c>
+      <c r="S52">
+        <v>47</v>
+      </c>
+      <c r="T52">
+        <v>38</v>
+      </c>
+      <c r="U52">
+        <v>58</v>
+      </c>
+      <c r="V52">
+        <v>36</v>
+      </c>
+      <c r="W52">
+        <v>25</v>
+      </c>
+      <c r="X52">
+        <v>10</v>
+      </c>
+      <c r="Y52">
+        <v>36</v>
+      </c>
+      <c r="Z52">
+        <v>44</v>
+      </c>
+      <c r="AA52">
+        <v>35</v>
+      </c>
+      <c r="AB52">
+        <v>29</v>
+      </c>
+      <c r="AC52">
+        <v>41</v>
+      </c>
+      <c r="AD52">
+        <v>27</v>
+      </c>
+      <c r="AE52">
+        <v>13</v>
+      </c>
+      <c r="AF52">
+        <v>24</v>
+      </c>
+      <c r="AG52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>8</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>8</v>
+      </c>
+      <c r="N53">
+        <v>5</v>
+      </c>
+      <c r="O53">
+        <v>12</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>10</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>7</v>
+      </c>
+      <c r="U53">
+        <v>7</v>
+      </c>
+      <c r="V53">
+        <v>5</v>
+      </c>
+      <c r="W53">
+        <v>4</v>
+      </c>
+      <c r="Y53">
+        <v>7</v>
+      </c>
+      <c r="Z53">
+        <v>5</v>
+      </c>
+      <c r="AA53">
+        <v>8</v>
+      </c>
+      <c r="AB53">
+        <v>8</v>
+      </c>
+      <c r="AC53">
+        <v>5</v>
+      </c>
+      <c r="AD53">
+        <v>2</v>
+      </c>
+      <c r="AF53">
+        <v>6</v>
+      </c>
+      <c r="AG53">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>16</v>
+      </c>
+      <c r="F54">
+        <v>26</v>
+      </c>
+      <c r="G54">
+        <v>24</v>
+      </c>
+      <c r="H54">
+        <v>20</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>17</v>
+      </c>
+      <c r="L54">
+        <v>21</v>
+      </c>
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54">
+        <v>12</v>
+      </c>
+      <c r="O54">
+        <v>15</v>
+      </c>
+      <c r="P54">
+        <v>7</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>20</v>
+      </c>
+      <c r="S54">
+        <v>20</v>
+      </c>
+      <c r="T54">
+        <v>19</v>
+      </c>
+      <c r="U54">
+        <v>23</v>
+      </c>
+      <c r="V54">
+        <v>15</v>
+      </c>
+      <c r="W54">
+        <v>4</v>
+      </c>
+      <c r="Y54">
+        <v>16</v>
+      </c>
+      <c r="Z54">
+        <v>98</v>
+      </c>
+      <c r="AA54">
+        <v>23</v>
+      </c>
+      <c r="AB54">
+        <v>14</v>
+      </c>
+      <c r="AC54">
+        <v>18</v>
+      </c>
+      <c r="AD54">
+        <v>7</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
+      <c r="AF54">
+        <v>16</v>
+      </c>
+      <c r="AG54">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55">
+        <v>4</v>
+      </c>
+      <c r="P55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>6</v>
+      </c>
+      <c r="S55">
+        <v>3</v>
+      </c>
+      <c r="T55">
+        <v>4</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>5</v>
+      </c>
+      <c r="Y55">
+        <v>3</v>
+      </c>
+      <c r="Z55">
+        <v>7</v>
+      </c>
+      <c r="AA55">
+        <v>2</v>
+      </c>
+      <c r="AB55">
+        <v>2</v>
+      </c>
+      <c r="AC55">
+        <v>4</v>
+      </c>
+      <c r="AD55">
+        <v>3</v>
+      </c>
+      <c r="AF55">
+        <v>9</v>
+      </c>
+      <c r="AG55">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>12</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>8</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>5</v>
+      </c>
+      <c r="Z56">
+        <v>3</v>
+      </c>
+      <c r="AA56">
+        <v>3</v>
+      </c>
+      <c r="AB56">
+        <v>3</v>
+      </c>
+      <c r="AD56">
+        <v>2</v>
+      </c>
+      <c r="AF56">
+        <v>2</v>
+      </c>
+      <c r="AG56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>6</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+      <c r="R57">
+        <v>10</v>
+      </c>
+      <c r="S57">
+        <v>5</v>
+      </c>
+      <c r="T57">
+        <v>6</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="V57">
+        <v>2</v>
+      </c>
+      <c r="W57">
+        <v>3</v>
+      </c>
+      <c r="Y57">
+        <v>9</v>
+      </c>
+      <c r="Z57">
+        <v>10</v>
+      </c>
+      <c r="AA57">
+        <v>3</v>
+      </c>
+      <c r="AB57">
+        <v>3</v>
+      </c>
+      <c r="AC57">
+        <v>7</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E281BB9B-3635-450C-9750-AAA8261D8A1F}">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="B2:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5086,13 +9582,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5130,9 +9626,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E281BB9B-3635-450C-9750-AAA8261D8A1F}">
-  <sheetPr codeName="Sheet22"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB9782-1E9D-42E0-A87D-FAC2219B8813}">
+  <sheetPr codeName="Sheet24"/>
   <dimension ref="B2:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5142,13 +9638,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5186,62 +9682,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB9782-1E9D-42E0-A87D-FAC2219B8813}">
-  <sheetPr codeName="Sheet24"/>
-  <dimension ref="B2:AF2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3351FCFD-2A2A-4342-87F8-3564DBC5D720}">
   <sheetPr codeName="Sheet4"/>
@@ -5254,13 +9694,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5361,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5462,7 +9902,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5563,7 +10003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5655,7 +10095,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5747,7 +10187,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5839,7 +10279,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5892,7 +10332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -5984,7 +10424,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -6064,7 +10504,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6132,7 +10572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -6194,7 +10634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -6205,12 +10645,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -6272,7 +10712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -6337,7 +10777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -6417,7 +10857,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -6494,7 +10934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -6565,7 +11005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6648,7 +11088,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -6713,7 +11153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6805,7 +11245,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6858,7 +11298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6944,7 +11384,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -7018,7 +11458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -7092,7 +11532,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -7184,7 +11624,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -7264,12 +11704,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7343,7 +11783,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7414,7 +11854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7497,7 +11937,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -7550,7 +11990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -7624,7 +12064,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -7701,7 +12141,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -7790,7 +12230,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -7873,7 +12313,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -7965,7 +12405,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -8042,7 +12482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -8128,7 +12568,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -8169,7 +12609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -8228,7 +12668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -8287,7 +12727,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -8349,7 +12789,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -8405,7 +12845,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -8464,7 +12904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -8511,7 +12951,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -8579,7 +13019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -8662,7 +13102,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -8748,7 +13188,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -8831,7 +13271,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -8914,7 +13354,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -9006,7 +13446,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -9083,7 +13523,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -9169,7 +13609,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -9249,7 +13689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -9311,7 +13751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -9409,13 +13849,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9516,7 +13956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9617,7 +14057,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9718,7 +14158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -9819,7 +14259,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -9917,7 +14357,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10018,7 +14458,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -10071,7 +14511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -10172,7 +14612,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -10261,7 +14701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -10353,7 +14793,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -10424,7 +14864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -10441,12 +14881,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -10511,7 +14951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -10588,7 +15028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -10677,7 +15117,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -10763,7 +15203,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -10843,7 +15283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -10941,7 +15381,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -11024,7 +15464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -11125,7 +15565,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -11187,7 +15627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -11282,7 +15722,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -11365,7 +15805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -11460,7 +15900,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -11561,7 +16001,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -11650,12 +16090,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -11738,7 +16178,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -11815,7 +16255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -11901,7 +16341,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -11954,7 +16394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -12031,7 +16471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -12120,7 +16560,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -12218,7 +16658,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -12316,7 +16756,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -12417,7 +16857,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -12506,7 +16946,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -12607,7 +17047,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -12657,7 +17097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -12725,7 +17165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -12781,7 +17221,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -12837,7 +17277,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -12887,7 +17327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -12934,7 +17374,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -12984,7 +17424,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -13064,7 +17504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -13153,7 +17593,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -13251,7 +17691,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -13343,7 +17783,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -13432,7 +17872,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -13533,7 +17973,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -13616,7 +18056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -13711,7 +18151,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -13794,7 +18234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -13874,7 +18314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -13981,13 +18421,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14088,7 +18528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14189,7 +18629,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -14290,7 +18730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -14385,7 +18825,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -14480,7 +18920,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -14578,7 +19018,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -14643,7 +19083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -14741,7 +19181,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -14830,7 +19270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -14919,7 +19359,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -14987,7 +19427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -15010,12 +19450,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -15080,7 +19520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -15151,7 +19591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -15237,7 +19677,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -15323,7 +19763,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -15406,7 +19846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -15498,7 +19938,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -15575,7 +20015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -15673,7 +20113,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -15729,7 +20169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -15821,7 +20261,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -15895,7 +20335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -15990,7 +20430,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -16088,7 +20528,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -16177,12 +20617,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -16271,7 +20711,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -16348,7 +20788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -16443,7 +20883,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -16493,7 +20933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -16558,7 +20998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -16647,7 +21087,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -16739,7 +21179,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -16837,7 +21277,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -16935,7 +21375,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -17027,7 +21467,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -17119,7 +21559,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -17169,7 +21609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -17240,7 +21680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -17308,7 +21748,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -17370,7 +21810,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -17405,7 +21845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -17473,7 +21913,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -17535,7 +21975,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -17618,7 +22058,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -17707,7 +22147,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -17799,7 +22239,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -17897,7 +22337,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -17989,7 +22429,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -18084,7 +22524,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -18170,7 +22610,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -18259,7 +22699,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -18339,7 +22779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -18416,7 +22856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -18523,13 +22963,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18630,7 +23070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18731,7 +23171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -18832,7 +23272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -18933,7 +23373,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -19031,7 +23471,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -19132,7 +23572,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -19188,7 +23628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -19289,7 +23729,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -19372,7 +23812,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -19455,7 +23895,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -19520,7 +23960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -19537,12 +23977,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -19607,7 +24047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -19681,7 +24121,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -19767,7 +24207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -19850,7 +24290,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -19927,7 +24367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -20022,7 +24462,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -20093,7 +24533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -20191,7 +24631,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -20241,7 +24681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -20339,7 +24779,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -20416,7 +24856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -20514,7 +24954,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -20615,7 +25055,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -20710,12 +25150,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -20807,7 +25247,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -20884,7 +25324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -20976,7 +25416,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -21020,7 +25460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -21091,7 +25531,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -21177,7 +25617,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -21266,7 +25706,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -21358,7 +25798,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -21459,7 +25899,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -21548,7 +25988,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -21643,7 +26083,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -21690,7 +26130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -21752,7 +26192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -21790,7 +26230,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -21810,7 +26250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -21833,7 +26273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -21856,7 +26296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -21876,7 +26316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -21938,7 +26378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -22033,7 +26473,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -22125,7 +26565,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -22220,7 +26660,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -22309,7 +26749,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -22410,7 +26850,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -22502,7 +26942,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -22600,7 +27040,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -22680,7 +27120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -22751,7 +27191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -22852,13 +27292,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22959,7 +27399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23060,7 +27500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -23161,7 +27601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -23259,7 +27699,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -23354,7 +27794,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -23452,7 +27892,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -23532,7 +27972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -23630,7 +28070,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -23719,7 +28159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -23805,7 +28245,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -23885,7 +28325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -23926,12 +28366,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -23999,7 +28439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -24088,7 +28528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -24177,7 +28617,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -24263,7 +28703,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -24349,7 +28789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -24447,7 +28887,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -24515,7 +28955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -24613,7 +29053,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -24654,7 +29094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -24740,7 +29180,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -24817,7 +29257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -24915,7 +29355,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -25010,7 +29450,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -25096,12 +29536,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -25190,7 +29630,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -25276,7 +29716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -25368,7 +29808,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -25427,7 +29867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -25501,7 +29941,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -25590,7 +30030,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -25685,7 +30125,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -25774,7 +30214,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -25869,7 +30309,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -25961,7 +30401,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -26059,7 +30499,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -26106,7 +30546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -26171,7 +30611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -26182,27 +30622,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -26276,7 +30716,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -26368,7 +30808,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -26457,7 +30897,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -26546,7 +30986,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -26632,7 +31072,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -26730,7 +31170,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -26819,7 +31259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -26911,7 +31351,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -26994,7 +31434,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -27068,7 +31508,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -27174,13 +31614,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27281,7 +31721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -27382,7 +31822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -27483,7 +31923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -27584,7 +32024,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -27682,7 +32122,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -27783,7 +32223,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -27854,7 +32294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -27955,7 +32395,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -28044,7 +32484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -28124,7 +32564,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -28195,7 +32635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -28233,12 +32673,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -28294,7 +32734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -28374,7 +32814,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -28457,7 +32897,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -28537,7 +32977,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -28614,7 +33054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -28715,7 +33155,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -28783,7 +33223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -28881,7 +33321,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -28910,7 +33350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -28990,7 +33430,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -29058,7 +33498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -29156,7 +33596,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -29257,7 +33697,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -29349,12 +33789,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -29428,7 +33868,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -29511,7 +33951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -29603,7 +34043,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -29653,7 +34093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -29724,7 +34164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -29810,7 +34250,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -29905,7 +34345,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -29997,7 +34437,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -30098,7 +34538,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -30187,7 +34627,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -30279,7 +34719,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -30326,7 +34766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -30388,32 +34828,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -30484,7 +34924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -30579,7 +35019,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -30671,7 +35111,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -30772,7 +35212,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -30864,7 +35304,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -30965,7 +35405,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -31054,7 +35494,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -31140,7 +35580,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -31223,7 +35663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -31291,7 +35731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -31388,13 +35828,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -31495,7 +35935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31596,7 +36036,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -31697,7 +36137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -31798,7 +36238,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -31899,7 +36339,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -32000,7 +36440,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -32068,7 +36508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -32169,7 +36609,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -32258,7 +36698,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -32347,7 +36787,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -32427,7 +36867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -32456,12 +36896,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -32535,7 +36975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -32624,7 +37064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -32719,7 +37159,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -32802,7 +37242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -32882,7 +37322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -32983,7 +37423,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -33051,7 +37491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -33152,7 +37592,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -33217,7 +37657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -33306,7 +37746,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -33386,7 +37826,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -33481,7 +37921,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -33582,7 +38022,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -33680,12 +38120,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -33765,7 +38205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -33848,7 +38288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -33943,7 +38383,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -34008,7 +38448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -34085,7 +38525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -34177,7 +38617,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -34275,7 +38715,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -34370,7 +38810,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -34471,7 +38911,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -34563,7 +39003,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -34661,7 +39101,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -34717,7 +39157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -34779,7 +39219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -34811,7 +39251,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -34852,7 +39292,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -34890,7 +39330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -34925,7 +39365,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -34951,7 +39391,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -35025,7 +39465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -35117,7 +39557,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -35218,7 +39658,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -35313,7 +39753,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -35408,7 +39848,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -35509,7 +39949,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -35601,7 +40041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -35702,7 +40142,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -35785,7 +40225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -35865,7 +40305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -35953,20 +40393,20 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="33" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36067,7 +40507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -36168,7 +40608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -36269,7 +40709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -36367,7 +40807,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -36462,7 +40902,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -36560,7 +41000,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -36634,7 +41074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -36732,7 +41172,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -36818,7 +41258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -36904,7 +41344,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -36975,7 +41415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -37007,12 +41447,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -37062,7 +41502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -37142,7 +41582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -37225,7 +41665,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -37311,7 +41751,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -37391,7 +41831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -37486,7 +41926,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -37560,7 +42000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -37658,7 +42098,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -37729,7 +42169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -37812,7 +42252,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -37880,7 +42320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -37972,7 +42412,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -38070,7 +42510,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -38156,12 +42596,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -38238,7 +42678,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -38318,7 +42758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -38404,7 +42844,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -38445,7 +42885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -38519,7 +42959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -38602,7 +43042,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -38694,7 +43134,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -38789,7 +43229,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -38887,7 +43327,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -38976,7 +43416,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -39071,7 +43511,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -39121,7 +43561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -39189,7 +43629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -39254,7 +43694,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -39322,7 +43762,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -39375,7 +43815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -39440,7 +43880,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -39496,7 +43936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -39564,7 +44004,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -39647,7 +44087,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -39739,7 +44179,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -39831,7 +44271,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -39914,7 +44354,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -40012,7 +44452,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -40098,7 +44538,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -40190,7 +44630,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -40273,7 +44713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -40332,7 +44772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>

--- a/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
+++ b/statistics_files/2022/2022.d.monthly_circ_by_borrower.unique_borrowers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1A9F66-5C1A-42C3-9667-C1D87F062C5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC54789-C9F6-4901-A93B-E8B2C27BEA5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="719" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="719" activeTab="10" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="78">
   <si>
     <t>branchname</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>2022-10-01 - 2022-10-30</t>
+  </si>
+  <si>
+    <t>2022-11-01 - 2022-11-30</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -9573,9 +9576,9 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E281BB9B-3635-450C-9750-AAA8261D8A1F}">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="B2:AF2"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -9588,38 +9591,4322 @@
     <col min="2" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44866</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44867</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44868</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44869</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44870</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44871</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44872</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44873</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44874</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44875</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44876</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44877</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44878</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44879</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44880</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>44881</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44882</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44883</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44884</v>
+      </c>
+      <c r="U2" s="1">
+        <v>44885</v>
+      </c>
+      <c r="V2" s="1">
+        <v>44886</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44887</v>
+      </c>
+      <c r="X2" s="1">
+        <v>44888</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>44889</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>44890</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44891</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>44892</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>44893</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>44894</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>44895</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>41</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>64</v>
+      </c>
+      <c r="I4">
+        <v>71</v>
+      </c>
+      <c r="J4">
+        <v>54</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4">
+        <v>53</v>
+      </c>
+      <c r="M4">
+        <v>36</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>72</v>
+      </c>
+      <c r="P4">
+        <v>55</v>
+      </c>
+      <c r="Q4">
+        <v>46</v>
+      </c>
+      <c r="R4">
+        <v>68</v>
+      </c>
+      <c r="S4">
+        <v>70</v>
+      </c>
+      <c r="T4">
+        <v>29</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>82</v>
+      </c>
+      <c r="W4">
+        <v>49</v>
+      </c>
+      <c r="X4">
+        <v>45</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>37</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>93</v>
+      </c>
+      <c r="AD4">
+        <v>56</v>
+      </c>
+      <c r="AE4">
+        <v>59</v>
+      </c>
+      <c r="AG4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>34</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>47</v>
+      </c>
+      <c r="P5">
+        <v>22</v>
+      </c>
+      <c r="Q5">
+        <v>38</v>
+      </c>
+      <c r="R5">
+        <v>36</v>
+      </c>
+      <c r="S5">
+        <v>32</v>
+      </c>
+      <c r="T5">
+        <v>12</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>41</v>
+      </c>
+      <c r="W5">
+        <v>42</v>
+      </c>
+      <c r="X5">
+        <v>24</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>25</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>38</v>
+      </c>
+      <c r="AD5">
+        <v>36</v>
+      </c>
+      <c r="AE5">
+        <v>36</v>
+      </c>
+      <c r="AG5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>66</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>95</v>
+      </c>
+      <c r="I6">
+        <v>71</v>
+      </c>
+      <c r="J6">
+        <v>82</v>
+      </c>
+      <c r="K6">
+        <v>84</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>67</v>
+      </c>
+      <c r="N6">
+        <v>43</v>
+      </c>
+      <c r="O6">
+        <v>90</v>
+      </c>
+      <c r="P6">
+        <v>88</v>
+      </c>
+      <c r="Q6">
+        <v>68</v>
+      </c>
+      <c r="R6">
+        <v>74</v>
+      </c>
+      <c r="S6">
+        <v>52</v>
+      </c>
+      <c r="T6">
+        <v>65</v>
+      </c>
+      <c r="U6">
+        <v>37</v>
+      </c>
+      <c r="V6">
+        <v>92</v>
+      </c>
+      <c r="W6">
+        <v>72</v>
+      </c>
+      <c r="X6">
+        <v>79</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>9</v>
+      </c>
+      <c r="AA6">
+        <v>60</v>
+      </c>
+      <c r="AB6">
+        <v>32</v>
+      </c>
+      <c r="AC6">
+        <v>75</v>
+      </c>
+      <c r="AD6">
+        <v>72</v>
+      </c>
+      <c r="AE6">
+        <v>95</v>
+      </c>
+      <c r="AG6">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>56</v>
+      </c>
+      <c r="I8">
+        <v>49</v>
+      </c>
+      <c r="J8">
+        <v>68</v>
+      </c>
+      <c r="K8">
+        <v>63</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>52</v>
+      </c>
+      <c r="N8">
+        <v>21</v>
+      </c>
+      <c r="O8">
+        <v>57</v>
+      </c>
+      <c r="P8">
+        <v>61</v>
+      </c>
+      <c r="Q8">
+        <v>72</v>
+      </c>
+      <c r="R8">
+        <v>50</v>
+      </c>
+      <c r="S8">
+        <v>51</v>
+      </c>
+      <c r="T8">
+        <v>24</v>
+      </c>
+      <c r="U8">
+        <v>24</v>
+      </c>
+      <c r="V8">
+        <v>59</v>
+      </c>
+      <c r="W8">
+        <v>44</v>
+      </c>
+      <c r="X8">
+        <v>56</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <v>45</v>
+      </c>
+      <c r="AB8">
+        <v>18</v>
+      </c>
+      <c r="AC8">
+        <v>47</v>
+      </c>
+      <c r="AD8">
+        <v>62</v>
+      </c>
+      <c r="AE8">
+        <v>68</v>
+      </c>
+      <c r="AG8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>11</v>
+      </c>
+      <c r="R9">
+        <v>13</v>
+      </c>
+      <c r="S9">
+        <v>11</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>14</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>13</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>8</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>13</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9">
+        <v>9</v>
+      </c>
+      <c r="AG9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>15</v>
+      </c>
+      <c r="X10">
+        <v>9</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>9</v>
+      </c>
+      <c r="AD10">
+        <v>7</v>
+      </c>
+      <c r="AE10">
+        <v>15</v>
+      </c>
+      <c r="AG10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>9</v>
+      </c>
+      <c r="Z11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>7</v>
+      </c>
+      <c r="AE11">
+        <v>7</v>
+      </c>
+      <c r="AG11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AG12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AE14">
+        <v>6</v>
+      </c>
+      <c r="AG14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>11</v>
+      </c>
+      <c r="R15">
+        <v>8</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>12</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>12</v>
+      </c>
+      <c r="AC15">
+        <v>7</v>
+      </c>
+      <c r="AD15">
+        <v>5</v>
+      </c>
+      <c r="AE15">
+        <v>8</v>
+      </c>
+      <c r="AG15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>13</v>
+      </c>
+      <c r="Q16">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <v>11</v>
+      </c>
+      <c r="W16">
+        <v>25</v>
+      </c>
+      <c r="X16">
+        <v>14</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>13</v>
+      </c>
+      <c r="AD16">
+        <v>13</v>
+      </c>
+      <c r="AE16">
+        <v>8</v>
+      </c>
+      <c r="AG16">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>30</v>
+      </c>
+      <c r="AE17">
+        <v>4</v>
+      </c>
+      <c r="AG17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>4</v>
+      </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>33</v>
+      </c>
+      <c r="J19">
+        <v>23</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>28</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>29</v>
+      </c>
+      <c r="P19">
+        <v>19</v>
+      </c>
+      <c r="Q19">
+        <v>25</v>
+      </c>
+      <c r="R19">
+        <v>40</v>
+      </c>
+      <c r="S19">
+        <v>14</v>
+      </c>
+      <c r="T19">
+        <v>15</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>31</v>
+      </c>
+      <c r="W19">
+        <v>22</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>3</v>
+      </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+      <c r="AC19">
+        <v>41</v>
+      </c>
+      <c r="AD19">
+        <v>23</v>
+      </c>
+      <c r="AE19">
+        <v>17</v>
+      </c>
+      <c r="AG19">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>6</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>34</v>
+      </c>
+      <c r="J21">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>40</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>12</v>
+      </c>
+      <c r="O21">
+        <v>29</v>
+      </c>
+      <c r="P21">
+        <v>27</v>
+      </c>
+      <c r="Q21">
+        <v>26</v>
+      </c>
+      <c r="R21">
+        <v>29</v>
+      </c>
+      <c r="S21">
+        <v>23</v>
+      </c>
+      <c r="T21">
+        <v>11</v>
+      </c>
+      <c r="U21">
+        <v>18</v>
+      </c>
+      <c r="V21">
+        <v>23</v>
+      </c>
+      <c r="W21">
+        <v>32</v>
+      </c>
+      <c r="X21">
+        <v>13</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <v>3</v>
+      </c>
+      <c r="AA21">
+        <v>15</v>
+      </c>
+      <c r="AB21">
+        <v>10</v>
+      </c>
+      <c r="AC21">
+        <v>34</v>
+      </c>
+      <c r="AD21">
+        <v>30</v>
+      </c>
+      <c r="AE21">
+        <v>18</v>
+      </c>
+      <c r="AG21">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>4</v>
+      </c>
+      <c r="AG22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>35</v>
+      </c>
+      <c r="J23">
+        <v>27</v>
+      </c>
+      <c r="K23">
+        <v>43</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>41</v>
+      </c>
+      <c r="P23">
+        <v>30</v>
+      </c>
+      <c r="Q23">
+        <v>32</v>
+      </c>
+      <c r="R23">
+        <v>41</v>
+      </c>
+      <c r="S23">
+        <v>29</v>
+      </c>
+      <c r="T23">
+        <v>17</v>
+      </c>
+      <c r="V23">
+        <v>32</v>
+      </c>
+      <c r="W23">
+        <v>36</v>
+      </c>
+      <c r="X23">
+        <v>38</v>
+      </c>
+      <c r="AC23">
+        <v>58</v>
+      </c>
+      <c r="AD23">
+        <v>42</v>
+      </c>
+      <c r="AE23">
+        <v>38</v>
+      </c>
+      <c r="AG23">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>7</v>
+      </c>
+      <c r="X24">
+        <v>9</v>
+      </c>
+      <c r="AC24">
+        <v>4</v>
+      </c>
+      <c r="AD24">
+        <v>3</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AG24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>26</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>26</v>
+      </c>
+      <c r="I25">
+        <v>28</v>
+      </c>
+      <c r="J25">
+        <v>27</v>
+      </c>
+      <c r="K25">
+        <v>21</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>27</v>
+      </c>
+      <c r="P25">
+        <v>27</v>
+      </c>
+      <c r="Q25">
+        <v>23</v>
+      </c>
+      <c r="R25">
+        <v>34</v>
+      </c>
+      <c r="S25">
+        <v>30</v>
+      </c>
+      <c r="T25">
+        <v>18</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+      <c r="V25">
+        <v>27</v>
+      </c>
+      <c r="W25">
+        <v>21</v>
+      </c>
+      <c r="X25">
+        <v>31</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>23</v>
+      </c>
+      <c r="AA25">
+        <v>19</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>29</v>
+      </c>
+      <c r="AD25">
+        <v>26</v>
+      </c>
+      <c r="AE25">
+        <v>19</v>
+      </c>
+      <c r="AG25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>101</v>
+      </c>
+      <c r="C26">
+        <v>106</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>82</v>
+      </c>
+      <c r="F26">
+        <v>57</v>
+      </c>
+      <c r="G26">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <v>98</v>
+      </c>
+      <c r="I26">
+        <v>99</v>
+      </c>
+      <c r="J26">
+        <v>92</v>
+      </c>
+      <c r="K26">
+        <v>70</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <v>87</v>
+      </c>
+      <c r="N26">
+        <v>34</v>
+      </c>
+      <c r="O26">
+        <v>132</v>
+      </c>
+      <c r="P26">
+        <v>108</v>
+      </c>
+      <c r="Q26">
+        <v>107</v>
+      </c>
+      <c r="R26">
+        <v>102</v>
+      </c>
+      <c r="S26">
+        <v>76</v>
+      </c>
+      <c r="T26">
+        <v>67</v>
+      </c>
+      <c r="U26">
+        <v>40</v>
+      </c>
+      <c r="V26">
+        <v>108</v>
+      </c>
+      <c r="W26">
+        <v>92</v>
+      </c>
+      <c r="X26">
+        <v>77</v>
+      </c>
+      <c r="Y26">
+        <v>5</v>
+      </c>
+      <c r="Z26">
+        <v>17</v>
+      </c>
+      <c r="AA26">
+        <v>90</v>
+      </c>
+      <c r="AB26">
+        <v>30</v>
+      </c>
+      <c r="AC26">
+        <v>127</v>
+      </c>
+      <c r="AD26">
+        <v>93</v>
+      </c>
+      <c r="AE26">
+        <v>101</v>
+      </c>
+      <c r="AG26">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>13</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27">
+        <v>8</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>11</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>3</v>
+      </c>
+      <c r="AG27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>18</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="Q29">
+        <v>20</v>
+      </c>
+      <c r="R29">
+        <v>11</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>12</v>
+      </c>
+      <c r="W29">
+        <v>13</v>
+      </c>
+      <c r="X29">
+        <v>9</v>
+      </c>
+      <c r="Y29">
+        <v>2</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>9</v>
+      </c>
+      <c r="AC29">
+        <v>11</v>
+      </c>
+      <c r="AD29">
+        <v>11</v>
+      </c>
+      <c r="AE29">
+        <v>8</v>
+      </c>
+      <c r="AG29">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="AC30">
+        <v>3</v>
+      </c>
+      <c r="AD30">
+        <v>3</v>
+      </c>
+      <c r="AE30">
+        <v>3</v>
+      </c>
+      <c r="AG30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>22</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+      <c r="L31">
+        <v>18</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>23</v>
+      </c>
+      <c r="Q31">
+        <v>17</v>
+      </c>
+      <c r="R31">
+        <v>15</v>
+      </c>
+      <c r="S31">
+        <v>19</v>
+      </c>
+      <c r="T31">
+        <v>11</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>21</v>
+      </c>
+      <c r="W31">
+        <v>12</v>
+      </c>
+      <c r="X31">
+        <v>39</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>25</v>
+      </c>
+      <c r="AD31">
+        <v>18</v>
+      </c>
+      <c r="AE31">
+        <v>23</v>
+      </c>
+      <c r="AG31">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <v>7</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>7</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>6</v>
+      </c>
+      <c r="AE33">
+        <v>5</v>
+      </c>
+      <c r="AG33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>21</v>
+      </c>
+      <c r="H34">
+        <v>27</v>
+      </c>
+      <c r="I34">
+        <v>35</v>
+      </c>
+      <c r="J34">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>37</v>
+      </c>
+      <c r="M34">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>35</v>
+      </c>
+      <c r="P34">
+        <v>29</v>
+      </c>
+      <c r="Q34">
+        <v>24</v>
+      </c>
+      <c r="R34">
+        <v>31</v>
+      </c>
+      <c r="S34">
+        <v>34</v>
+      </c>
+      <c r="T34">
+        <v>19</v>
+      </c>
+      <c r="V34">
+        <v>33</v>
+      </c>
+      <c r="W34">
+        <v>34</v>
+      </c>
+      <c r="X34">
+        <v>35</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>22</v>
+      </c>
+      <c r="AC34">
+        <v>51</v>
+      </c>
+      <c r="AD34">
+        <v>46</v>
+      </c>
+      <c r="AE34">
+        <v>26</v>
+      </c>
+      <c r="AG34">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>14</v>
+      </c>
+      <c r="H35">
+        <v>26</v>
+      </c>
+      <c r="I35">
+        <v>19</v>
+      </c>
+      <c r="J35">
+        <v>29</v>
+      </c>
+      <c r="K35">
+        <v>14</v>
+      </c>
+      <c r="M35">
+        <v>21</v>
+      </c>
+      <c r="O35">
+        <v>33</v>
+      </c>
+      <c r="P35">
+        <v>15</v>
+      </c>
+      <c r="Q35">
+        <v>9</v>
+      </c>
+      <c r="R35">
+        <v>16</v>
+      </c>
+      <c r="S35">
+        <v>20</v>
+      </c>
+      <c r="T35">
+        <v>15</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>29</v>
+      </c>
+      <c r="W35">
+        <v>20</v>
+      </c>
+      <c r="X35">
+        <v>23</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>38</v>
+      </c>
+      <c r="AD35">
+        <v>9</v>
+      </c>
+      <c r="AE35">
+        <v>17</v>
+      </c>
+      <c r="AG35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>13</v>
+      </c>
+      <c r="J36">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>14</v>
+      </c>
+      <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>23</v>
+      </c>
+      <c r="P36">
+        <v>20</v>
+      </c>
+      <c r="Q36">
+        <v>20</v>
+      </c>
+      <c r="R36">
+        <v>19</v>
+      </c>
+      <c r="S36">
+        <v>15</v>
+      </c>
+      <c r="T36">
+        <v>12</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+      <c r="V36">
+        <v>14</v>
+      </c>
+      <c r="W36">
+        <v>12</v>
+      </c>
+      <c r="X36">
+        <v>28</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>9</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>22</v>
+      </c>
+      <c r="AD36">
+        <v>13</v>
+      </c>
+      <c r="AE36">
+        <v>18</v>
+      </c>
+      <c r="AG36">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <v>54</v>
+      </c>
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>68</v>
+      </c>
+      <c r="I37">
+        <v>69</v>
+      </c>
+      <c r="J37">
+        <v>73</v>
+      </c>
+      <c r="K37">
+        <v>80</v>
+      </c>
+      <c r="L37">
+        <v>55</v>
+      </c>
+      <c r="M37">
+        <v>29</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>61</v>
+      </c>
+      <c r="P37">
+        <v>53</v>
+      </c>
+      <c r="Q37">
+        <v>74</v>
+      </c>
+      <c r="R37">
+        <v>69</v>
+      </c>
+      <c r="S37">
+        <v>50</v>
+      </c>
+      <c r="T37">
+        <v>32</v>
+      </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
+      <c r="V37">
+        <v>56</v>
+      </c>
+      <c r="W37">
+        <v>69</v>
+      </c>
+      <c r="X37">
+        <v>61</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>2</v>
+      </c>
+      <c r="AA37">
+        <v>39</v>
+      </c>
+      <c r="AB37">
+        <v>6</v>
+      </c>
+      <c r="AC37">
+        <v>70</v>
+      </c>
+      <c r="AD37">
+        <v>68</v>
+      </c>
+      <c r="AE37">
+        <v>77</v>
+      </c>
+      <c r="AG37">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>11</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>14</v>
+      </c>
+      <c r="M38">
+        <v>11</v>
+      </c>
+      <c r="O38">
+        <v>15</v>
+      </c>
+      <c r="P38">
+        <v>19</v>
+      </c>
+      <c r="Q38">
+        <v>17</v>
+      </c>
+      <c r="R38">
+        <v>11</v>
+      </c>
+      <c r="S38">
+        <v>14</v>
+      </c>
+      <c r="T38">
+        <v>7</v>
+      </c>
+      <c r="V38">
+        <v>12</v>
+      </c>
+      <c r="W38">
+        <v>19</v>
+      </c>
+      <c r="X38">
+        <v>17</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>10</v>
+      </c>
+      <c r="AB38">
+        <v>2</v>
+      </c>
+      <c r="AC38">
+        <v>9</v>
+      </c>
+      <c r="AD38">
+        <v>13</v>
+      </c>
+      <c r="AE38">
+        <v>9</v>
+      </c>
+      <c r="AG38">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>49</v>
+      </c>
+      <c r="D39">
+        <v>51</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>53</v>
+      </c>
+      <c r="I39">
+        <v>51</v>
+      </c>
+      <c r="J39">
+        <v>36</v>
+      </c>
+      <c r="K39">
+        <v>65</v>
+      </c>
+      <c r="M39">
+        <v>32</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>56</v>
+      </c>
+      <c r="P39">
+        <v>52</v>
+      </c>
+      <c r="Q39">
+        <v>39</v>
+      </c>
+      <c r="R39">
+        <v>35</v>
+      </c>
+      <c r="S39">
+        <v>38</v>
+      </c>
+      <c r="T39">
+        <v>23</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>63</v>
+      </c>
+      <c r="W39">
+        <v>43</v>
+      </c>
+      <c r="X39">
+        <v>60</v>
+      </c>
+      <c r="Y39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>34</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>58</v>
+      </c>
+      <c r="AD39">
+        <v>61</v>
+      </c>
+      <c r="AE39">
+        <v>41</v>
+      </c>
+      <c r="AG39">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>4</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>6</v>
+      </c>
+      <c r="AG40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>8</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>2</v>
+      </c>
+      <c r="AG41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>24</v>
+      </c>
+      <c r="I42">
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>31</v>
+      </c>
+      <c r="K42">
+        <v>29</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>12</v>
+      </c>
+      <c r="P42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>17</v>
+      </c>
+      <c r="R42">
+        <v>12</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="V42">
+        <v>21</v>
+      </c>
+      <c r="W42">
+        <v>19</v>
+      </c>
+      <c r="AC42">
+        <v>19</v>
+      </c>
+      <c r="AD42">
+        <v>24</v>
+      </c>
+      <c r="AE42">
+        <v>21</v>
+      </c>
+      <c r="AG42">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>64</v>
+      </c>
+      <c r="D43">
+        <v>62</v>
+      </c>
+      <c r="E43">
+        <v>46</v>
+      </c>
+      <c r="H43">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>33</v>
+      </c>
+      <c r="J43">
+        <v>78</v>
+      </c>
+      <c r="K43">
+        <v>81</v>
+      </c>
+      <c r="L43">
+        <v>40</v>
+      </c>
+      <c r="O43">
+        <v>71</v>
+      </c>
+      <c r="P43">
+        <v>68</v>
+      </c>
+      <c r="Q43">
+        <v>65</v>
+      </c>
+      <c r="R43">
+        <v>64</v>
+      </c>
+      <c r="S43">
+        <v>46</v>
+      </c>
+      <c r="V43">
+        <v>67</v>
+      </c>
+      <c r="W43">
+        <v>60</v>
+      </c>
+      <c r="AC43">
+        <v>73</v>
+      </c>
+      <c r="AD43">
+        <v>72</v>
+      </c>
+      <c r="AE43">
+        <v>63</v>
+      </c>
+      <c r="AG43">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
+      </c>
+      <c r="AG44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>21</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>13</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <v>16</v>
+      </c>
+      <c r="Q45">
+        <v>9</v>
+      </c>
+      <c r="R45">
+        <v>6</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>3</v>
+      </c>
+      <c r="AC45">
+        <v>8</v>
+      </c>
+      <c r="AD45">
+        <v>9</v>
+      </c>
+      <c r="AE45">
+        <v>8</v>
+      </c>
+      <c r="AG45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>18</v>
+      </c>
+      <c r="J46">
+        <v>18</v>
+      </c>
+      <c r="K46">
+        <v>16</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>21</v>
+      </c>
+      <c r="R46">
+        <v>16</v>
+      </c>
+      <c r="S46">
+        <v>8</v>
+      </c>
+      <c r="W46">
+        <v>19</v>
+      </c>
+      <c r="AE46">
+        <v>21</v>
+      </c>
+      <c r="AG46">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <v>11</v>
+      </c>
+      <c r="M47">
+        <v>7</v>
+      </c>
+      <c r="O47">
+        <v>6</v>
+      </c>
+      <c r="Q47">
+        <v>8</v>
+      </c>
+      <c r="R47">
+        <v>7</v>
+      </c>
+      <c r="S47">
+        <v>9</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>10</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="AC47">
+        <v>10</v>
+      </c>
+      <c r="AE47">
+        <v>9</v>
+      </c>
+      <c r="AG47">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>17</v>
+      </c>
+      <c r="I48">
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <v>15</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>26</v>
+      </c>
+      <c r="M48">
+        <v>11</v>
+      </c>
+      <c r="O48">
+        <v>14</v>
+      </c>
+      <c r="P48">
+        <v>26</v>
+      </c>
+      <c r="Q48">
+        <v>18</v>
+      </c>
+      <c r="R48">
+        <v>48</v>
+      </c>
+      <c r="S48">
+        <v>37</v>
+      </c>
+      <c r="T48">
+        <v>4</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>21</v>
+      </c>
+      <c r="W48">
+        <v>14</v>
+      </c>
+      <c r="X48">
+        <v>14</v>
+      </c>
+      <c r="AA48">
+        <v>7</v>
+      </c>
+      <c r="AC48">
+        <v>28</v>
+      </c>
+      <c r="AD48">
+        <v>13</v>
+      </c>
+      <c r="AE48">
+        <v>9</v>
+      </c>
+      <c r="AG48">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>31</v>
+      </c>
+      <c r="C49">
+        <v>35</v>
+      </c>
+      <c r="D49">
+        <v>33</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>34</v>
+      </c>
+      <c r="I49">
+        <v>28</v>
+      </c>
+      <c r="J49">
+        <v>22</v>
+      </c>
+      <c r="K49">
+        <v>30</v>
+      </c>
+      <c r="L49">
+        <v>26</v>
+      </c>
+      <c r="M49">
+        <v>14</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>26</v>
+      </c>
+      <c r="P49">
+        <v>18</v>
+      </c>
+      <c r="Q49">
+        <v>18</v>
+      </c>
+      <c r="R49">
+        <v>28</v>
+      </c>
+      <c r="S49">
+        <v>42</v>
+      </c>
+      <c r="T49">
+        <v>6</v>
+      </c>
+      <c r="V49">
+        <v>40</v>
+      </c>
+      <c r="W49">
+        <v>35</v>
+      </c>
+      <c r="X49">
+        <v>32</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>24</v>
+      </c>
+      <c r="AA49">
+        <v>14</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>30</v>
+      </c>
+      <c r="AD49">
+        <v>19</v>
+      </c>
+      <c r="AE49">
+        <v>25</v>
+      </c>
+      <c r="AG49">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>28</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>21</v>
+      </c>
+      <c r="J50">
+        <v>26</v>
+      </c>
+      <c r="K50">
+        <v>27</v>
+      </c>
+      <c r="L50">
+        <v>13</v>
+      </c>
+      <c r="M50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>29</v>
+      </c>
+      <c r="P50">
+        <v>15</v>
+      </c>
+      <c r="Q50">
+        <v>19</v>
+      </c>
+      <c r="R50">
+        <v>23</v>
+      </c>
+      <c r="S50">
+        <v>26</v>
+      </c>
+      <c r="T50">
+        <v>6</v>
+      </c>
+      <c r="V50">
+        <v>40</v>
+      </c>
+      <c r="W50">
+        <v>11</v>
+      </c>
+      <c r="X50">
+        <v>20</v>
+      </c>
+      <c r="Z50">
+        <v>6</v>
+      </c>
+      <c r="AC50">
+        <v>40</v>
+      </c>
+      <c r="AD50">
+        <v>15</v>
+      </c>
+      <c r="AE50">
+        <v>19</v>
+      </c>
+      <c r="AG50">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>23</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>17</v>
+      </c>
+      <c r="I51">
+        <v>43</v>
+      </c>
+      <c r="J51">
+        <v>19</v>
+      </c>
+      <c r="K51">
+        <v>39</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>14</v>
+      </c>
+      <c r="O51">
+        <v>17</v>
+      </c>
+      <c r="P51">
+        <v>26</v>
+      </c>
+      <c r="Q51">
+        <v>26</v>
+      </c>
+      <c r="R51">
+        <v>35</v>
+      </c>
+      <c r="S51">
+        <v>16</v>
+      </c>
+      <c r="T51">
+        <v>5</v>
+      </c>
+      <c r="V51">
+        <v>11</v>
+      </c>
+      <c r="W51">
+        <v>40</v>
+      </c>
+      <c r="X51">
+        <v>31</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>5</v>
+      </c>
+      <c r="AC51">
+        <v>13</v>
+      </c>
+      <c r="AD51">
+        <v>14</v>
+      </c>
+      <c r="AE51">
+        <v>31</v>
+      </c>
+      <c r="AG51">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>31</v>
+      </c>
+      <c r="C52">
+        <v>46</v>
+      </c>
+      <c r="D52">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <v>33</v>
+      </c>
+      <c r="F52">
+        <v>23</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52">
+        <v>42</v>
+      </c>
+      <c r="J52">
+        <v>39</v>
+      </c>
+      <c r="K52">
+        <v>45</v>
+      </c>
+      <c r="L52">
+        <v>52</v>
+      </c>
+      <c r="M52">
+        <v>30</v>
+      </c>
+      <c r="N52">
+        <v>7</v>
+      </c>
+      <c r="O52">
+        <v>42</v>
+      </c>
+      <c r="P52">
+        <v>39</v>
+      </c>
+      <c r="Q52">
+        <v>36</v>
+      </c>
+      <c r="R52">
+        <v>33</v>
+      </c>
+      <c r="S52">
+        <v>46</v>
+      </c>
+      <c r="T52">
+        <v>32</v>
+      </c>
+      <c r="U52">
+        <v>10</v>
+      </c>
+      <c r="V52">
+        <v>43</v>
+      </c>
+      <c r="W52">
+        <v>47</v>
+      </c>
+      <c r="X52">
+        <v>47</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>15</v>
+      </c>
+      <c r="AA52">
+        <v>22</v>
+      </c>
+      <c r="AB52">
+        <v>10</v>
+      </c>
+      <c r="AC52">
+        <v>46</v>
+      </c>
+      <c r="AD52">
+        <v>55</v>
+      </c>
+      <c r="AE52">
+        <v>40</v>
+      </c>
+      <c r="AG52">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <v>11</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>6</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <v>10</v>
+      </c>
+      <c r="R53">
+        <v>7</v>
+      </c>
+      <c r="S53">
+        <v>12</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>5</v>
+      </c>
+      <c r="W53">
+        <v>7</v>
+      </c>
+      <c r="X53">
+        <v>6</v>
+      </c>
+      <c r="Z53">
+        <v>5</v>
+      </c>
+      <c r="AA53">
+        <v>6</v>
+      </c>
+      <c r="AC53">
+        <v>5</v>
+      </c>
+      <c r="AD53">
+        <v>5</v>
+      </c>
+      <c r="AE53">
+        <v>4</v>
+      </c>
+      <c r="AG53">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>23</v>
+      </c>
+      <c r="E54">
+        <v>16</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="H54">
+        <v>19</v>
+      </c>
+      <c r="I54">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>26</v>
+      </c>
+      <c r="K54">
+        <v>14</v>
+      </c>
+      <c r="L54">
+        <v>16</v>
+      </c>
+      <c r="M54">
+        <v>20</v>
+      </c>
+      <c r="O54">
+        <v>18</v>
+      </c>
+      <c r="P54">
+        <v>13</v>
+      </c>
+      <c r="Q54">
+        <v>19</v>
+      </c>
+      <c r="R54">
+        <v>21</v>
+      </c>
+      <c r="S54">
+        <v>21</v>
+      </c>
+      <c r="T54">
+        <v>7</v>
+      </c>
+      <c r="V54">
+        <v>19</v>
+      </c>
+      <c r="W54">
+        <v>21</v>
+      </c>
+      <c r="X54">
+        <v>21</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AC54">
+        <v>14</v>
+      </c>
+      <c r="AD54">
+        <v>22</v>
+      </c>
+      <c r="AE54">
+        <v>23</v>
+      </c>
+      <c r="AG54">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>5</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>6</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
+        <v>3</v>
+      </c>
+      <c r="AE55">
+        <v>3</v>
+      </c>
+      <c r="AG55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>6</v>
+      </c>
+      <c r="Q56">
+        <v>9</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>4</v>
+      </c>
+      <c r="W56">
+        <v>2</v>
+      </c>
+      <c r="X56">
+        <v>6</v>
+      </c>
+      <c r="AC56">
+        <v>4</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>6</v>
+      </c>
+      <c r="AG56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>3</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>4</v>
+      </c>
+      <c r="R57">
+        <v>6</v>
+      </c>
+      <c r="S57">
+        <v>4</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>7</v>
+      </c>
+      <c r="W57">
+        <v>5</v>
+      </c>
+      <c r="X57">
+        <v>5</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>7</v>
+      </c>
+      <c r="AD57">
+        <v>6</v>
+      </c>
+      <c r="AE57">
+        <v>4</v>
+      </c>
+      <c r="AG57">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
